--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="113_{0AE4E784-A55A-46D6-B24A-1982B84D5895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BEFC8A70-B090-4F6E-ADC6-3D6AAB34A326}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="113_{0AE4E784-A55A-46D6-B24A-1982B84D5895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3DEDF642-7784-47C4-9ECB-48572D3EFC09}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="68">
   <si>
     <t>Jogador</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>Gols (total)</t>
+  </si>
+  <si>
+    <t>Dino</t>
+  </si>
+  <si>
+    <t>Sem data</t>
   </si>
 </sst>
 </file>
@@ -1217,11 +1223,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF42"/>
+  <dimension ref="A1:AF43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W13" sqref="W13"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,6 +1309,9 @@
       <c r="U1" s="1">
         <v>45581</v>
       </c>
+      <c r="V1" s="1">
+        <v>45588</v>
+      </c>
       <c r="AC1" t="s">
         <v>57</v>
       </c>
@@ -1380,17 +1389,20 @@
       <c r="U2">
         <v>5.5</v>
       </c>
+      <c r="V2">
+        <v>6</v>
+      </c>
       <c r="AC2">
         <f t="shared" ref="AC2:AC42" si="0">COUNT(B2:AB2)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD2" s="18">
         <f t="shared" ref="AD2:AD42" si="1">AVERAGE(B2:AB2)</f>
-        <v>6.2</v>
+        <v>6.1904761904761907</v>
       </c>
       <c r="AE2">
         <f t="shared" ref="AE2:AE42" si="2">IF(AC2&gt;1,_xlfn.STDEV.S(B2:AB2),"")</f>
-        <v>0.80131470918603331</v>
+        <v>0.78224341601879854</v>
       </c>
       <c r="AF2">
         <v>1</v>
@@ -1460,17 +1472,20 @@
       <c r="U3">
         <v>6.5</v>
       </c>
+      <c r="V3">
+        <v>6.5</v>
+      </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD3" s="18">
         <f t="shared" si="1"/>
-        <v>5.8</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AE3">
         <f t="shared" si="2"/>
-        <v>0.57124057057747935</v>
+        <v>0.57735026918962562</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1537,17 +1552,20 @@
       <c r="U4">
         <v>6.5</v>
       </c>
+      <c r="V4">
+        <v>6.5</v>
+      </c>
       <c r="AC4">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD4" s="18">
         <f t="shared" si="1"/>
-        <v>6.5526315789473681</v>
+        <v>6.55</v>
       </c>
       <c r="AE4">
         <f t="shared" si="2"/>
-        <v>0.46829290579084676</v>
+        <v>0.45595475306449568</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1611,17 +1629,20 @@
       <c r="U5">
         <v>6</v>
       </c>
+      <c r="V5">
+        <v>5.5</v>
+      </c>
       <c r="AC5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD5" s="18">
         <f t="shared" si="1"/>
-        <v>5.9444444444444446</v>
+        <v>5.9210526315789478</v>
       </c>
       <c r="AE5">
         <f t="shared" si="2"/>
-        <v>0.45012706993133311</v>
+        <v>0.44917077594709159</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1682,17 +1703,20 @@
       <c r="U6">
         <v>6.5</v>
       </c>
+      <c r="V6">
+        <v>6</v>
+      </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD6" s="18">
         <f t="shared" si="1"/>
-        <v>6.2647058823529411</v>
+        <v>6.25</v>
       </c>
       <c r="AE6">
         <f t="shared" si="2"/>
-        <v>0.53378504155533923</v>
+        <v>0.5215925838520058</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -1753,17 +1777,20 @@
       <c r="U7">
         <v>5.5</v>
       </c>
+      <c r="V7">
+        <v>5.5</v>
+      </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD7" s="18">
         <f t="shared" si="1"/>
-        <v>5.7352941176470589</v>
+        <v>5.7222222222222223</v>
       </c>
       <c r="AE7">
         <f t="shared" si="2"/>
-        <v>0.50366305263363853</v>
+        <v>0.49176220407782173</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -1821,17 +1848,20 @@
       <c r="U8">
         <v>6.5</v>
       </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
       <c r="AC8">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD8" s="18">
         <f t="shared" si="1"/>
-        <v>7.03125</v>
+        <v>6.9705882352941178</v>
       </c>
       <c r="AE8">
         <f t="shared" si="2"/>
-        <v>0.5618051263561058</v>
+        <v>0.5987118525241848</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -1889,9 +1919,12 @@
       <c r="U9">
         <v>6</v>
       </c>
+      <c r="V9">
+        <v>6.5</v>
+      </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD9" s="18">
         <f t="shared" si="1"/>
@@ -1899,7 +1932,7 @@
       </c>
       <c r="AE9">
         <f t="shared" si="2"/>
-        <v>0.70710678118654757</v>
+        <v>0.68465319688145765</v>
       </c>
       <c r="AF9">
         <v>1</v>
@@ -1954,17 +1987,20 @@
       <c r="T10">
         <v>7</v>
       </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
       <c r="AC10">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD10" s="18">
         <f t="shared" si="1"/>
-        <v>6.4333333333333336</v>
+        <v>6.40625</v>
       </c>
       <c r="AE10">
         <f t="shared" si="2"/>
-        <v>0.37161167647860327</v>
+        <v>0.375</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2019,17 +2055,20 @@
       <c r="T11">
         <v>6.5</v>
       </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
       <c r="AC11">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD11" s="18">
         <f t="shared" si="1"/>
-        <v>5.9333333333333336</v>
+        <v>5.9375</v>
       </c>
       <c r="AE11">
         <f t="shared" si="2"/>
-        <v>0.56273143387113767</v>
+        <v>0.54390562906935735</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -2311,17 +2350,20 @@
       <c r="U16">
         <v>3.5</v>
       </c>
+      <c r="V16">
+        <v>5.5</v>
+      </c>
       <c r="AC16">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD16" s="18">
         <f t="shared" si="1"/>
-        <v>4.958333333333333</v>
+        <v>5</v>
       </c>
       <c r="AE16">
         <f t="shared" si="2"/>
-        <v>0.86493124617281714</v>
+        <v>0.84162541153017323</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -2414,17 +2456,20 @@
       <c r="U18">
         <v>6</v>
       </c>
+      <c r="V18">
+        <v>6.5</v>
+      </c>
       <c r="AC18">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD18" s="18">
         <f t="shared" si="1"/>
-        <v>6.3636363636363633</v>
+        <v>6.375</v>
       </c>
       <c r="AE18">
         <f t="shared" si="2"/>
-        <v>0.74467808786445178</v>
+        <v>0.71111308396190986</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -2511,17 +2556,20 @@
       <c r="U20">
         <v>6.5</v>
       </c>
+      <c r="V20">
+        <v>5.5</v>
+      </c>
       <c r="AC20">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD20" s="18">
         <f t="shared" si="1"/>
-        <v>5.95</v>
+        <v>5.9090909090909092</v>
       </c>
       <c r="AE20">
         <f t="shared" si="2"/>
-        <v>0.49721446300587657</v>
+        <v>0.49082490860702138</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -2786,9 +2834,12 @@
       <c r="U27">
         <v>6.5</v>
       </c>
+      <c r="V27">
+        <v>6</v>
+      </c>
       <c r="AC27">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD27" s="18">
         <f t="shared" si="1"/>
@@ -2796,7 +2847,7 @@
       </c>
       <c r="AE27">
         <f t="shared" si="2"/>
-        <v>0.70710678118654757</v>
+        <v>0.61237243569579447</v>
       </c>
       <c r="AF27">
         <v>1</v>
@@ -2870,17 +2921,20 @@
       <c r="S30">
         <v>6.5</v>
       </c>
+      <c r="V30">
+        <v>6.5</v>
+      </c>
       <c r="AC30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD30" s="18">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="AE30">
         <f t="shared" si="2"/>
-        <v>0.70710678118654757</v>
+        <v>0.57735026918962584</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3026,17 +3080,20 @@
       <c r="B36">
         <v>7</v>
       </c>
+      <c r="V36">
+        <v>6.5</v>
+      </c>
       <c r="AC36">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD36" s="18">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AE36" t="str">
+        <v>6.75</v>
+      </c>
+      <c r="AE36">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3072,17 +3129,20 @@
       <c r="M38">
         <v>6</v>
       </c>
+      <c r="V38">
+        <v>6.5</v>
+      </c>
       <c r="AC38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD38" s="18">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AE38" t="str">
+        <v>6.25</v>
+      </c>
+      <c r="AE38">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3183,9 +3243,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="V43">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:T38 V2:AA38">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="B2:T38 W2:AA38">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3197,7 +3265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Q39">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3209,7 +3277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AC39">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3221,7 +3289,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE2:AE39">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3233,7 +3301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC40:AC42">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3245,7 +3313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE40:AE42">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3256,7 +3324,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:AA47 B2:T42 V2:AA42">
+  <conditionalFormatting sqref="B44:AA47 B2:T42 B43:U43 W2:AA43">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC42">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD39">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3268,7 +3360,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC42">
+  <conditionalFormatting sqref="AD40:AD42">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3280,7 +3372,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD39">
+  <conditionalFormatting sqref="AD2:AD42">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3292,7 +3384,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AD42">
+  <conditionalFormatting sqref="U2:U38">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3304,7 +3396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD42">
+  <conditionalFormatting sqref="U2:U42">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3316,7 +3408,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U38">
+  <conditionalFormatting sqref="F2:U42 W2:AA42">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3328,7 +3420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U42">
+  <conditionalFormatting sqref="V2:V38">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3340,7 +3432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:AA42">
+  <conditionalFormatting sqref="V2:V43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3358,10 +3450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6307,6 +6399,156 @@
         <v>2</v>
       </c>
     </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="14">
+        <v>45588</v>
+      </c>
+      <c r="B60" s="3">
+        <v>5</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I60" s="9">
+        <v>3</v>
+      </c>
+      <c r="J60" s="10">
+        <v>2</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M60" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="14">
+        <v>45588</v>
+      </c>
+      <c r="B61" s="3">
+        <v>5</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I61" s="11">
+        <v>6</v>
+      </c>
+      <c r="J61" s="2">
+        <v>3</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="14">
+        <v>45588</v>
+      </c>
+      <c r="B62" s="5">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="5">
+        <v>5</v>
+      </c>
+      <c r="J62" s="8">
+        <v>2</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O62" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6314,94 +6556,109 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40949BC3-8DAE-4185-A4C0-F8573FA5A3A2}">
-  <dimension ref="A1:AD42"/>
+  <dimension ref="A1:AI43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1">
+        <v>45448</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45455</v>
+      </c>
+      <c r="E1" s="1">
+        <v>45462</v>
+      </c>
+      <c r="F1" s="1">
+        <v>45469</v>
+      </c>
+      <c r="G1" s="1">
         <v>45476</v>
       </c>
-      <c r="C1" s="1">
+      <c r="H1" s="1">
         <v>45483</v>
       </c>
-      <c r="D1" s="1">
+      <c r="I1" s="1">
         <v>45490</v>
       </c>
-      <c r="E1" s="1">
+      <c r="J1" s="1">
         <v>45498</v>
       </c>
-      <c r="F1" s="1">
+      <c r="K1" s="1">
         <v>45504</v>
       </c>
-      <c r="G1" s="1">
+      <c r="L1" s="1">
         <v>45511</v>
       </c>
-      <c r="H1" s="1">
+      <c r="M1" s="1">
         <v>45518</v>
       </c>
-      <c r="I1" s="1">
+      <c r="N1" s="1">
         <v>45525</v>
       </c>
-      <c r="J1" s="1">
+      <c r="O1" s="1">
         <v>45532</v>
       </c>
-      <c r="K1" s="1">
+      <c r="P1" s="1">
         <v>45539</v>
       </c>
-      <c r="L1" s="1">
+      <c r="Q1" s="1">
         <v>45546</v>
       </c>
-      <c r="M1" s="1">
+      <c r="R1" s="1">
         <v>45553</v>
       </c>
-      <c r="N1" s="1">
+      <c r="S1" s="1">
         <v>45560</v>
       </c>
-      <c r="O1" s="1">
+      <c r="T1" s="1">
         <v>45568</v>
       </c>
-      <c r="P1" s="1">
+      <c r="U1" s="1">
         <v>45574</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="V1" s="1">
         <v>45581</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="W1" s="1">
+        <v>45588</v>
+      </c>
+      <c r="AH1" t="s">
         <v>65</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AI1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -6409,737 +6666,807 @@
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="AC2">
-        <f>SUM(B2:AB2)</f>
-        <v>8</v>
-      </c>
-      <c r="AD2">
-        <f>SUM(Q2:AB2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <f>SUM(B2:AG2)</f>
+        <v>9</v>
+      </c>
+      <c r="AI2">
+        <f>SUM(V2:AG2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
+      <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC42" si="0">SUM(B3:AB3)</f>
-        <v>9</v>
-      </c>
-      <c r="AD3">
-        <f t="shared" ref="AD3:AD42" si="1">SUM(Q3:AB3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH42" si="0">SUM(B3:AG3)</f>
+        <v>12</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI42" si="1">SUM(V3:AG3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
+      <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AI5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AD7">
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AI7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
       <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD11">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="Q12">
-        <v>3</v>
-      </c>
-      <c r="AC12">
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="AH12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AD12">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AI12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="AC13">
+      <c r="AH13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD13">
+      <c r="AI13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD14">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD15">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AI15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AD17">
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AI17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
       <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AI19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="AC20">
-        <f t="shared" si="0"/>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>4</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>4</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AD23">
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AI23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="AC24">
+      <c r="AH24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD24">
+      <c r="AI24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD25">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="AC26">
+      <c r="AH26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD26">
+      <c r="AI26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="Q27">
-        <v>2</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD27">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
-      <c r="AC28">
+      <c r="AH28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD28">
+      <c r="AI28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
-      <c r="AC29">
+      <c r="AH29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD29">
+      <c r="AI29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>56</v>
       </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
-      <c r="AC31">
+      <c r="AH31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD31">
+      <c r="AI31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
-      <c r="Q32">
-        <v>2</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD32">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD33">
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
-      <c r="AC34">
+      <c r="AH34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD34">
+      <c r="AI34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>43</v>
       </c>
-      <c r="AC35">
+      <c r="AH35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD35">
+      <c r="AI35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>16</v>
       </c>
-      <c r="AC36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W36">
+        <v>4</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="AC37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD37">
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="AC38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W38">
+        <v>2</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="AC39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD39">
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>53</v>
       </c>
-      <c r="AC40">
+      <c r="AH40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD40">
+      <c r="AI40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="AC41">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD41">
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
-      <c r="Q42">
-        <v>2</v>
-      </c>
-      <c r="AC42">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD42">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="V42">
+        <v>2</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" ref="AH43:AH44" si="2">SUM(B43:AG43)</f>
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <f t="shared" ref="AI43:AI44" si="3">SUM(V43:AG43)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="113_{0AE4E784-A55A-46D6-B24A-1982B84D5895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3DEDF642-7784-47C4-9ECB-48572D3EFC09}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="113_{0AE4E784-A55A-46D6-B24A-1982B84D5895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F8939A9E-636A-4026-A93B-EE4C2EF52B5C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="artilharia" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AF$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">artilharia!$A$1:$X$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$V$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="68">
   <si>
     <t>Jogador</t>
   </si>
@@ -1223,11 +1224,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF43"/>
+  <dimension ref="A1:AE95"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1243,9 +1244,10 @@
     <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1312,769 +1314,493 @@
       <c r="V1" s="1">
         <v>45588</v>
       </c>
+      <c r="W1" s="1">
+        <v>45595</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>57</v>
+      </c>
       <c r="AC1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>7.5</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="G2">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="H2">
+        <v>6.5</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
         <v>5.5</v>
       </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>5.5</v>
-      </c>
-      <c r="K2">
-        <v>6.5</v>
-      </c>
-      <c r="L2">
-        <v>7</v>
-      </c>
       <c r="M2">
-        <v>5.5</v>
-      </c>
-      <c r="N2">
         <v>6</v>
       </c>
       <c r="O2">
         <v>5.5</v>
       </c>
       <c r="P2">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q2">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="R2">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="S2">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="T2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U2">
         <v>5.5</v>
       </c>
       <c r="V2">
-        <v>6</v>
-      </c>
-      <c r="AC2">
-        <f t="shared" ref="AC2:AC42" si="0">COUNT(B2:AB2)</f>
-        <v>21</v>
-      </c>
-      <c r="AD2" s="18">
-        <f t="shared" ref="AD2:AD42" si="1">AVERAGE(B2:AB2)</f>
-        <v>6.1904761904761907</v>
+        <v>5.5</v>
+      </c>
+      <c r="W2">
+        <v>5.5</v>
+      </c>
+      <c r="AB2">
+        <f>COUNT(B2:AA2)</f>
+        <v>19</v>
+      </c>
+      <c r="AC2" s="18">
+        <f>AVERAGE(B2:AA2)</f>
+        <v>5.7105263157894735</v>
+      </c>
+      <c r="AD2">
+        <f>IF(AB2&gt;1,_xlfn.STDEV.S(B2:AA2),"")</f>
+        <v>0.4806185098878149</v>
       </c>
       <c r="AE2">
-        <f t="shared" ref="AE2:AE42" si="2">IF(AC2&gt;1,_xlfn.STDEV.S(B2:AB2),"")</f>
-        <v>0.78224341601879854</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>7.5</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>6.5</v>
+      </c>
+      <c r="AB3">
+        <f>COUNT(B3:AA3)</f>
+        <v>4</v>
+      </c>
+      <c r="AC3" s="18">
+        <f>AVERAGE(B3:AA3)</f>
+        <v>7</v>
+      </c>
+      <c r="AD3">
+        <f>IF(AB3&gt;1,_xlfn.STDEV.S(B3:AA3),"")</f>
+        <v>0.40824829046386302</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
         <v>4.5</v>
       </c>
-      <c r="C3">
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
         <v>5.5</v>
       </c>
-      <c r="D3">
-        <v>6.5</v>
-      </c>
-      <c r="E3">
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
         <v>5.5</v>
       </c>
-      <c r="F3">
+      <c r="L4">
+        <v>3.5</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="AB4">
+        <f>COUNT(B4:AA4)</f>
+        <v>12</v>
+      </c>
+      <c r="AC4" s="18">
+        <f>AVERAGE(B4:AA4)</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="AD4">
+        <f>IF(AB4&gt;1,_xlfn.STDEV.S(B4:AA4),"")</f>
+        <v>1.2673044646258482</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5">
+        <v>6.5</v>
+      </c>
+      <c r="K5">
+        <v>6.5</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="R5">
+        <v>6.5</v>
+      </c>
+      <c r="U5">
+        <v>6.5</v>
+      </c>
+      <c r="AB5">
+        <f>COUNT(B5:AA5)</f>
+        <v>5</v>
+      </c>
+      <c r="AC5" s="18">
+        <f>AVERAGE(B5:AA5)</f>
+        <v>6.6</v>
+      </c>
+      <c r="AD5">
+        <f>IF(AB5&gt;1,_xlfn.STDEV.S(B5:AA5),"")</f>
+        <v>0.22360679774997896</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>4.5</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="AB6">
+        <f>COUNT(B6:AA6)</f>
+        <v>3</v>
+      </c>
+      <c r="AC6" s="18">
+        <f>AVERAGE(B6:AA6)</f>
         <v>5.5</v>
       </c>
-      <c r="G3">
+      <c r="AD6">
+        <f>IF(AB6&gt;1,_xlfn.STDEV.S(B6:AA6),"")</f>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>4.5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>3.5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
         <v>5.5</v>
       </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>5.5</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
-      <c r="L3">
-        <v>5.5</v>
-      </c>
-      <c r="M3">
-        <v>6.5</v>
-      </c>
-      <c r="N3">
-        <v>6.5</v>
-      </c>
-      <c r="O3">
-        <v>6.5</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3">
-        <v>5.5</v>
-      </c>
-      <c r="R3">
-        <v>5.5</v>
-      </c>
-      <c r="S3">
-        <v>6.5</v>
-      </c>
-      <c r="T3">
-        <v>5.5</v>
-      </c>
-      <c r="U3">
-        <v>6.5</v>
-      </c>
-      <c r="V3">
-        <v>6.5</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="AD3" s="18">
-        <f t="shared" si="1"/>
-        <v>5.833333333333333</v>
-      </c>
-      <c r="AE3">
-        <f t="shared" si="2"/>
-        <v>0.57735026918962562</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>6.5</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>6.5</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
-        <v>6.5</v>
-      </c>
-      <c r="J4">
-        <v>6.5</v>
-      </c>
-      <c r="K4">
-        <v>6.5</v>
-      </c>
-      <c r="L4">
-        <v>6</v>
-      </c>
-      <c r="M4">
-        <v>6</v>
-      </c>
-      <c r="N4">
-        <v>6.5</v>
-      </c>
-      <c r="O4">
-        <v>6.5</v>
-      </c>
-      <c r="P4">
-        <v>6.5</v>
-      </c>
-      <c r="Q4">
-        <v>6.5</v>
-      </c>
-      <c r="R4">
-        <v>7</v>
-      </c>
-      <c r="S4">
-        <v>6.5</v>
-      </c>
-      <c r="T4">
-        <v>7</v>
-      </c>
-      <c r="U4">
-        <v>6.5</v>
-      </c>
-      <c r="V4">
-        <v>6.5</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="AD4" s="18">
-        <f t="shared" si="1"/>
-        <v>6.55</v>
-      </c>
-      <c r="AE4">
-        <f t="shared" si="2"/>
-        <v>0.45595475306449568</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>5.5</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>6.5</v>
-      </c>
-      <c r="I5">
-        <v>5.5</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>5.5</v>
-      </c>
-      <c r="L5">
-        <v>6.5</v>
-      </c>
-      <c r="M5">
-        <v>6</v>
-      </c>
-      <c r="N5">
-        <v>6.5</v>
-      </c>
-      <c r="O5">
-        <v>5.5</v>
-      </c>
-      <c r="P5">
-        <v>5.5</v>
-      </c>
-      <c r="Q5">
-        <v>6.5</v>
-      </c>
-      <c r="R5">
-        <v>6</v>
-      </c>
-      <c r="S5">
-        <v>6</v>
-      </c>
-      <c r="T5">
-        <v>6.5</v>
-      </c>
-      <c r="U5">
-        <v>6</v>
-      </c>
-      <c r="V5">
-        <v>5.5</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AD5" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9210526315789478</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" si="2"/>
-        <v>0.44917077594709159</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>6.5</v>
-      </c>
-      <c r="E6">
-        <v>6.5</v>
-      </c>
-      <c r="F6">
-        <v>6.5</v>
-      </c>
-      <c r="G6">
-        <v>6.5</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>6.5</v>
-      </c>
-      <c r="J6">
-        <v>7</v>
-      </c>
-      <c r="K6">
-        <v>6.5</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6">
-        <v>5.5</v>
-      </c>
-      <c r="N6">
-        <v>5.5</v>
-      </c>
-      <c r="P6">
-        <v>6.5</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
-      </c>
-      <c r="R6">
-        <v>6</v>
-      </c>
-      <c r="S6">
-        <v>6.5</v>
-      </c>
-      <c r="T6">
-        <v>6</v>
-      </c>
-      <c r="U6">
-        <v>6.5</v>
-      </c>
-      <c r="V6">
-        <v>6</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AD6" s="18">
-        <f t="shared" si="1"/>
-        <v>6.25</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" si="2"/>
-        <v>0.5215925838520058</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>6.5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>5.5</v>
-      </c>
-      <c r="G7">
-        <v>5.5</v>
-      </c>
-      <c r="H7">
-        <v>6.5</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-      <c r="L7">
-        <v>5.5</v>
-      </c>
-      <c r="M7">
-        <v>6</v>
-      </c>
       <c r="O7">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P7">
-        <v>6</v>
-      </c>
-      <c r="Q7">
-        <v>5</v>
-      </c>
-      <c r="R7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S7">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="T7">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U7">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="V7">
         <v>5.5</v>
       </c>
-      <c r="AC7">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AD7" s="18">
-        <f t="shared" si="1"/>
-        <v>5.7222222222222223</v>
+      <c r="W7">
+        <v>6</v>
+      </c>
+      <c r="AB7">
+        <f>COUNT(B7:AA7)</f>
+        <v>14</v>
+      </c>
+      <c r="AC7" s="18">
+        <f>AVERAGE(B7:AA7)</f>
+        <v>5.0714285714285712</v>
+      </c>
+      <c r="AD7">
+        <f>IF(AB7&gt;1,_xlfn.STDEV.S(B7:AA7),"")</f>
+        <v>0.85163062725264083</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="2"/>
-        <v>0.49176220407782173</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>8.5</v>
-      </c>
-      <c r="C8">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="D8">
-        <v>7.5</v>
-      </c>
-      <c r="E8">
         <v>7</v>
       </c>
       <c r="F8">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H8">
-        <v>6.5</v>
-      </c>
-      <c r="J8">
-        <v>7.5</v>
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>5.5</v>
       </c>
       <c r="K8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>6.5</v>
-      </c>
-      <c r="N8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P8">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q8">
-        <v>6.5</v>
-      </c>
-      <c r="U8">
+        <v>5.5</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
         <v>6.5</v>
       </c>
       <c r="V8">
         <v>6</v>
       </c>
-      <c r="AC8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AD8" s="18">
-        <f t="shared" si="1"/>
-        <v>6.9705882352941178</v>
+      <c r="AB8">
+        <f>COUNT(B8:AA8)</f>
+        <v>16</v>
+      </c>
+      <c r="AC8" s="18">
+        <f>AVERAGE(B8:AA8)</f>
+        <v>5.9375</v>
+      </c>
+      <c r="AD8">
+        <f>IF(AB8&gt;1,_xlfn.STDEV.S(B8:AA8),"")</f>
+        <v>0.54390562906935735</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="2"/>
-        <v>0.5987118525241848</v>
-      </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>7.5</v>
-      </c>
-      <c r="E9">
-        <v>6.5</v>
-      </c>
-      <c r="F9">
-        <v>6.5</v>
-      </c>
-      <c r="H9">
-        <v>8.5</v>
-      </c>
-      <c r="I9">
-        <v>6.5</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <v>6.5</v>
+        <v>54</v>
       </c>
       <c r="M9">
         <v>6</v>
       </c>
-      <c r="N9">
-        <v>6</v>
-      </c>
-      <c r="O9">
-        <v>6</v>
-      </c>
-      <c r="P9">
-        <v>6.5</v>
-      </c>
-      <c r="Q9">
+      <c r="V9">
+        <v>6.5</v>
+      </c>
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="AB9">
+        <f>COUNT(B9:AA9)</f>
+        <v>3</v>
+      </c>
+      <c r="AC9" s="18">
+        <f>AVERAGE(B9:AA9)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AD9">
+        <f>IF(AB9&gt;1,_xlfn.STDEV.S(B9:AA9),"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10">
+        <v>6</v>
+      </c>
+      <c r="AB10">
+        <f>COUNT(B10:AA10)</f>
+        <v>2</v>
+      </c>
+      <c r="AC10" s="18">
+        <f>AVERAGE(B10:AA10)</f>
+        <v>6</v>
+      </c>
+      <c r="AD10">
+        <f>IF(AB10&gt;1,_xlfn.STDEV.S(B10:AA10),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>6.5</v>
+      </c>
+      <c r="C11">
         <v>5.5</v>
       </c>
-      <c r="R9">
-        <v>7</v>
-      </c>
-      <c r="S9">
-        <v>6.5</v>
-      </c>
-      <c r="T9">
-        <v>6.5</v>
-      </c>
-      <c r="U9">
-        <v>6</v>
-      </c>
-      <c r="V9">
-        <v>6.5</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AD9" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" si="2"/>
-        <v>0.68465319688145765</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>6.5</v>
-      </c>
-      <c r="D10">
-        <v>6.5</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>6.5</v>
-      </c>
-      <c r="H10">
-        <v>6.5</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <v>6.5</v>
-      </c>
-      <c r="M10">
-        <v>6.5</v>
-      </c>
-      <c r="N10">
-        <v>7</v>
-      </c>
-      <c r="O10">
-        <v>6</v>
-      </c>
-      <c r="P10">
-        <v>6</v>
-      </c>
-      <c r="Q10">
-        <v>6.5</v>
-      </c>
-      <c r="S10">
-        <v>6</v>
-      </c>
-      <c r="T10">
-        <v>7</v>
-      </c>
-      <c r="V10">
-        <v>6</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AD10" s="18">
-        <f t="shared" si="1"/>
-        <v>6.40625</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="2"/>
-        <v>0.375</v>
-      </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>6.5</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
       <c r="G11">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
-      <c r="I11">
-        <v>5.5</v>
-      </c>
-      <c r="K11">
-        <v>6</v>
-      </c>
-      <c r="L11">
-        <v>6</v>
-      </c>
-      <c r="M11">
-        <v>6</v>
-      </c>
-      <c r="O11">
-        <v>6</v>
-      </c>
       <c r="P11">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
       </c>
       <c r="R11">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="S11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="U11">
         <v>6.5</v>
       </c>
       <c r="V11">
-        <v>6</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AD11" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9375</v>
+        <v>5.5</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="AB11">
+        <f>COUNT(B11:AA11)</f>
+        <v>12</v>
+      </c>
+      <c r="AC11" s="18">
+        <f>AVERAGE(B11:AA11)</f>
+        <v>5.916666666666667</v>
+      </c>
+      <c r="AD11">
+        <f>IF(AB11&gt;1,_xlfn.STDEV.S(B11:AA11),"")</f>
+        <v>0.46871843328054602</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="2"/>
-        <v>0.54390562906935735</v>
-      </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2120,1139 +1846,1516 @@
       <c r="U12">
         <v>6.5</v>
       </c>
-      <c r="AC12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AD12" s="18">
-        <f t="shared" si="1"/>
-        <v>6.4642857142857144</v>
+      <c r="W12">
+        <v>6</v>
+      </c>
+      <c r="AB12">
+        <f>COUNT(B12:AA12)</f>
+        <v>15</v>
+      </c>
+      <c r="AC12" s="18">
+        <f>AVERAGE(B12:AA12)</f>
+        <v>6.4333333333333336</v>
+      </c>
+      <c r="AD12">
+        <f>IF(AB12&gt;1,_xlfn.STDEV.S(B12:AA12),"")</f>
+        <v>0.41690469391639595</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="2"/>
-        <v>0.41437096508237242</v>
-      </c>
-      <c r="AF12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
+        <v>52</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="AB13">
+        <f>COUNT(B13:AA13)</f>
+        <v>1</v>
+      </c>
+      <c r="AC13" s="18">
+        <f>AVERAGE(B13:AA13)</f>
+        <v>6</v>
+      </c>
+      <c r="AD13" t="str">
+        <f>IF(AB13&gt;1,_xlfn.STDEV.S(B13:AA13),"")</f>
+        <v/>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>7.5</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>6.5</v>
+      </c>
+      <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>8</v>
+      </c>
+      <c r="AB14">
+        <f>COUNT(B14:AA14)</f>
+        <v>10</v>
+      </c>
+      <c r="AC14" s="18">
+        <f>AVERAGE(B14:AA14)</f>
+        <v>6.8</v>
+      </c>
+      <c r="AD14">
+        <f>IF(AB14&gt;1,_xlfn.STDEV.S(B14:AA14),"")</f>
+        <v>0.67494855771055284</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
         <v>5.5</v>
       </c>
-      <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-      <c r="G13">
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>6.5</v>
+      </c>
+      <c r="I15">
         <v>5.5</v>
       </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>6.5</v>
-      </c>
-      <c r="K13">
-        <v>6</v>
-      </c>
-      <c r="N13">
-        <v>6</v>
-      </c>
-      <c r="O13">
-        <v>5.5</v>
-      </c>
-      <c r="P13">
-        <v>6</v>
-      </c>
-      <c r="S13">
-        <v>5</v>
-      </c>
-      <c r="T13">
-        <v>6.5</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AD13" s="18">
-        <f t="shared" si="1"/>
-        <v>6.0384615384615383</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="2"/>
-        <v>0.72057669212289177</v>
-      </c>
-      <c r="AF13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>4.5</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>5.5</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>5.5</v>
-      </c>
-      <c r="J14">
-        <v>5.5</v>
-      </c>
-      <c r="O14">
-        <v>6.5</v>
-      </c>
-      <c r="P14">
-        <v>6</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-      <c r="R14">
-        <v>6.5</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AD14" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9230769230769234</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" si="2"/>
-        <v>0.73161219936275579</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>4.5</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <v>5.5</v>
-      </c>
-      <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
       <c r="J15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K15">
         <v>5.5</v>
       </c>
       <c r="L15">
+        <v>6.5</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>6.5</v>
+      </c>
+      <c r="O15">
+        <v>5.5</v>
+      </c>
+      <c r="P15">
+        <v>5.5</v>
+      </c>
+      <c r="Q15">
+        <v>6.5</v>
+      </c>
+      <c r="R15">
+        <v>6</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>6.5</v>
+      </c>
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="V15">
+        <v>5.5</v>
+      </c>
+      <c r="W15">
+        <v>5.5</v>
+      </c>
+      <c r="AB15">
+        <f>COUNT(B15:AA15)</f>
+        <v>20</v>
+      </c>
+      <c r="AC15" s="18">
+        <f>AVERAGE(B15:AA15)</f>
+        <v>5.9</v>
+      </c>
+      <c r="AD15">
+        <f>IF(AB15&gt;1,_xlfn.STDEV.S(B15:AA15),"")</f>
+        <v>0.44721359549995787</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>7.5</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>6.5</v>
+      </c>
+      <c r="G16">
+        <v>6.5</v>
+      </c>
+      <c r="H16">
+        <v>5.5</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>5.5</v>
+      </c>
+      <c r="K16">
+        <v>6.5</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>5.5</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+      <c r="O16">
+        <v>5.5</v>
+      </c>
+      <c r="P16">
+        <v>6.5</v>
+      </c>
+      <c r="Q16">
+        <v>6.5</v>
+      </c>
+      <c r="R16">
+        <v>6.5</v>
+      </c>
+      <c r="S16">
+        <v>7</v>
+      </c>
+      <c r="T16">
+        <v>6</v>
+      </c>
+      <c r="U16">
+        <v>5.5</v>
+      </c>
+      <c r="V16">
+        <v>6</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="AB16">
+        <f>COUNT(B16:AA16)</f>
+        <v>22</v>
+      </c>
+      <c r="AC16" s="18">
+        <f>AVERAGE(B16:AA16)</f>
+        <v>6.1818181818181817</v>
+      </c>
+      <c r="AD16">
+        <f>IF(AB16&gt;1,_xlfn.STDEV.S(B16:AA16),"")</f>
+        <v>0.76447078715643768</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>6.5</v>
+      </c>
+      <c r="D17">
+        <v>6.5</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>6.5</v>
+      </c>
+      <c r="H17">
+        <v>6.5</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <v>6.5</v>
+      </c>
+      <c r="M17">
+        <v>6.5</v>
+      </c>
+      <c r="N17">
+        <v>7</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <v>6.5</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>7</v>
+      </c>
+      <c r="V17">
+        <v>6</v>
+      </c>
+      <c r="W17">
+        <v>6.5</v>
+      </c>
+      <c r="AB17">
+        <f>COUNT(B17:AA17)</f>
+        <v>17</v>
+      </c>
+      <c r="AC17" s="18">
+        <f>AVERAGE(B17:AA17)</f>
+        <v>6.4117647058823533</v>
+      </c>
+      <c r="AD17">
+        <f>IF(AB17&gt;1,_xlfn.STDEV.S(B17:AA17),"")</f>
+        <v>0.3638034375544994</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>6.5</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>6.5</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>6.5</v>
+      </c>
+      <c r="J18">
+        <v>6.5</v>
+      </c>
+      <c r="K18">
+        <v>6.5</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>6.5</v>
+      </c>
+      <c r="O18">
+        <v>6.5</v>
+      </c>
+      <c r="P18">
+        <v>6.5</v>
+      </c>
+      <c r="Q18">
+        <v>6.5</v>
+      </c>
+      <c r="R18">
+        <v>7</v>
+      </c>
+      <c r="S18">
+        <v>6.5</v>
+      </c>
+      <c r="T18">
+        <v>7</v>
+      </c>
+      <c r="U18">
+        <v>6.5</v>
+      </c>
+      <c r="V18">
+        <v>6.5</v>
+      </c>
+      <c r="W18">
+        <v>6.5</v>
+      </c>
+      <c r="AB18">
+        <f>COUNT(B18:AA18)</f>
+        <v>21</v>
+      </c>
+      <c r="AC18" s="18">
+        <f>AVERAGE(B18:AA18)</f>
+        <v>6.5476190476190474</v>
+      </c>
+      <c r="AD18">
+        <f>IF(AB18&gt;1,_xlfn.STDEV.S(B18:AA18),"")</f>
+        <v>0.44454363972398431</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>6.5</v>
+      </c>
+      <c r="E19">
+        <v>6.5</v>
+      </c>
+      <c r="F19">
+        <v>6.5</v>
+      </c>
+      <c r="G19">
+        <v>6.5</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>6.5</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>6.5</v>
+      </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>5.5</v>
+      </c>
+      <c r="N19">
+        <v>5.5</v>
+      </c>
+      <c r="P19">
+        <v>6.5</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>6.5</v>
+      </c>
+      <c r="T19">
+        <v>6</v>
+      </c>
+      <c r="U19">
+        <v>6.5</v>
+      </c>
+      <c r="V19">
+        <v>6</v>
+      </c>
+      <c r="W19">
+        <v>6</v>
+      </c>
+      <c r="AB19">
+        <f>COUNT(B19:AA19)</f>
+        <v>19</v>
+      </c>
+      <c r="AC19" s="18">
+        <f>AVERAGE(B19:AA19)</f>
+        <v>6.2368421052631575</v>
+      </c>
+      <c r="AD19">
+        <f>IF(AB19&gt;1,_xlfn.STDEV.S(B19:AA19),"")</f>
+        <v>0.510131275387674</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="R20">
+        <v>6.5</v>
+      </c>
+      <c r="S20">
+        <v>5.5</v>
+      </c>
+      <c r="T20">
+        <v>5.5</v>
+      </c>
+      <c r="W20">
+        <v>6</v>
+      </c>
+      <c r="AB20">
+        <f>COUNT(B20:AA20)</f>
+        <v>4</v>
+      </c>
+      <c r="AC20" s="18">
+        <f>AVERAGE(B20:AA20)</f>
+        <v>5.875</v>
+      </c>
+      <c r="AD20">
+        <f>IF(AB20&gt;1,_xlfn.STDEV.S(B20:AA20),"")</f>
+        <v>0.47871355387816905</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>8.5</v>
+      </c>
+      <c r="D21">
+        <v>6.5</v>
+      </c>
+      <c r="E21">
+        <v>6.5</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
+      </c>
+      <c r="O21">
+        <v>6</v>
+      </c>
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="Q21">
+        <v>6.5</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>6</v>
+      </c>
+      <c r="V21">
+        <v>6.5</v>
+      </c>
+      <c r="W21">
+        <v>6</v>
+      </c>
+      <c r="AB21">
+        <f>COUNT(B21:AA21)</f>
+        <v>13</v>
+      </c>
+      <c r="AC21" s="18">
+        <f>AVERAGE(B21:AA21)</f>
+        <v>6.3461538461538458</v>
+      </c>
+      <c r="AD21">
+        <f>IF(AB21&gt;1,_xlfn.STDEV.S(B21:AA21),"")</f>
+        <v>0.68873723172119716</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="R22">
         <v>3.5</v>
       </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AD15" s="18">
-        <f t="shared" si="1"/>
-        <v>4.833333333333333</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="2"/>
-        <v>1.2673044646258482</v>
-      </c>
-      <c r="AF15">
+      <c r="AB22">
+        <f>COUNT(B22:AA22)</f>
+        <v>2</v>
+      </c>
+      <c r="AC22" s="18">
+        <f>AVERAGE(B22:AA22)</f>
+        <v>3.25</v>
+      </c>
+      <c r="AD22">
+        <f>IF(AB22&gt;1,_xlfn.STDEV.S(B22:AA22),"")</f>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23">
+        <v>5.5</v>
+      </c>
+      <c r="AB23">
+        <f>COUNT(B23:AA23)</f>
+        <v>1</v>
+      </c>
+      <c r="AC23" s="18">
+        <f>AVERAGE(B23:AA23)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AD23" t="str">
+        <f>IF(AB23&gt;1,_xlfn.STDEV.S(B23:AA23),"")</f>
+        <v/>
+      </c>
+      <c r="AE23">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24">
+        <v>3.5</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="AB24">
+        <f>COUNT(B24:AA24)</f>
+        <v>2</v>
+      </c>
+      <c r="AC24" s="18">
+        <f>AVERAGE(B24:AA24)</f>
+        <v>4.25</v>
+      </c>
+      <c r="AD24">
+        <f>IF(AB24&gt;1,_xlfn.STDEV.S(B24:AA24),"")</f>
+        <v>1.0606601717798212</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
         <v>4.5</v>
       </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="L16">
-        <v>3.5</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-      <c r="N16">
+      <c r="C25">
         <v>5.5</v>
       </c>
-      <c r="O16">
-        <v>6</v>
-      </c>
-      <c r="P16">
-        <v>5</v>
-      </c>
-      <c r="S16">
+      <c r="D25">
+        <v>6.5</v>
+      </c>
+      <c r="E25">
+        <v>5.5</v>
+      </c>
+      <c r="F25">
+        <v>5.5</v>
+      </c>
+      <c r="G25">
+        <v>5.5</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>5.5</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>5.5</v>
+      </c>
+      <c r="M25">
+        <v>6.5</v>
+      </c>
+      <c r="N25">
+        <v>6.5</v>
+      </c>
+      <c r="O25">
+        <v>6.5</v>
+      </c>
+      <c r="P25">
+        <v>5</v>
+      </c>
+      <c r="Q25">
+        <v>5.5</v>
+      </c>
+      <c r="R25">
+        <v>5.5</v>
+      </c>
+      <c r="S25">
+        <v>6.5</v>
+      </c>
+      <c r="T25">
+        <v>5.5</v>
+      </c>
+      <c r="U25">
+        <v>6.5</v>
+      </c>
+      <c r="V25">
+        <v>6.5</v>
+      </c>
+      <c r="AB25">
+        <f>COUNT(B25:AA25)</f>
+        <v>21</v>
+      </c>
+      <c r="AC25" s="18">
+        <f>AVERAGE(B25:AA25)</f>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="AD25">
+        <f>IF(AB25&gt;1,_xlfn.STDEV.S(B25:AA25),"")</f>
+        <v>0.57735026918962562</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>5.5</v>
+      </c>
+      <c r="J26">
+        <v>5.5</v>
+      </c>
+      <c r="K26">
         <v>4.5</v>
       </c>
-      <c r="T16">
-        <v>6</v>
-      </c>
-      <c r="U16">
-        <v>3.5</v>
-      </c>
-      <c r="V16">
+      <c r="M26">
+        <v>4.5</v>
+      </c>
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="P26">
+        <v>6.5</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+      <c r="U26">
         <v>5.5</v>
       </c>
-      <c r="AC16">
-        <f t="shared" si="0"/>
+      <c r="AB26">
+        <f>COUNT(B26:AA26)</f>
+        <v>10</v>
+      </c>
+      <c r="AC26" s="18">
+        <f>AVERAGE(B26:AA26)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AD26">
+        <f>IF(AB26&gt;1,_xlfn.STDEV.S(B26:AA26),"")</f>
+        <v>0.81649658092772603</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>4.5</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>5.5</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>5.5</v>
+      </c>
+      <c r="J27">
+        <v>5.5</v>
+      </c>
+      <c r="O27">
+        <v>6.5</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <v>6.5</v>
+      </c>
+      <c r="AB27">
+        <f>COUNT(B27:AA27)</f>
         <v>13</v>
       </c>
-      <c r="AD16" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="2"/>
-        <v>0.84162541153017323</v>
-      </c>
-      <c r="AF16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
+      <c r="AC27" s="18">
+        <f>AVERAGE(B27:AA27)</f>
+        <v>5.9230769230769234</v>
+      </c>
+      <c r="AD27">
+        <f>IF(AB27&gt;1,_xlfn.STDEV.S(B27:AA27),"")</f>
+        <v>0.73161219936275579</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28">
+        <v>5.5</v>
+      </c>
+      <c r="S28">
+        <v>6.5</v>
+      </c>
+      <c r="V28">
+        <v>6.5</v>
+      </c>
+      <c r="AB28">
+        <f>COUNT(B28:AA28)</f>
+        <v>3</v>
+      </c>
+      <c r="AC28" s="18">
+        <f>AVERAGE(B28:AA28)</f>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="AD28">
+        <f>IF(AB28&gt;1,_xlfn.STDEV.S(B28:AA28),"")</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>4.5</v>
+      </c>
+      <c r="U29">
+        <v>4.5</v>
+      </c>
+      <c r="AB29">
+        <f>COUNT(B29:AA29)</f>
+        <v>3</v>
+      </c>
+      <c r="AC29" s="18">
+        <f>AVERAGE(B29:AA29)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AD29">
+        <f>IF(AB29&gt;1,_xlfn.STDEV.S(B29:AA29),"")</f>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>5.5</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>5.5</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>6.5</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <v>5.5</v>
+      </c>
+      <c r="P30">
+        <v>6</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <v>6.5</v>
+      </c>
+      <c r="AB30">
+        <f>COUNT(B30:AA30)</f>
+        <v>13</v>
+      </c>
+      <c r="AC30" s="18">
+        <f>AVERAGE(B30:AA30)</f>
+        <v>6.0384615384615383</v>
+      </c>
+      <c r="AD30">
+        <f>IF(AB30&gt;1,_xlfn.STDEV.S(B30:AA30),"")</f>
+        <v>0.72057669212289177</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O31">
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+      <c r="T31">
+        <v>6.5</v>
+      </c>
+      <c r="U31">
+        <v>6.5</v>
+      </c>
+      <c r="V31">
+        <v>6</v>
+      </c>
+      <c r="W31">
+        <v>6</v>
+      </c>
+      <c r="AB31">
+        <f>COUNT(B31:AA31)</f>
+        <v>6</v>
+      </c>
+      <c r="AC31" s="18">
+        <f>AVERAGE(B31:AA31)</f>
+        <v>6</v>
+      </c>
+      <c r="AD31">
+        <f>IF(AB31&gt;1,_xlfn.STDEV.S(B31:AA31),"")</f>
+        <v>0.54772255750516607</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>2.5</v>
+      </c>
+      <c r="AB32">
+        <f>COUNT(B32:AA32)</f>
+        <v>2</v>
+      </c>
+      <c r="AC32" s="18">
+        <f>AVERAGE(B32:AA32)</f>
+        <v>3.25</v>
+      </c>
+      <c r="AD32">
+        <f>IF(AB32&gt;1,_xlfn.STDEV.S(B32:AA32),"")</f>
+        <v>1.0606601717798212</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="U33">
+        <v>5</v>
+      </c>
+      <c r="W33">
+        <v>5.5</v>
+      </c>
+      <c r="AB33">
+        <f>COUNT(B33:AA33)</f>
+        <v>3</v>
+      </c>
+      <c r="AC33" s="18">
+        <f>AVERAGE(B33:AA33)</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="AD33">
+        <f>IF(AB33&gt;1,_xlfn.STDEV.S(B33:AA33),"")</f>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>6.5</v>
+      </c>
+      <c r="E34">
+        <v>6.5</v>
+      </c>
+      <c r="F34">
+        <v>5.5</v>
+      </c>
+      <c r="K34">
+        <v>6.5</v>
+      </c>
+      <c r="L34">
+        <v>6.5</v>
+      </c>
+      <c r="N34">
+        <v>7</v>
+      </c>
+      <c r="S34">
+        <v>6.5</v>
+      </c>
+      <c r="AB34">
+        <f>COUNT(B34:AA34)</f>
+        <v>7</v>
+      </c>
+      <c r="AC34" s="18">
+        <f>AVERAGE(B34:AA34)</f>
+        <v>6.4285714285714288</v>
+      </c>
+      <c r="AD34">
+        <f>IF(AB34&gt;1,_xlfn.STDEV.S(B34:AA34),"")</f>
+        <v>0.44986770542121862</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35">
+        <v>5.5</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="Q35">
+        <v>6</v>
+      </c>
+      <c r="S35">
+        <v>6</v>
+      </c>
+      <c r="T35">
+        <v>6</v>
+      </c>
+      <c r="AB35">
+        <f>COUNT(B35:AA35)</f>
+        <v>6</v>
+      </c>
+      <c r="AC35" s="18">
+        <f>AVERAGE(B35:AA35)</f>
+        <v>5.75</v>
+      </c>
+      <c r="AD35">
+        <f>IF(AB35&gt;1,_xlfn.STDEV.S(B35:AA35),"")</f>
+        <v>0.41833001326703778</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>4.5</v>
+      </c>
+      <c r="G36">
+        <v>5.5</v>
+      </c>
+      <c r="H36">
+        <v>4.5</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>6.5</v>
+      </c>
+      <c r="K36">
+        <v>6.5</v>
+      </c>
+      <c r="O36">
+        <v>5.5</v>
+      </c>
+      <c r="U36">
+        <v>6</v>
+      </c>
+      <c r="AB36">
+        <f>COUNT(B36:AA36)</f>
+        <v>9</v>
+      </c>
+      <c r="AC36" s="18">
+        <f>AVERAGE(B36:AA36)</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AD36">
+        <f>IF(AB36&gt;1,_xlfn.STDEV.S(B36:AA36),"")</f>
+        <v>0.7682953714410744</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37">
+        <v>5.5</v>
+      </c>
+      <c r="AB37">
+        <f>COUNT(B37:AA37)</f>
+        <v>1</v>
+      </c>
+      <c r="AC37" s="18">
+        <f>AVERAGE(B37:AA37)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AD37" t="str">
+        <f>IF(AB37&gt;1,_xlfn.STDEV.S(B37:AA37),"")</f>
+        <v/>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>8.5</v>
+      </c>
+      <c r="C38">
         <v>7.5</v>
       </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="I17">
-        <v>7</v>
-      </c>
-      <c r="K17">
-        <v>6</v>
-      </c>
-      <c r="L17">
-        <v>7</v>
-      </c>
-      <c r="M17">
-        <v>6.5</v>
-      </c>
-      <c r="N17">
-        <v>6</v>
-      </c>
-      <c r="R17">
+      <c r="D38">
+        <v>7.5</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>6.5</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+      <c r="H38">
+        <v>6.5</v>
+      </c>
+      <c r="J38">
+        <v>7.5</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>7.5</v>
+      </c>
+      <c r="M38">
+        <v>6.5</v>
+      </c>
+      <c r="N38">
+        <v>7</v>
+      </c>
+      <c r="O38">
+        <v>7</v>
+      </c>
+      <c r="P38">
+        <v>6.5</v>
+      </c>
+      <c r="Q38">
+        <v>6.5</v>
+      </c>
+      <c r="U38">
+        <v>6.5</v>
+      </c>
+      <c r="V38">
+        <v>6</v>
+      </c>
+      <c r="W38">
+        <v>7</v>
+      </c>
+      <c r="AB38">
+        <f>COUNT(B38:AA38)</f>
+        <v>18</v>
+      </c>
+      <c r="AC38" s="18">
+        <f>AVERAGE(B38:AA38)</f>
+        <v>6.9722222222222223</v>
+      </c>
+      <c r="AD38">
+        <f>IF(AB38&gt;1,_xlfn.STDEV.S(B38:AA38),"")</f>
+        <v>0.5808771820734524</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>7</v>
+      </c>
+      <c r="J39">
+        <v>7.5</v>
+      </c>
+      <c r="K39">
+        <v>7.5</v>
+      </c>
+      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <v>7</v>
+      </c>
+      <c r="N39">
+        <v>7</v>
+      </c>
+      <c r="O39">
         <v>8</v>
       </c>
-      <c r="AC17">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AD17" s="18">
-        <f t="shared" si="1"/>
-        <v>6.8</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" si="2"/>
-        <v>0.67494855771055284</v>
-      </c>
-      <c r="AF17">
+      <c r="P39">
+        <v>7.5</v>
+      </c>
+      <c r="AB39">
+        <f>COUNT(B39:AA39)</f>
+        <v>9</v>
+      </c>
+      <c r="AC39" s="18">
+        <f>AVERAGE(B39:AA39)</f>
+        <v>7.2777777777777777</v>
+      </c>
+      <c r="AD39">
+        <f>IF(AB39&gt;1,_xlfn.STDEV.S(B39:AA39),"")</f>
+        <v>0.36324157862838946</v>
+      </c>
+      <c r="AE39">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <v>7.5</v>
+      </c>
+      <c r="E40">
+        <v>6.5</v>
+      </c>
+      <c r="F40">
+        <v>6.5</v>
+      </c>
+      <c r="H40">
         <v>8.5</v>
       </c>
-      <c r="D18">
-        <v>6.5</v>
-      </c>
-      <c r="E18">
-        <v>6.5</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-      <c r="M18">
-        <v>6</v>
-      </c>
-      <c r="N18">
-        <v>6</v>
-      </c>
-      <c r="O18">
-        <v>6</v>
-      </c>
-      <c r="P18">
-        <v>6</v>
-      </c>
-      <c r="Q18">
-        <v>6.5</v>
-      </c>
-      <c r="T18">
-        <v>6</v>
-      </c>
-      <c r="U18">
-        <v>6</v>
-      </c>
-      <c r="V18">
-        <v>6.5</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AD18" s="18">
-        <f t="shared" si="1"/>
-        <v>6.375</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" si="2"/>
-        <v>0.71111308396190986</v>
-      </c>
-      <c r="AF18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19">
-        <v>7</v>
-      </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="J19">
-        <v>7.5</v>
-      </c>
-      <c r="K19">
-        <v>7.5</v>
-      </c>
-      <c r="L19">
-        <v>7</v>
-      </c>
-      <c r="M19">
-        <v>7</v>
-      </c>
-      <c r="N19">
-        <v>7</v>
-      </c>
-      <c r="O19">
-        <v>8</v>
-      </c>
-      <c r="P19">
-        <v>7.5</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AD19" s="18">
-        <f t="shared" si="1"/>
-        <v>7.2777777777777777</v>
-      </c>
-      <c r="AE19">
-        <f t="shared" si="2"/>
-        <v>0.36324157862838946</v>
-      </c>
-      <c r="AF19">
+      <c r="I40">
+        <v>6.5</v>
+      </c>
+      <c r="K40">
+        <v>6</v>
+      </c>
+      <c r="L40">
+        <v>6.5</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="N40">
+        <v>6</v>
+      </c>
+      <c r="O40">
+        <v>6</v>
+      </c>
+      <c r="P40">
+        <v>6.5</v>
+      </c>
+      <c r="Q40">
+        <v>5.5</v>
+      </c>
+      <c r="R40">
+        <v>7</v>
+      </c>
+      <c r="S40">
+        <v>6.5</v>
+      </c>
+      <c r="T40">
+        <v>6.5</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+      <c r="V40">
+        <v>6.5</v>
+      </c>
+      <c r="W40">
+        <v>6.5</v>
+      </c>
+      <c r="AB40">
+        <f>COUNT(B40:AA40)</f>
+        <v>18</v>
+      </c>
+      <c r="AC40" s="18">
+        <f>AVERAGE(B40:AA40)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AD40">
+        <f>IF(AB40&gt;1,_xlfn.STDEV.S(B40:AA40),"")</f>
+        <v>0.66421116415507142</v>
+      </c>
+      <c r="AE40">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>6.5</v>
-      </c>
-      <c r="C20">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41">
         <v>5.5</v>
       </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>6</v>
-      </c>
-      <c r="Q20">
+      <c r="R41">
+        <v>5</v>
+      </c>
+      <c r="AB41">
+        <f>COUNT(B41:AA41)</f>
+        <v>2</v>
+      </c>
+      <c r="AC41" s="18">
+        <f>AVERAGE(B41:AA41)</f>
+        <v>5.25</v>
+      </c>
+      <c r="AD41">
+        <f>IF(AB41&gt;1,_xlfn.STDEV.S(B41:AA41),"")</f>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="V42">
+        <v>6.5</v>
+      </c>
+      <c r="W42">
+        <v>6.5</v>
+      </c>
+      <c r="AB42">
+        <f>COUNT(B42:AA42)</f>
+        <v>3</v>
+      </c>
+      <c r="AC42" s="18">
+        <f>AVERAGE(B42:AA42)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AD42">
+        <f>IF(AB42&gt;1,_xlfn.STDEV.S(B42:AA42),"")</f>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="23:23" x14ac:dyDescent="0.3">
+      <c r="W82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="23:23" x14ac:dyDescent="0.3">
+      <c r="W91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="23:23" x14ac:dyDescent="0.3">
+      <c r="W95">
         <v>5.5</v>
       </c>
-      <c r="R20">
-        <v>6.5</v>
-      </c>
-      <c r="S20">
-        <v>6</v>
-      </c>
-      <c r="T20">
-        <v>6</v>
-      </c>
-      <c r="U20">
-        <v>6.5</v>
-      </c>
-      <c r="V20">
-        <v>5.5</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AD20" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9090909090909092</v>
-      </c>
-      <c r="AE20">
-        <f t="shared" si="2"/>
-        <v>0.49082490860702138</v>
-      </c>
-      <c r="AF20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21">
-        <v>6</v>
-      </c>
-      <c r="I21">
-        <v>5.5</v>
-      </c>
-      <c r="J21">
-        <v>5.5</v>
-      </c>
-      <c r="K21">
-        <v>4.5</v>
-      </c>
-      <c r="M21">
-        <v>4.5</v>
-      </c>
-      <c r="N21">
-        <v>5</v>
-      </c>
-      <c r="O21">
-        <v>7</v>
-      </c>
-      <c r="P21">
-        <v>6.5</v>
-      </c>
-      <c r="Q21">
-        <v>5</v>
-      </c>
-      <c r="U21">
-        <v>5.5</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AD21" s="18">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="AE21">
-        <f t="shared" si="2"/>
-        <v>0.81649658092772603</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>4.5</v>
-      </c>
-      <c r="G22">
-        <v>5.5</v>
-      </c>
-      <c r="H22">
-        <v>4.5</v>
-      </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-      <c r="J22">
-        <v>6.5</v>
-      </c>
-      <c r="K22">
-        <v>6.5</v>
-      </c>
-      <c r="O22">
-        <v>5.5</v>
-      </c>
-      <c r="U22">
-        <v>6</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AD22" s="18">
-        <f t="shared" si="1"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="AE22">
-        <f t="shared" si="2"/>
-        <v>0.7682953714410744</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>6.5</v>
-      </c>
-      <c r="E23">
-        <v>6.5</v>
-      </c>
-      <c r="F23">
-        <v>5.5</v>
-      </c>
-      <c r="K23">
-        <v>6.5</v>
-      </c>
-      <c r="L23">
-        <v>6.5</v>
-      </c>
-      <c r="N23">
-        <v>7</v>
-      </c>
-      <c r="S23">
-        <v>6.5</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AD23" s="18">
-        <f t="shared" si="1"/>
-        <v>6.4285714285714288</v>
-      </c>
-      <c r="AE23">
-        <f t="shared" si="2"/>
-        <v>0.44986770542121862</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24">
-        <v>5.5</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24">
-        <v>6</v>
-      </c>
-      <c r="Q24">
-        <v>6</v>
-      </c>
-      <c r="S24">
-        <v>6</v>
-      </c>
-      <c r="T24">
-        <v>6</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AD24" s="18">
-        <f t="shared" si="1"/>
-        <v>5.75</v>
-      </c>
-      <c r="AE24">
-        <f t="shared" si="2"/>
-        <v>0.41833001326703778</v>
-      </c>
-      <c r="AF24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>7</v>
-      </c>
-      <c r="J25">
-        <v>7.5</v>
-      </c>
-      <c r="L25">
-        <v>7</v>
-      </c>
-      <c r="N25">
-        <v>6.5</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AD25" s="18">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AE25">
-        <f t="shared" si="2"/>
-        <v>0.40824829046386302</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26">
-        <v>6.5</v>
-      </c>
-      <c r="K26">
-        <v>6.5</v>
-      </c>
-      <c r="L26">
-        <v>7</v>
-      </c>
-      <c r="R26">
-        <v>6.5</v>
-      </c>
-      <c r="U26">
-        <v>6.5</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AD26" s="18">
-        <f t="shared" si="1"/>
-        <v>6.6</v>
-      </c>
-      <c r="AE26">
-        <f t="shared" si="2"/>
-        <v>0.22360679774997896</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O27">
-        <v>6</v>
-      </c>
-      <c r="Q27">
-        <v>5</v>
-      </c>
-      <c r="T27">
-        <v>6.5</v>
-      </c>
-      <c r="U27">
-        <v>6.5</v>
-      </c>
-      <c r="V27">
-        <v>6</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AD27" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" si="2"/>
-        <v>0.61237243569579447</v>
-      </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="R28">
-        <v>6.5</v>
-      </c>
-      <c r="S28">
-        <v>5.5</v>
-      </c>
-      <c r="T28">
-        <v>5.5</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AD28" s="18">
-        <f t="shared" si="1"/>
-        <v>5.833333333333333</v>
-      </c>
-      <c r="AE28">
-        <f t="shared" si="2"/>
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29">
-        <v>4.5</v>
-      </c>
-      <c r="Q29">
-        <v>6</v>
-      </c>
-      <c r="R29">
-        <v>6</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AD29" s="18">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="AE29">
-        <f t="shared" si="2"/>
-        <v>0.8660254037844386</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q30">
-        <v>5.5</v>
-      </c>
-      <c r="S30">
-        <v>6.5</v>
-      </c>
-      <c r="V30">
-        <v>6.5</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AD30" s="18">
-        <f t="shared" si="1"/>
-        <v>6.166666666666667</v>
-      </c>
-      <c r="AE30">
-        <f t="shared" si="2"/>
-        <v>0.57735026918962584</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31">
-        <v>5.5</v>
-      </c>
-      <c r="R31">
-        <v>5</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD31" s="18">
-        <f t="shared" si="1"/>
-        <v>5.25</v>
-      </c>
-      <c r="AE31">
-        <f t="shared" si="2"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="R32">
-        <v>5</v>
-      </c>
-      <c r="T32">
-        <v>4.5</v>
-      </c>
-      <c r="U32">
-        <v>4.5</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AD32" s="18">
-        <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="AE32">
-        <f t="shared" si="2"/>
-        <v>0.28867513459481287</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="J33">
-        <v>3.5</v>
-      </c>
-      <c r="M33">
-        <v>5</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD33" s="18">
-        <f t="shared" si="1"/>
-        <v>4.25</v>
-      </c>
-      <c r="AE33">
-        <f t="shared" si="2"/>
-        <v>1.0606601717798212</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="G34">
-        <v>2.5</v>
-      </c>
-      <c r="AC34">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD34" s="18">
-        <f t="shared" si="1"/>
-        <v>3.25</v>
-      </c>
-      <c r="AE34">
-        <f t="shared" si="2"/>
-        <v>1.0606601717798212</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="R35">
-        <v>3.5</v>
-      </c>
-      <c r="AC35">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD35" s="18">
-        <f t="shared" si="1"/>
-        <v>3.25</v>
-      </c>
-      <c r="AE35">
-        <f t="shared" si="2"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36">
-        <v>7</v>
-      </c>
-      <c r="V36">
-        <v>6.5</v>
-      </c>
-      <c r="AC36">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD36" s="18">
-        <f t="shared" si="1"/>
-        <v>6.75</v>
-      </c>
-      <c r="AE36">
-        <f t="shared" si="2"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37">
-        <v>6</v>
-      </c>
-      <c r="AC37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD37" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AE37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="M38">
-        <v>6</v>
-      </c>
-      <c r="V38">
-        <v>6.5</v>
-      </c>
-      <c r="AC38">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD38" s="18">
-        <f t="shared" si="1"/>
-        <v>6.25</v>
-      </c>
-      <c r="AE38">
-        <f t="shared" si="2"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I39">
-        <v>5.5</v>
-      </c>
-      <c r="AC39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD39" s="18">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="AE39" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="L40">
-        <v>5.5</v>
-      </c>
-      <c r="AC40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD40" s="18">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="AE40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41">
-        <v>5</v>
-      </c>
-      <c r="AC41">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD41" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AE41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="S42">
-        <v>5</v>
-      </c>
-      <c r="U42">
-        <v>5</v>
-      </c>
-      <c r="AC42">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AD42" s="18">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AE42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>66</v>
-      </c>
-      <c r="V43">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:T38 W2:AA38">
+  <autoFilter ref="A1:V43" xr:uid="{E4669FD1-3D64-493E-B9AE-455A6C3578D6}">
+    <sortState ref="A2:V43">
+      <sortCondition ref="A1:A43"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="X2:Z38 B2:T38">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:Q39">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB39">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3264,7 +3367,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Q39">
+  <conditionalFormatting sqref="AD2:AD39">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB40:AB42">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3276,8 +3391,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC39">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="AD40:AD42">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:Z47 B44:V47 B2:T42 B43:U43">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3288,19 +3415,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE39">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC40:AC42">
+  <conditionalFormatting sqref="AB2:AB42">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3312,19 +3427,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE40:AE42">
+  <conditionalFormatting sqref="AC2:AC39">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC40:AC42">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:AA47 B2:T42 B43:U43 W2:AA43">
+  <conditionalFormatting sqref="AC2:AC42">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3336,7 +3463,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC42">
+  <conditionalFormatting sqref="U2:U38">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3348,7 +3475,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD39">
+  <conditionalFormatting sqref="U2:U42">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3360,7 +3487,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AD42">
+  <conditionalFormatting sqref="X2:Z42 F2:U42">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3372,7 +3499,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD42">
+  <conditionalFormatting sqref="V2:V38">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3384,7 +3511,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U38">
+  <conditionalFormatting sqref="V2:V43">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3396,31 +3523,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U42">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:U42 W2:AA42">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V38">
+  <conditionalFormatting sqref="W74:W90 W2 W7 W11:W12 W15:W21 W31">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3432,7 +3535,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V43">
+  <conditionalFormatting sqref="W44:W47 W74:W95 W2 W7 W11:W12 W15:W21 W31 W40">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3450,10 +3553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6549,6 +6652,156 @@
         <v>2</v>
       </c>
     </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="14">
+        <v>45595</v>
+      </c>
+      <c r="B63" s="3">
+        <v>5</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="9">
+        <v>0</v>
+      </c>
+      <c r="J63" s="10">
+        <v>3</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O63" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P63" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="14">
+        <v>45595</v>
+      </c>
+      <c r="B64" s="3">
+        <v>4</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I64" s="11">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2">
+        <v>4</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="14">
+        <v>45595</v>
+      </c>
+      <c r="B65" s="5">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="5">
+        <v>1</v>
+      </c>
+      <c r="J65" s="8">
+        <v>8</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O65" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P65" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6558,8 +6811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40949BC3-8DAE-4185-A4C0-F8573FA5A3A2}">
   <dimension ref="A1:AI43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6570,7 +6823,7 @@
     <col min="13" max="15" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
@@ -6643,6 +6896,9 @@
       <c r="W1" s="1">
         <v>45588</v>
       </c>
+      <c r="X1" s="1">
+        <v>45595</v>
+      </c>
       <c r="AH1" t="s">
         <v>65</v>
       </c>
@@ -6652,119 +6908,68 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
         <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
       </c>
       <c r="AH2">
         <f>SUM(B2:AG2)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AI2">
         <f>SUM(V2:AG2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="M3">
         <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>3</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH42" si="0">SUM(B3:AG3)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AI3">
         <f t="shared" ref="AI3:AI42" si="1">SUM(V3:AG3)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AI4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="AH5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <f t="shared" si="1"/>
@@ -6773,139 +6978,118 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
       </c>
       <c r="AH7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="P8">
-        <v>3</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="AH8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AI8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
       </c>
       <c r="AH9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
       </c>
       <c r="AH10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AI10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
         <v>1</v>
       </c>
       <c r="AH11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AI11">
         <f t="shared" si="1"/>
@@ -6939,11 +7123,14 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
       </c>
       <c r="AH13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13">
         <f t="shared" si="1"/>
@@ -6952,14 +7139,20 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <v>1</v>
       </c>
       <c r="AH14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI14">
         <f t="shared" si="1"/>
@@ -6968,12 +7161,15 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="R15">
         <v>1</v>
       </c>
       <c r="AH15">
@@ -6987,70 +7183,112 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="V16">
         <v>1</v>
       </c>
       <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
         <v>1</v>
       </c>
       <c r="AH16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AI16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
         <v>1</v>
       </c>
       <c r="AH17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AI17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
       </c>
       <c r="V18">
         <v>2</v>
       </c>
       <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18">
         <v>1</v>
       </c>
       <c r="AH18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AI18">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -7061,106 +7299,82 @@
       <c r="M19">
         <v>1</v>
       </c>
-      <c r="P19">
-        <v>2</v>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
       </c>
       <c r="AH19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
+        <v>61</v>
+      </c>
+      <c r="X20">
         <v>1</v>
       </c>
       <c r="AH20">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AI20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
         <v>1</v>
       </c>
       <c r="AH21">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AI21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="AH22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="AH23">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI23">
         <f t="shared" si="1"/>
@@ -7169,11 +7383,14 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
       </c>
       <c r="AH24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI24">
         <f t="shared" si="1"/>
@@ -7182,152 +7399,194 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="M25">
         <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
       </c>
       <c r="AH25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AI25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>4</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
       </c>
       <c r="AH26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="V27">
-        <v>2</v>
-      </c>
-      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="J27">
         <v>1</v>
       </c>
       <c r="AH27">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
       </c>
       <c r="AH28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
       </c>
       <c r="AH29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AH30">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>55</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
       </c>
       <c r="AH31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AH32">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
       </c>
       <c r="AH33">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
       </c>
       <c r="AH34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI34">
         <f t="shared" si="1"/>
@@ -7336,7 +7595,7 @@
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH35">
         <f t="shared" si="0"/>
@@ -7349,25 +7608,28 @@
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="W36">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
       </c>
       <c r="AH36">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI36">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37">
+        <v>49</v>
+      </c>
+      <c r="J37">
         <v>1</v>
       </c>
       <c r="AH37">
@@ -7381,30 +7643,54 @@
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <v>3</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
       </c>
       <c r="W38">
+        <v>2</v>
+      </c>
+      <c r="X38">
         <v>2</v>
       </c>
       <c r="AH38">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AI38">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>2</v>
       </c>
       <c r="AH39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI39">
         <f t="shared" si="1"/>
@@ -7413,27 +7699,33 @@
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
       </c>
       <c r="AH40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AH41">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41">
         <f t="shared" si="1"/>
@@ -7442,34 +7734,45 @@
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="V42">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="W42">
+        <v>4</v>
+      </c>
+      <c r="X42">
+        <v>3</v>
       </c>
       <c r="AH42">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AI42">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>47</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
       </c>
       <c r="AH43">
-        <f t="shared" ref="AH43:AH44" si="2">SUM(B43:AG43)</f>
+        <f t="shared" ref="AH43" si="2">SUM(B43:AG43)</f>
+        <v>1</v>
+      </c>
+      <c r="AI43">
+        <f t="shared" ref="AI43" si="3">SUM(V43:AG43)</f>
         <v>0</v>
       </c>
-      <c r="AI43">
-        <f t="shared" ref="AI43:AI44" si="3">SUM(V43:AG43)</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X43" xr:uid="{783CBCE6-F8B4-4313-8CE8-DEF99493B36A}">
+    <sortState ref="A2:X43">
+      <sortCondition ref="A1:A43"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="113_{0AE4E784-A55A-46D6-B24A-1982B84D5895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F8939A9E-636A-4026-A93B-EE4C2EF52B5C}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="113_{0AE4E784-A55A-46D6-B24A-1982B84D5895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8CA03368-BAE4-401C-A4FD-BC704921F728}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,15 +18,15 @@
     <sheet name="artilharia" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">artilharia!$A$1:$X$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$V$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">artilharia!$A$1:$Y$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$X$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="69">
   <si>
     <t>Jogador</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>Sem data</t>
+  </si>
+  <si>
+    <t>Lulinha</t>
   </si>
 </sst>
 </file>
@@ -1227,8 +1230,8 @@
   <dimension ref="A1:AE95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W2" sqref="W2"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,6 +1248,7 @@
     <col min="20" max="20" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
@@ -1317,6 +1321,9 @@
       <c r="W1" s="1">
         <v>45595</v>
       </c>
+      <c r="X1" s="1">
+        <v>45602</v>
+      </c>
       <c r="AB1" t="s">
         <v>57</v>
       </c>
@@ -1391,17 +1398,20 @@
       <c r="W2">
         <v>5.5</v>
       </c>
+      <c r="X2">
+        <v>6</v>
+      </c>
       <c r="AB2">
-        <f>COUNT(B2:AA2)</f>
-        <v>19</v>
+        <f t="shared" ref="AB2:AB42" si="0">COUNT(B2:AA2)</f>
+        <v>20</v>
       </c>
       <c r="AC2" s="18">
-        <f>AVERAGE(B2:AA2)</f>
-        <v>5.7105263157894735</v>
+        <f t="shared" ref="AC2:AC42" si="1">AVERAGE(B2:AA2)</f>
+        <v>5.7249999999999996</v>
       </c>
       <c r="AD2">
-        <f>IF(AB2&gt;1,_xlfn.STDEV.S(B2:AA2),"")</f>
-        <v>0.4806185098878149</v>
+        <f t="shared" ref="AD2:AD42" si="2">IF(AB2&gt;1,_xlfn.STDEV.S(B2:AA2),"")</f>
+        <v>0.4722566206941663</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -1424,15 +1434,15 @@
         <v>6.5</v>
       </c>
       <c r="AB3">
-        <f>COUNT(B3:AA3)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AC3" s="18">
-        <f>AVERAGE(B3:AA3)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AD3">
-        <f>IF(AB3&gt;1,_xlfn.STDEV.S(B3:AA3),"")</f>
+        <f t="shared" si="2"/>
         <v>0.40824829046386302</v>
       </c>
       <c r="AE3">
@@ -1480,15 +1490,15 @@
         <v>3</v>
       </c>
       <c r="AB4">
-        <f>COUNT(B4:AA4)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="AC4" s="18">
-        <f>AVERAGE(B4:AA4)</f>
+        <f t="shared" si="1"/>
         <v>4.833333333333333</v>
       </c>
       <c r="AD4">
-        <f>IF(AB4&gt;1,_xlfn.STDEV.S(B4:AA4),"")</f>
+        <f t="shared" si="2"/>
         <v>1.2673044646258482</v>
       </c>
       <c r="AE4">
@@ -1515,15 +1525,15 @@
         <v>6.5</v>
       </c>
       <c r="AB5">
-        <f>COUNT(B5:AA5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AC5" s="18">
-        <f>AVERAGE(B5:AA5)</f>
+        <f t="shared" si="1"/>
         <v>6.6</v>
       </c>
       <c r="AD5">
-        <f>IF(AB5&gt;1,_xlfn.STDEV.S(B5:AA5),"")</f>
+        <f t="shared" si="2"/>
         <v>0.22360679774997896</v>
       </c>
       <c r="AE5">
@@ -1544,15 +1554,15 @@
         <v>6</v>
       </c>
       <c r="AB6">
-        <f>COUNT(B6:AA6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC6" s="18">
-        <f>AVERAGE(B6:AA6)</f>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="AD6">
-        <f>IF(AB6&gt;1,_xlfn.STDEV.S(B6:AA6),"")</f>
+        <f t="shared" si="2"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="AE6">
@@ -1605,17 +1615,20 @@
       <c r="W7">
         <v>6</v>
       </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
       <c r="AB7">
-        <f>COUNT(B7:AA7)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="AC7" s="18">
-        <f>AVERAGE(B7:AA7)</f>
-        <v>5.0714285714285712</v>
+        <f t="shared" si="1"/>
+        <v>5.1333333333333337</v>
       </c>
       <c r="AD7">
-        <f>IF(AB7&gt;1,_xlfn.STDEV.S(B7:AA7),"")</f>
-        <v>0.85163062725264083</v>
+        <f t="shared" si="2"/>
+        <v>0.8549575316659781</v>
       </c>
       <c r="AE7">
         <v>1</v>
@@ -1673,17 +1686,20 @@
       <c r="V8">
         <v>6</v>
       </c>
+      <c r="X8">
+        <v>6.5</v>
+      </c>
       <c r="AB8">
-        <f>COUNT(B8:AA8)</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="AC8" s="18">
-        <f>AVERAGE(B8:AA8)</f>
-        <v>5.9375</v>
+        <f t="shared" si="1"/>
+        <v>5.9705882352941178</v>
       </c>
       <c r="AD8">
-        <f>IF(AB8&gt;1,_xlfn.STDEV.S(B8:AA8),"")</f>
-        <v>0.54390562906935735</v>
+        <f t="shared" si="2"/>
+        <v>0.54401827391452684</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -1703,15 +1719,15 @@
         <v>7</v>
       </c>
       <c r="AB9">
-        <f>COUNT(B9:AA9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AC9" s="18">
-        <f>AVERAGE(B9:AA9)</f>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="AD9">
-        <f>IF(AB9&gt;1,_xlfn.STDEV.S(B9:AA9),"")</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="AE9">
@@ -1729,15 +1745,15 @@
         <v>6</v>
       </c>
       <c r="AB10">
-        <f>COUNT(B10:AA10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC10" s="18">
-        <f>AVERAGE(B10:AA10)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AD10">
-        <f>IF(AB10&gt;1,_xlfn.STDEV.S(B10:AA10),"")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE10">
@@ -1784,17 +1800,20 @@
       <c r="W11">
         <v>6</v>
       </c>
+      <c r="X11">
+        <v>5.5</v>
+      </c>
       <c r="AB11">
-        <f>COUNT(B11:AA11)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="AC11" s="18">
-        <f>AVERAGE(B11:AA11)</f>
-        <v>5.916666666666667</v>
+        <f t="shared" si="1"/>
+        <v>5.884615384615385</v>
       </c>
       <c r="AD11">
-        <f>IF(AB11&gt;1,_xlfn.STDEV.S(B11:AA11),"")</f>
-        <v>0.46871843328054602</v>
+        <f t="shared" si="2"/>
+        <v>0.46340434799814922</v>
       </c>
       <c r="AE11">
         <v>1</v>
@@ -1849,17 +1868,20 @@
       <c r="W12">
         <v>6</v>
       </c>
+      <c r="X12">
+        <v>6</v>
+      </c>
       <c r="AB12">
-        <f>COUNT(B12:AA12)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="AC12" s="18">
-        <f>AVERAGE(B12:AA12)</f>
-        <v>6.4333333333333336</v>
+        <f t="shared" si="1"/>
+        <v>6.40625</v>
       </c>
       <c r="AD12">
-        <f>IF(AB12&gt;1,_xlfn.STDEV.S(B12:AA12),"")</f>
-        <v>0.41690469391639595</v>
+        <f t="shared" si="2"/>
+        <v>0.41708312520807328</v>
       </c>
       <c r="AE12">
         <v>1</v>
@@ -1873,15 +1895,15 @@
         <v>6</v>
       </c>
       <c r="AB13">
-        <f>COUNT(B13:AA13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC13" s="18">
-        <f>AVERAGE(B13:AA13)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AD13" t="str">
-        <f>IF(AB13&gt;1,_xlfn.STDEV.S(B13:AA13),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AE13">
@@ -1923,15 +1945,15 @@
         <v>8</v>
       </c>
       <c r="AB14">
-        <f>COUNT(B14:AA14)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AC14" s="18">
-        <f>AVERAGE(B14:AA14)</f>
+        <f t="shared" si="1"/>
         <v>6.8</v>
       </c>
       <c r="AD14">
-        <f>IF(AB14&gt;1,_xlfn.STDEV.S(B14:AA14),"")</f>
+        <f t="shared" si="2"/>
         <v>0.67494855771055284</v>
       </c>
       <c r="AE14">
@@ -2002,17 +2024,20 @@
       <c r="W15">
         <v>5.5</v>
       </c>
+      <c r="X15">
+        <v>6</v>
+      </c>
       <c r="AB15">
-        <f>COUNT(B15:AA15)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="AC15" s="18">
-        <f>AVERAGE(B15:AA15)</f>
-        <v>5.9</v>
+        <f t="shared" si="1"/>
+        <v>5.9047619047619051</v>
       </c>
       <c r="AD15">
-        <f>IF(AB15&gt;1,_xlfn.STDEV.S(B15:AA15),"")</f>
-        <v>0.44721359549995787</v>
+        <f t="shared" si="2"/>
+        <v>0.43643578047198461</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2088,17 +2113,20 @@
       <c r="W16">
         <v>6</v>
       </c>
+      <c r="X16">
+        <v>6</v>
+      </c>
       <c r="AB16">
-        <f>COUNT(B16:AA16)</f>
-        <v>22</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="AC16" s="18">
-        <f>AVERAGE(B16:AA16)</f>
-        <v>6.1818181818181817</v>
+        <f t="shared" si="1"/>
+        <v>6.1739130434782608</v>
       </c>
       <c r="AD16">
-        <f>IF(AB16&gt;1,_xlfn.STDEV.S(B16:AA16),"")</f>
-        <v>0.76447078715643768</v>
+        <f t="shared" si="2"/>
+        <v>0.7478559604291517</v>
       </c>
       <c r="AE16">
         <v>1</v>
@@ -2159,17 +2187,20 @@
       <c r="W17">
         <v>6.5</v>
       </c>
+      <c r="X17">
+        <v>6.5</v>
+      </c>
       <c r="AB17">
-        <f>COUNT(B17:AA17)</f>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="AC17" s="18">
-        <f>AVERAGE(B17:AA17)</f>
-        <v>6.4117647058823533</v>
+        <f t="shared" si="1"/>
+        <v>6.416666666666667</v>
       </c>
       <c r="AD17">
-        <f>IF(AB17&gt;1,_xlfn.STDEV.S(B17:AA17),"")</f>
-        <v>0.3638034375544994</v>
+        <f t="shared" si="2"/>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -2242,17 +2273,20 @@
       <c r="W18">
         <v>6.5</v>
       </c>
+      <c r="X18">
+        <v>6</v>
+      </c>
       <c r="AB18">
-        <f>COUNT(B18:AA18)</f>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="AC18" s="18">
-        <f>AVERAGE(B18:AA18)</f>
-        <v>6.5476190476190474</v>
+        <f t="shared" si="1"/>
+        <v>6.5227272727272725</v>
       </c>
       <c r="AD18">
-        <f>IF(AB18&gt;1,_xlfn.STDEV.S(B18:AA18),"")</f>
-        <v>0.44454363972398431</v>
+        <f t="shared" si="2"/>
+        <v>0.44926587544551716</v>
       </c>
       <c r="AE18">
         <v>1</v>
@@ -2319,17 +2353,20 @@
       <c r="W19">
         <v>6</v>
       </c>
+      <c r="X19">
+        <v>5.5</v>
+      </c>
       <c r="AB19">
-        <f>COUNT(B19:AA19)</f>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="AC19" s="18">
-        <f>AVERAGE(B19:AA19)</f>
-        <v>6.2368421052631575</v>
+        <f t="shared" si="1"/>
+        <v>6.2</v>
       </c>
       <c r="AD19">
-        <f>IF(AB19&gt;1,_xlfn.STDEV.S(B19:AA19),"")</f>
-        <v>0.510131275387674</v>
+        <f t="shared" si="2"/>
+        <v>0.52314836378059693</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -2352,15 +2389,15 @@
         <v>6</v>
       </c>
       <c r="AB20">
-        <f>COUNT(B20:AA20)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AC20" s="18">
-        <f>AVERAGE(B20:AA20)</f>
+        <f t="shared" si="1"/>
         <v>5.875</v>
       </c>
       <c r="AD20">
-        <f>IF(AB20&gt;1,_xlfn.STDEV.S(B20:AA20),"")</f>
+        <f t="shared" si="2"/>
         <v>0.47871355387816905</v>
       </c>
       <c r="AE20">
@@ -2411,15 +2448,15 @@
         <v>6</v>
       </c>
       <c r="AB21">
-        <f>COUNT(B21:AA21)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="AC21" s="18">
-        <f>AVERAGE(B21:AA21)</f>
+        <f t="shared" si="1"/>
         <v>6.3461538461538458</v>
       </c>
       <c r="AD21">
-        <f>IF(AB21&gt;1,_xlfn.STDEV.S(B21:AA21),"")</f>
+        <f t="shared" si="2"/>
         <v>0.68873723172119716</v>
       </c>
       <c r="AE21">
@@ -2437,15 +2474,15 @@
         <v>3.5</v>
       </c>
       <c r="AB22">
-        <f>COUNT(B22:AA22)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AC22" s="18">
-        <f>AVERAGE(B22:AA22)</f>
+        <f t="shared" si="1"/>
         <v>3.25</v>
       </c>
       <c r="AD22">
-        <f>IF(AB22&gt;1,_xlfn.STDEV.S(B22:AA22),"")</f>
+        <f t="shared" si="2"/>
         <v>0.35355339059327379</v>
       </c>
       <c r="AE22">
@@ -2454,21 +2491,21 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="L23">
-        <v>5.5</v>
+        <v>68</v>
+      </c>
+      <c r="X23">
+        <v>6</v>
       </c>
       <c r="AB23">
-        <f>COUNT(B23:AA23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC23" s="18">
-        <f>AVERAGE(B23:AA23)</f>
-        <v>5.5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="AD23" t="str">
-        <f>IF(AB23&gt;1,_xlfn.STDEV.S(B23:AA23),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AE23">
@@ -2477,25 +2514,22 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="J24">
-        <v>3.5</v>
-      </c>
-      <c r="M24">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="L24">
+        <v>5.5</v>
       </c>
       <c r="AB24">
-        <f>COUNT(B24:AA24)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AC24" s="18">
-        <f>AVERAGE(B24:AA24)</f>
-        <v>4.25</v>
-      </c>
-      <c r="AD24">
-        <f>IF(AB24&gt;1,_xlfn.STDEV.S(B24:AA24),"")</f>
-        <v>1.0606601717798212</v>
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="AD24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="AE24">
         <v>1</v>
@@ -2503,82 +2537,25 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25">
-        <v>4.5</v>
-      </c>
-      <c r="C25">
-        <v>5.5</v>
-      </c>
-      <c r="D25">
-        <v>6.5</v>
-      </c>
-      <c r="E25">
-        <v>5.5</v>
-      </c>
-      <c r="F25">
-        <v>5.5</v>
-      </c>
-      <c r="G25">
-        <v>5.5</v>
-      </c>
-      <c r="H25">
-        <v>6</v>
-      </c>
-      <c r="I25">
-        <v>5.5</v>
+        <v>51</v>
       </c>
       <c r="J25">
-        <v>6</v>
-      </c>
-      <c r="K25">
-        <v>6</v>
-      </c>
-      <c r="L25">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>6.5</v>
-      </c>
-      <c r="N25">
-        <v>6.5</v>
-      </c>
-      <c r="O25">
-        <v>6.5</v>
-      </c>
-      <c r="P25">
-        <v>5</v>
-      </c>
-      <c r="Q25">
-        <v>5.5</v>
-      </c>
-      <c r="R25">
-        <v>5.5</v>
-      </c>
-      <c r="S25">
-        <v>6.5</v>
-      </c>
-      <c r="T25">
-        <v>5.5</v>
-      </c>
-      <c r="U25">
-        <v>6.5</v>
-      </c>
-      <c r="V25">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AB25">
-        <f>COUNT(B25:AA25)</f>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AC25" s="18">
-        <f>AVERAGE(B25:AA25)</f>
-        <v>5.833333333333333</v>
+        <f t="shared" si="1"/>
+        <v>4.25</v>
       </c>
       <c r="AD25">
-        <f>IF(AB25&gt;1,_xlfn.STDEV.S(B25:AA25),"")</f>
-        <v>0.57735026918962562</v>
+        <f t="shared" si="2"/>
+        <v>1.0606601717798212</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -2586,7 +2563,25 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>4.5</v>
+      </c>
+      <c r="C26">
+        <v>5.5</v>
+      </c>
+      <c r="D26">
+        <v>6.5</v>
+      </c>
+      <c r="E26">
+        <v>5.5</v>
+      </c>
+      <c r="F26">
+        <v>5.5</v>
+      </c>
+      <c r="G26">
+        <v>5.5</v>
       </c>
       <c r="H26">
         <v>6</v>
@@ -2595,40 +2590,58 @@
         <v>5.5</v>
       </c>
       <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>6</v>
+      </c>
+      <c r="L26">
         <v>5.5</v>
       </c>
-      <c r="K26">
-        <v>4.5</v>
-      </c>
       <c r="M26">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="O26">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="P26">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="R26">
+        <v>5.5</v>
+      </c>
+      <c r="S26">
+        <v>6.5</v>
+      </c>
+      <c r="T26">
+        <v>5.5</v>
       </c>
       <c r="U26">
-        <v>5.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="V26">
+        <v>6.5</v>
+      </c>
+      <c r="X26">
+        <v>6</v>
       </c>
       <c r="AB26">
-        <f>COUNT(B26:AA26)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="AC26" s="18">
-        <f>AVERAGE(B26:AA26)</f>
-        <v>5.5</v>
+        <f t="shared" si="1"/>
+        <v>5.8409090909090908</v>
       </c>
       <c r="AD26">
-        <f>IF(AB26&gt;1,_xlfn.STDEV.S(B26:AA26),"")</f>
-        <v>0.81649658092772603</v>
+        <f t="shared" si="2"/>
+        <v>0.56455552758160454</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -2636,28 +2649,10 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>4.5</v>
-      </c>
-      <c r="F27">
-        <v>6</v>
-      </c>
-      <c r="G27">
-        <v>5.5</v>
+        <v>46</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27">
         <v>5.5</v>
@@ -2665,29 +2660,38 @@
       <c r="J27">
         <v>5.5</v>
       </c>
+      <c r="K27">
+        <v>4.5</v>
+      </c>
+      <c r="M27">
+        <v>4.5</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
       <c r="O27">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P27">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q27">
-        <v>6</v>
-      </c>
-      <c r="R27">
-        <v>6.5</v>
+        <v>5</v>
+      </c>
+      <c r="U27">
+        <v>5.5</v>
       </c>
       <c r="AB27">
-        <f>COUNT(B27:AA27)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="AC27" s="18">
-        <f>AVERAGE(B27:AA27)</f>
-        <v>5.9230769230769234</v>
+        <f t="shared" si="1"/>
+        <v>5.5</v>
       </c>
       <c r="AD27">
-        <f>IF(AB27&gt;1,_xlfn.STDEV.S(B27:AA27),"")</f>
-        <v>0.73161219936275579</v>
+        <f t="shared" si="2"/>
+        <v>0.81649658092772603</v>
       </c>
       <c r="AE27">
         <v>1</v>
@@ -2695,28 +2699,58 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>4.5</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>5.5</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>5.5</v>
+      </c>
+      <c r="J28">
+        <v>5.5</v>
+      </c>
+      <c r="O28">
+        <v>6.5</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
       </c>
       <c r="Q28">
-        <v>5.5</v>
-      </c>
-      <c r="S28">
-        <v>6.5</v>
-      </c>
-      <c r="V28">
+        <v>6</v>
+      </c>
+      <c r="R28">
         <v>6.5</v>
       </c>
       <c r="AB28">
-        <f>COUNT(B28:AA28)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="AC28" s="18">
-        <f>AVERAGE(B28:AA28)</f>
-        <v>6.166666666666667</v>
+        <f t="shared" si="1"/>
+        <v>5.9230769230769234</v>
       </c>
       <c r="AD28">
-        <f>IF(AB28&gt;1,_xlfn.STDEV.S(B28:AA28),"")</f>
-        <v>0.57735026918962584</v>
+        <f t="shared" si="2"/>
+        <v>0.73161219936275579</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -2724,28 +2758,31 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="R29">
-        <v>5</v>
-      </c>
-      <c r="T29">
-        <v>4.5</v>
-      </c>
-      <c r="U29">
-        <v>4.5</v>
+        <v>56</v>
+      </c>
+      <c r="Q29">
+        <v>5.5</v>
+      </c>
+      <c r="S29">
+        <v>6.5</v>
+      </c>
+      <c r="V29">
+        <v>6.5</v>
+      </c>
+      <c r="X29">
+        <v>6</v>
       </c>
       <c r="AB29">
-        <f>COUNT(B29:AA29)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="AC29" s="18">
-        <f>AVERAGE(B29:AA29)</f>
-        <v>4.666666666666667</v>
+        <f t="shared" si="1"/>
+        <v>6.125</v>
       </c>
       <c r="AD29">
-        <f>IF(AB29&gt;1,_xlfn.STDEV.S(B29:AA29),"")</f>
-        <v>0.28867513459481287</v>
+        <f t="shared" si="2"/>
+        <v>0.47871355387816905</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -2753,58 +2790,28 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30">
-        <v>5.5</v>
-      </c>
-      <c r="D30">
-        <v>7</v>
-      </c>
-      <c r="E30">
-        <v>7</v>
-      </c>
-      <c r="F30">
-        <v>7</v>
-      </c>
-      <c r="G30">
-        <v>5.5</v>
-      </c>
-      <c r="I30">
-        <v>5</v>
-      </c>
-      <c r="J30">
-        <v>6.5</v>
-      </c>
-      <c r="K30">
-        <v>6</v>
-      </c>
-      <c r="N30">
-        <v>6</v>
-      </c>
-      <c r="O30">
-        <v>5.5</v>
-      </c>
-      <c r="P30">
-        <v>6</v>
-      </c>
-      <c r="S30">
+        <v>60</v>
+      </c>
+      <c r="R30">
         <v>5</v>
       </c>
       <c r="T30">
-        <v>6.5</v>
+        <v>4.5</v>
+      </c>
+      <c r="U30">
+        <v>4.5</v>
       </c>
       <c r="AB30">
-        <f>COUNT(B30:AA30)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AC30" s="18">
-        <f>AVERAGE(B30:AA30)</f>
-        <v>6.0384615384615383</v>
+        <f t="shared" si="1"/>
+        <v>4.666666666666667</v>
       </c>
       <c r="AD30">
-        <f>IF(AB30&gt;1,_xlfn.STDEV.S(B30:AA30),"")</f>
-        <v>0.72057669212289177</v>
+        <f t="shared" si="2"/>
+        <v>0.28867513459481287</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -2812,37 +2819,61 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>5.5</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>5.5</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>6.5</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="N31">
+        <v>6</v>
       </c>
       <c r="O31">
-        <v>6</v>
-      </c>
-      <c r="Q31">
+        <v>5.5</v>
+      </c>
+      <c r="P31">
+        <v>6</v>
+      </c>
+      <c r="S31">
         <v>5</v>
       </c>
       <c r="T31">
         <v>6.5</v>
       </c>
-      <c r="U31">
-        <v>6.5</v>
-      </c>
-      <c r="V31">
-        <v>6</v>
-      </c>
-      <c r="W31">
+      <c r="X31">
         <v>6</v>
       </c>
       <c r="AB31">
-        <f>COUNT(B31:AA31)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="AC31" s="18">
-        <f>AVERAGE(B31:AA31)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>6.0357142857142856</v>
       </c>
       <c r="AD31">
-        <f>IF(AB31&gt;1,_xlfn.STDEV.S(B31:AA31),"")</f>
-        <v>0.54772255750516607</v>
+        <f t="shared" si="2"/>
+        <v>0.69238400067852701</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -2850,25 +2881,40 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="G32">
-        <v>2.5</v>
+        <v>55</v>
+      </c>
+      <c r="O32">
+        <v>6</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>6.5</v>
+      </c>
+      <c r="U32">
+        <v>6.5</v>
+      </c>
+      <c r="V32">
+        <v>6</v>
+      </c>
+      <c r="W32">
+        <v>6</v>
+      </c>
+      <c r="X32">
+        <v>6</v>
       </c>
       <c r="AB32">
-        <f>COUNT(B32:AA32)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="AC32" s="18">
-        <f>AVERAGE(B32:AA32)</f>
-        <v>3.25</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="AD32">
-        <f>IF(AB32&gt;1,_xlfn.STDEV.S(B32:AA32),"")</f>
-        <v>1.0606601717798212</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="AE32">
         <v>0</v>
@@ -2876,28 +2922,25 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="S33">
-        <v>5</v>
-      </c>
-      <c r="U33">
-        <v>5</v>
-      </c>
-      <c r="W33">
-        <v>5.5</v>
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>2.5</v>
       </c>
       <c r="AB33">
-        <f>COUNT(B33:AA33)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AC33" s="18">
-        <f>AVERAGE(B33:AA33)</f>
-        <v>5.166666666666667</v>
+        <f t="shared" si="1"/>
+        <v>3.25</v>
       </c>
       <c r="AD33">
-        <f>IF(AB33&gt;1,_xlfn.STDEV.S(B33:AA33),"")</f>
-        <v>0.28867513459481287</v>
+        <f t="shared" si="2"/>
+        <v>1.0606601717798212</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -2905,40 +2948,28 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34">
-        <v>6.5</v>
-      </c>
-      <c r="E34">
-        <v>6.5</v>
-      </c>
-      <c r="F34">
+        <v>63</v>
+      </c>
+      <c r="S34">
+        <v>5</v>
+      </c>
+      <c r="U34">
+        <v>5</v>
+      </c>
+      <c r="W34">
         <v>5.5</v>
       </c>
-      <c r="K34">
-        <v>6.5</v>
-      </c>
-      <c r="L34">
-        <v>6.5</v>
-      </c>
-      <c r="N34">
-        <v>7</v>
-      </c>
-      <c r="S34">
-        <v>6.5</v>
-      </c>
       <c r="AB34">
-        <f>COUNT(B34:AA34)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="AC34" s="18">
-        <f>AVERAGE(B34:AA34)</f>
-        <v>6.4285714285714288</v>
+        <f t="shared" si="1"/>
+        <v>5.166666666666667</v>
       </c>
       <c r="AD34">
-        <f>IF(AB34&gt;1,_xlfn.STDEV.S(B34:AA34),"")</f>
-        <v>0.44986770542121862</v>
+        <f t="shared" si="2"/>
+        <v>0.28867513459481287</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -2946,37 +2977,40 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <v>6.5</v>
+      </c>
+      <c r="E35">
+        <v>6.5</v>
       </c>
       <c r="F35">
         <v>5.5</v>
       </c>
-      <c r="G35">
-        <v>5</v>
-      </c>
-      <c r="H35">
-        <v>6</v>
-      </c>
-      <c r="Q35">
-        <v>6</v>
+      <c r="K35">
+        <v>6.5</v>
+      </c>
+      <c r="L35">
+        <v>6.5</v>
+      </c>
+      <c r="N35">
+        <v>7</v>
       </c>
       <c r="S35">
-        <v>6</v>
-      </c>
-      <c r="T35">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB35">
-        <f>COUNT(B35:AA35)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="AC35" s="18">
-        <f>AVERAGE(B35:AA35)</f>
-        <v>5.75</v>
+        <f t="shared" si="1"/>
+        <v>6.4285714285714288</v>
       </c>
       <c r="AD35">
-        <f>IF(AB35&gt;1,_xlfn.STDEV.S(B35:AA35),"")</f>
-        <v>0.41833001326703778</v>
+        <f t="shared" si="2"/>
+        <v>0.44986770542121862</v>
       </c>
       <c r="AE35">
         <v>0</v>
@@ -2984,46 +3018,37 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="D36">
-        <v>4.5</v>
+        <v>44</v>
+      </c>
+      <c r="F36">
+        <v>5.5</v>
       </c>
       <c r="G36">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H36">
-        <v>4.5</v>
-      </c>
-      <c r="I36">
-        <v>5</v>
-      </c>
-      <c r="J36">
-        <v>6.5</v>
-      </c>
-      <c r="K36">
-        <v>6.5</v>
-      </c>
-      <c r="O36">
-        <v>5.5</v>
-      </c>
-      <c r="U36">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+      <c r="T36">
         <v>6</v>
       </c>
       <c r="AB36">
-        <f>COUNT(B36:AA36)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="AC36" s="18">
-        <f>AVERAGE(B36:AA36)</f>
-        <v>5.5555555555555554</v>
+        <f t="shared" si="1"/>
+        <v>5.75</v>
       </c>
       <c r="AD36">
-        <f>IF(AB36&gt;1,_xlfn.STDEV.S(B36:AA36),"")</f>
-        <v>0.7682953714410744</v>
+        <f t="shared" si="2"/>
+        <v>0.41833001326703778</v>
       </c>
       <c r="AE36">
         <v>0</v>
@@ -3031,22 +3056,46 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>4.5</v>
+      </c>
+      <c r="G37">
+        <v>5.5</v>
+      </c>
+      <c r="H37">
+        <v>4.5</v>
       </c>
       <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>6.5</v>
+      </c>
+      <c r="K37">
+        <v>6.5</v>
+      </c>
+      <c r="O37">
         <v>5.5</v>
       </c>
+      <c r="U37">
+        <v>6</v>
+      </c>
       <c r="AB37">
-        <f>COUNT(B37:AA37)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="AC37" s="18">
-        <f>AVERAGE(B37:AA37)</f>
-        <v>5.5</v>
-      </c>
-      <c r="AD37" t="str">
-        <f>IF(AB37&gt;1,_xlfn.STDEV.S(B37:AA37),"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="2"/>
+        <v>0.7682953714410744</v>
       </c>
       <c r="AE37">
         <v>0</v>
@@ -3054,73 +3103,22 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38">
-        <v>8.5</v>
-      </c>
-      <c r="C38">
-        <v>7.5</v>
-      </c>
-      <c r="D38">
-        <v>7.5</v>
-      </c>
-      <c r="E38">
-        <v>7</v>
-      </c>
-      <c r="F38">
-        <v>6.5</v>
-      </c>
-      <c r="G38">
-        <v>7</v>
-      </c>
-      <c r="H38">
-        <v>6.5</v>
-      </c>
-      <c r="J38">
-        <v>7.5</v>
-      </c>
-      <c r="K38">
-        <v>7</v>
-      </c>
-      <c r="L38">
-        <v>7.5</v>
-      </c>
-      <c r="M38">
-        <v>6.5</v>
-      </c>
-      <c r="N38">
-        <v>7</v>
-      </c>
-      <c r="O38">
-        <v>7</v>
-      </c>
-      <c r="P38">
-        <v>6.5</v>
-      </c>
-      <c r="Q38">
-        <v>6.5</v>
-      </c>
-      <c r="U38">
-        <v>6.5</v>
-      </c>
-      <c r="V38">
-        <v>6</v>
-      </c>
-      <c r="W38">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="I38">
+        <v>5.5</v>
       </c>
       <c r="AB38">
-        <f>COUNT(B38:AA38)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AC38" s="18">
-        <f>AVERAGE(B38:AA38)</f>
-        <v>6.9722222222222223</v>
-      </c>
-      <c r="AD38">
-        <f>IF(AB38&gt;1,_xlfn.STDEV.S(B38:AA38),"")</f>
-        <v>0.5808771820734524</v>
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="AD38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="AE38">
         <v>0</v>
@@ -3128,46 +3126,76 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>8.5</v>
+      </c>
+      <c r="C39">
+        <v>7.5</v>
+      </c>
+      <c r="D39">
+        <v>7.5</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>6.5</v>
       </c>
       <c r="G39">
         <v>7</v>
       </c>
       <c r="H39">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J39">
         <v>7.5</v>
       </c>
       <c r="K39">
+        <v>7</v>
+      </c>
+      <c r="L39">
         <v>7.5</v>
       </c>
-      <c r="L39">
-        <v>7</v>
-      </c>
       <c r="M39">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N39">
         <v>7</v>
       </c>
       <c r="O39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P39">
-        <v>7.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="Q39">
+        <v>6.5</v>
+      </c>
+      <c r="U39">
+        <v>6.5</v>
+      </c>
+      <c r="V39">
+        <v>6</v>
+      </c>
+      <c r="W39">
+        <v>7</v>
+      </c>
+      <c r="X39">
+        <v>6.5</v>
       </c>
       <c r="AB39">
-        <f>COUNT(B39:AA39)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="AC39" s="18">
-        <f>AVERAGE(B39:AA39)</f>
-        <v>7.2777777777777777</v>
+        <f t="shared" si="1"/>
+        <v>6.9473684210526319</v>
       </c>
       <c r="AD39">
-        <f>IF(AB39&gt;1,_xlfn.STDEV.S(B39:AA39),"")</f>
-        <v>0.36324157862838946</v>
+        <f t="shared" si="2"/>
+        <v>0.57481245352301302</v>
       </c>
       <c r="AE39">
         <v>0</v>
@@ -3175,73 +3203,46 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40">
+        <v>45</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="J40">
         <v>7.5</v>
       </c>
-      <c r="E40">
-        <v>6.5</v>
-      </c>
-      <c r="F40">
-        <v>6.5</v>
-      </c>
-      <c r="H40">
-        <v>8.5</v>
-      </c>
-      <c r="I40">
-        <v>6.5</v>
-      </c>
       <c r="K40">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="L40">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P40">
-        <v>6.5</v>
-      </c>
-      <c r="Q40">
-        <v>5.5</v>
-      </c>
-      <c r="R40">
-        <v>7</v>
-      </c>
-      <c r="S40">
-        <v>6.5</v>
-      </c>
-      <c r="T40">
-        <v>6.5</v>
-      </c>
-      <c r="U40">
-        <v>6</v>
-      </c>
-      <c r="V40">
-        <v>6.5</v>
-      </c>
-      <c r="W40">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB40">
-        <f>COUNT(B40:AA40)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="AC40" s="18">
-        <f>AVERAGE(B40:AA40)</f>
-        <v>6.5</v>
+        <f t="shared" si="1"/>
+        <v>7.2777777777777777</v>
       </c>
       <c r="AD40">
-        <f>IF(AB40&gt;1,_xlfn.STDEV.S(B40:AA40),"")</f>
-        <v>0.66421116415507142</v>
+        <f t="shared" si="2"/>
+        <v>0.36324157862838946</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -3249,25 +3250,76 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41">
+        <v>23</v>
+      </c>
+      <c r="B41">
+        <v>7.5</v>
+      </c>
+      <c r="E41">
+        <v>6.5</v>
+      </c>
+      <c r="F41">
+        <v>6.5</v>
+      </c>
+      <c r="H41">
+        <v>8.5</v>
+      </c>
+      <c r="I41">
+        <v>6.5</v>
+      </c>
+      <c r="K41">
+        <v>6</v>
+      </c>
+      <c r="L41">
+        <v>6.5</v>
+      </c>
+      <c r="M41">
+        <v>6</v>
+      </c>
+      <c r="N41">
+        <v>6</v>
+      </c>
+      <c r="O41">
+        <v>6</v>
+      </c>
+      <c r="P41">
+        <v>6.5</v>
+      </c>
+      <c r="Q41">
         <v>5.5</v>
       </c>
       <c r="R41">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="S41">
+        <v>6.5</v>
+      </c>
+      <c r="T41">
+        <v>6.5</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+      <c r="V41">
+        <v>6.5</v>
+      </c>
+      <c r="W41">
+        <v>6.5</v>
+      </c>
+      <c r="X41">
+        <v>6.5</v>
       </c>
       <c r="AB41">
-        <f>COUNT(B41:AA41)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="AC41" s="18">
-        <f>AVERAGE(B41:AA41)</f>
-        <v>5.25</v>
+        <f t="shared" si="1"/>
+        <v>6.5</v>
       </c>
       <c r="AD41">
-        <f>IF(AB41&gt;1,_xlfn.STDEV.S(B41:AA41),"")</f>
-        <v>0.35355339059327379</v>
+        <f t="shared" si="2"/>
+        <v>0.6454972243679028</v>
       </c>
       <c r="AE41">
         <v>0</v>
@@ -3275,28 +3327,25 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42">
-        <v>7</v>
-      </c>
-      <c r="V42">
-        <v>6.5</v>
-      </c>
-      <c r="W42">
-        <v>6.5</v>
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <v>5.5</v>
+      </c>
+      <c r="R42">
+        <v>5</v>
       </c>
       <c r="AB42">
-        <f>COUNT(B42:AA42)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AC42" s="18">
-        <f>AVERAGE(B42:AA42)</f>
-        <v>6.666666666666667</v>
+        <f t="shared" si="1"/>
+        <v>5.25</v>
       </c>
       <c r="AD42">
-        <f>IF(AB42&gt;1,_xlfn.STDEV.S(B42:AA42),"")</f>
-        <v>0.28867513459481287</v>
+        <f t="shared" si="2"/>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AE42">
         <v>0</v>
@@ -3304,10 +3353,57 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="V43">
+        <v>6.5</v>
+      </c>
+      <c r="W43">
+        <v>6.5</v>
+      </c>
+      <c r="X43">
+        <v>6</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" ref="AB43:AB44" si="3">COUNT(B43:AA43)</f>
+        <v>4</v>
+      </c>
+      <c r="AC43" s="18">
+        <f t="shared" ref="AC43:AC44" si="4">AVERAGE(B43:AA43)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" ref="AD43:AD44" si="5">IF(AB43&gt;1,_xlfn.STDEV.S(B43:AA43),"")</f>
+        <v>0.40824829046386302</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="I43">
-        <v>5</v>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC44" s="18">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AD44" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="23:23" x14ac:dyDescent="0.3">
@@ -3326,12 +3422,104 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V43" xr:uid="{E4669FD1-3D64-493E-B9AE-455A6C3578D6}">
-    <sortState ref="A2:V43">
-      <sortCondition ref="A1:A43"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="X2:Z38 B2:T38">
+  <autoFilter ref="A1:X44" xr:uid="{2AD33299-2C67-4297-B1F3-23392AF60815}"/>
+  <conditionalFormatting sqref="Y2:Z38 B2:T38">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:Q39">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB39">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD39">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB40:AB42">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD40:AD42">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Z47 B44:V47 B2:T42 B43:U43">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB42">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC39">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -3343,7 +3531,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Q39">
+  <conditionalFormatting sqref="AC40:AC42">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC42">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U38">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -3355,7 +3567,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB39">
+  <conditionalFormatting sqref="U2:U42">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3367,19 +3579,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD39">
+  <conditionalFormatting sqref="Y2:Z42 F2:U42">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V38">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB40:AB42">
+  <conditionalFormatting sqref="V2:V43">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3391,19 +3615,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AD42">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Z47 B44:V47 B2:T42 B43:U43">
+  <conditionalFormatting sqref="W74:W90 W32 W2 W7 W11:W12 W15:W21">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3415,7 +3627,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB42">
+  <conditionalFormatting sqref="W44:W47 W32 W74:W95 W2 W7 W11:W12 W15:W21 W41">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3427,7 +3639,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC39">
+  <conditionalFormatting sqref="AB43">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3439,19 +3651,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC40:AC42">
+  <conditionalFormatting sqref="AD43">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC42">
+  <conditionalFormatting sqref="AB43">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3463,7 +3675,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U38">
+  <conditionalFormatting sqref="AC43">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3475,7 +3687,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U42">
+  <conditionalFormatting sqref="AC43">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3487,7 +3699,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Z42 F2:U42">
+  <conditionalFormatting sqref="AB44">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3499,19 +3711,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V38">
+  <conditionalFormatting sqref="AD44">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V43">
+  <conditionalFormatting sqref="AB44">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3523,7 +3735,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W74:W90 W2 W7 W11:W12 W15:W21 W31">
+  <conditionalFormatting sqref="AC44">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC44">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:X38">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3535,7 +3771,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W44:W47 W74:W95 W2 W7 W11:W12 W15:W21 W31 W40">
+  <conditionalFormatting sqref="X2:X47">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3553,10 +3789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66:J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5442,7 +5678,7 @@
       <c r="I38" s="5">
         <v>1</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="8">
         <v>4</v>
       </c>
       <c r="K38" s="8" t="s">
@@ -5592,7 +5828,7 @@
       <c r="I41" s="5">
         <v>5</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="8">
         <v>5</v>
       </c>
       <c r="K41" s="8" t="s">
@@ -5742,7 +5978,7 @@
       <c r="I44" s="5">
         <v>4</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="8">
         <v>3</v>
       </c>
       <c r="K44" s="8" t="s">
@@ -5892,7 +6128,7 @@
       <c r="I47" s="5">
         <v>3</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="8">
         <v>4</v>
       </c>
       <c r="K47" s="8" t="s">
@@ -6032,7 +6268,7 @@
       <c r="I50" s="5">
         <v>7</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="8">
         <v>11</v>
       </c>
       <c r="K50" s="8" t="s">
@@ -6180,7 +6416,7 @@
       <c r="I53" s="5">
         <v>2</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="8">
         <v>8</v>
       </c>
       <c r="K53" s="8" t="s">
@@ -6681,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K63" s="10" t="s">
         <v>13</v>
@@ -6800,6 +7036,156 @@
       </c>
       <c r="P65" s="8" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="14">
+        <v>45602</v>
+      </c>
+      <c r="B66" s="3">
+        <v>5</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" s="9">
+        <v>5</v>
+      </c>
+      <c r="J66" s="10">
+        <v>2</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O66" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P66" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="14">
+        <v>45602</v>
+      </c>
+      <c r="B67" s="3">
+        <v>3</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I67" s="11">
+        <v>3</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="14">
+        <v>45602</v>
+      </c>
+      <c r="B68" s="5">
+        <v>5</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" s="5">
+        <v>3</v>
+      </c>
+      <c r="J68" s="8">
+        <v>4</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P68" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6809,7 +7195,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40949BC3-8DAE-4185-A4C0-F8573FA5A3A2}">
-  <dimension ref="A1:AI43"/>
+  <dimension ref="A1:AI44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
@@ -6824,6 +7210,7 @@
     <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
@@ -6899,6 +7286,9 @@
       <c r="X1" s="1">
         <v>45595</v>
       </c>
+      <c r="Y1" s="1">
+        <v>45454</v>
+      </c>
       <c r="AH1" t="s">
         <v>65</v>
       </c>
@@ -7002,13 +7392,16 @@
       <c r="W7">
         <v>1</v>
       </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
       <c r="AH7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
@@ -7021,13 +7414,16 @@
       <c r="J8">
         <v>1</v>
       </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
       <c r="AH8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
@@ -7112,13 +7508,16 @@
       <c r="V12">
         <v>3</v>
       </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
       <c r="AH12">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI12">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
@@ -7172,13 +7571,16 @@
       <c r="R15">
         <v>1</v>
       </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
       <c r="AH15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
@@ -7206,13 +7608,16 @@
       <c r="X16">
         <v>1</v>
       </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
       <c r="AH16">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI16">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
@@ -7274,13 +7679,16 @@
       <c r="X18">
         <v>1</v>
       </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
       <c r="AH18">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
@@ -7370,27 +7778,27 @@
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
       </c>
       <c r="AH23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="N24">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="AH24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI24">
         <f t="shared" si="1"/>
@@ -7399,189 +7807,192 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>3</v>
-      </c>
-      <c r="V25">
-        <v>2</v>
-      </c>
-      <c r="W25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AI25">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
-      <c r="L26">
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
         <v>1</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W26">
+        <v>3</v>
       </c>
       <c r="AH26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AI26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>4</v>
+      </c>
+      <c r="V27">
         <v>1</v>
       </c>
       <c r="AH27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
       </c>
       <c r="AH28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="V29">
+        <v>56</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="Y29">
         <v>2</v>
       </c>
       <c r="AH29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
       </c>
       <c r="AH30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="V31">
-        <v>2</v>
-      </c>
-      <c r="W31">
-        <v>1</v>
-      </c>
-      <c r="X31">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AH31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI31">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>55</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
       </c>
       <c r="AH32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
-      <c r="X33">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AH33">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34">
-        <v>2</v>
-      </c>
-      <c r="M34">
+        <v>63</v>
+      </c>
+      <c r="V34">
+        <v>2</v>
+      </c>
+      <c r="X34">
         <v>1</v>
       </c>
       <c r="AH34">
@@ -7590,16 +8001,22 @@
       </c>
       <c r="AI34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
       </c>
       <c r="AH35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI35">
         <f t="shared" si="1"/>
@@ -7608,171 +8025,178 @@
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="AH36">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI36">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="V37">
         <v>1</v>
       </c>
       <c r="AH37">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="K38">
-        <v>2</v>
-      </c>
-      <c r="L38">
-        <v>4</v>
-      </c>
-      <c r="P38">
-        <v>3</v>
-      </c>
-      <c r="V38">
-        <v>1</v>
-      </c>
-      <c r="W38">
-        <v>2</v>
-      </c>
-      <c r="X38">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
       </c>
       <c r="AH38">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AI38">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>2</v>
+      </c>
+      <c r="X39">
+        <v>2</v>
+      </c>
+      <c r="Y39">
+        <v>3</v>
       </c>
       <c r="AH39">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AI39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40">
-        <v>2</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
       </c>
       <c r="AH40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>3</v>
       </c>
       <c r="AH41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="W42">
-        <v>4</v>
-      </c>
-      <c r="X42">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="AH42">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI42">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="W43">
+        <v>4</v>
+      </c>
+      <c r="X43">
+        <v>3</v>
       </c>
       <c r="AH43">
         <f t="shared" ref="AH43" si="2">SUM(B43:AG43)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI43">
         <f t="shared" ref="AI43" si="3">SUM(V43:AG43)</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X43" xr:uid="{783CBCE6-F8B4-4313-8CE8-DEF99493B36A}">
-    <sortState ref="A2:X43">
-      <sortCondition ref="A1:A43"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:Y44" xr:uid="{9C542B55-4D31-4DF5-B92C-EBF25DAC7053}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="113_{0AE4E784-A55A-46D6-B24A-1982B84D5895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8CA03368-BAE4-401C-A4FD-BC704921F728}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="113_{0AE4E784-A55A-46D6-B24A-1982B84D5895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{AAC6CF00-9C9A-4BAE-BA30-523DC92E5C6A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="artilharia" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">artilharia!$A$1:$Y$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">artilharia!$A$1:$Z$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$X$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="70">
   <si>
     <t>Jogador</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Lulinha</t>
+  </si>
+  <si>
+    <t>Leo Motta</t>
   </si>
 </sst>
 </file>
@@ -1229,9 +1232,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I2" sqref="I2"/>
+      <selection pane="topRight" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,6 +1327,9 @@
       <c r="X1" s="1">
         <v>45602</v>
       </c>
+      <c r="Y1" s="1">
+        <v>45609</v>
+      </c>
       <c r="AB1" t="s">
         <v>57</v>
       </c>
@@ -1401,17 +1407,20 @@
       <c r="X2">
         <v>6</v>
       </c>
+      <c r="Y2">
+        <v>5.5</v>
+      </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB42" si="0">COUNT(B2:AA2)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC2" s="18">
         <f t="shared" ref="AC2:AC42" si="1">AVERAGE(B2:AA2)</f>
-        <v>5.7249999999999996</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD42" si="2">IF(AB2&gt;1,_xlfn.STDEV.S(B2:AA2),"")</f>
-        <v>0.4722566206941663</v>
+        <v>0.46291004988627588</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -1689,17 +1698,20 @@
       <c r="X8">
         <v>6.5</v>
       </c>
+      <c r="Y8">
+        <v>6</v>
+      </c>
       <c r="AB8">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC8" s="18">
         <f t="shared" si="1"/>
-        <v>5.9705882352941178</v>
+        <v>5.9722222222222223</v>
       </c>
       <c r="AD8">
         <f t="shared" si="2"/>
-        <v>0.54401827391452684</v>
+        <v>0.52782077568226704</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -1744,9 +1756,12 @@
       <c r="W10">
         <v>6</v>
       </c>
+      <c r="Y10">
+        <v>6</v>
+      </c>
       <c r="AB10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC10" s="18">
         <f t="shared" si="1"/>
@@ -1803,17 +1818,20 @@
       <c r="X11">
         <v>5.5</v>
       </c>
+      <c r="Y11">
+        <v>6.5</v>
+      </c>
       <c r="AB11">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC11" s="18">
         <f t="shared" si="1"/>
-        <v>5.884615384615385</v>
+        <v>5.9285714285714288</v>
       </c>
       <c r="AD11">
         <f t="shared" si="2"/>
-        <v>0.46340434799814922</v>
+        <v>0.47463114654932342</v>
       </c>
       <c r="AE11">
         <v>1</v>
@@ -2027,17 +2045,20 @@
       <c r="X15">
         <v>6</v>
       </c>
+      <c r="Y15">
+        <v>5.5</v>
+      </c>
       <c r="AB15">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC15" s="18">
         <f t="shared" si="1"/>
-        <v>5.9047619047619051</v>
+        <v>5.8863636363636367</v>
       </c>
       <c r="AD15">
         <f t="shared" si="2"/>
-        <v>0.43643578047198461</v>
+        <v>0.43457198926393509</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2116,17 +2137,20 @@
       <c r="X16">
         <v>6</v>
       </c>
+      <c r="Y16">
+        <v>6.5</v>
+      </c>
       <c r="AB16">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC16" s="18">
         <f t="shared" si="1"/>
-        <v>6.1739130434782608</v>
+        <v>6.1875</v>
       </c>
       <c r="AD16">
         <f t="shared" si="2"/>
-        <v>0.7478559604291517</v>
+        <v>0.73444004106056437</v>
       </c>
       <c r="AE16">
         <v>1</v>
@@ -2276,17 +2300,20 @@
       <c r="X18">
         <v>6</v>
       </c>
+      <c r="Y18">
+        <v>6</v>
+      </c>
       <c r="AB18">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC18" s="18">
         <f t="shared" si="1"/>
-        <v>6.5227272727272725</v>
+        <v>6.5</v>
       </c>
       <c r="AD18">
         <f t="shared" si="2"/>
-        <v>0.44926587544551716</v>
+        <v>0.45226701686664544</v>
       </c>
       <c r="AE18">
         <v>1</v>
@@ -2356,17 +2383,20 @@
       <c r="X19">
         <v>5.5</v>
       </c>
+      <c r="Y19">
+        <v>6</v>
+      </c>
       <c r="AB19">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC19" s="18">
         <f t="shared" si="1"/>
-        <v>6.2</v>
+        <v>6.1904761904761907</v>
       </c>
       <c r="AD19">
         <f t="shared" si="2"/>
-        <v>0.52314836378059693</v>
+        <v>0.51176631571915887</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -2374,116 +2404,116 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="R20">
-        <v>6.5</v>
-      </c>
-      <c r="S20">
-        <v>5.5</v>
-      </c>
-      <c r="T20">
-        <v>5.5</v>
-      </c>
-      <c r="W20">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="Y20">
+        <v>6.5</v>
       </c>
       <c r="AB20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="18">
         <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="AD20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="R21">
+        <v>6.5</v>
+      </c>
+      <c r="S21">
+        <v>5.5</v>
+      </c>
+      <c r="T21">
+        <v>5.5</v>
+      </c>
+      <c r="W21">
+        <v>6</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AC21" s="18">
+        <f t="shared" si="1"/>
         <v>5.875</v>
       </c>
-      <c r="AD20">
+      <c r="AD21">
         <f t="shared" si="2"/>
         <v>0.47871355387816905</v>
       </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>8.5</v>
-      </c>
-      <c r="D21">
-        <v>6.5</v>
-      </c>
-      <c r="E21">
-        <v>6.5</v>
-      </c>
-      <c r="F21">
-        <v>6</v>
-      </c>
-      <c r="M21">
-        <v>6</v>
-      </c>
-      <c r="N21">
-        <v>6</v>
-      </c>
-      <c r="O21">
-        <v>6</v>
-      </c>
-      <c r="P21">
-        <v>6</v>
-      </c>
-      <c r="Q21">
-        <v>6.5</v>
-      </c>
-      <c r="T21">
-        <v>6</v>
-      </c>
-      <c r="U21">
-        <v>6</v>
-      </c>
-      <c r="V21">
-        <v>6.5</v>
-      </c>
-      <c r="W21">
-        <v>6</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AC21" s="18">
-        <f t="shared" si="1"/>
-        <v>6.3461538461538458</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" si="2"/>
-        <v>0.68873723172119716</v>
-      </c>
       <c r="AE21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="R22">
-        <v>3.5</v>
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>8.5</v>
+      </c>
+      <c r="D22">
+        <v>6.5</v>
+      </c>
+      <c r="E22">
+        <v>6.5</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <v>6</v>
+      </c>
+      <c r="Q22">
+        <v>6.5</v>
+      </c>
+      <c r="T22">
+        <v>6</v>
+      </c>
+      <c r="U22">
+        <v>6</v>
+      </c>
+      <c r="V22">
+        <v>6.5</v>
+      </c>
+      <c r="W22">
+        <v>6</v>
+      </c>
+      <c r="Y22">
+        <v>7.5</v>
       </c>
       <c r="AB22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AC22" s="18">
         <f t="shared" si="1"/>
-        <v>3.25</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="AD22">
         <f t="shared" si="2"/>
-        <v>0.35355339059327379</v>
+        <v>0.73004591154737264</v>
       </c>
       <c r="AE22">
         <v>1</v>
@@ -2491,22 +2521,25 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="X23">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>3.5</v>
       </c>
       <c r="AB23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC23" s="18">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD23" t="str">
+        <v>3.25</v>
+      </c>
+      <c r="AD23">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -2514,10 +2547,10 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24">
-        <v>5.5</v>
+        <v>68</v>
+      </c>
+      <c r="X24">
+        <v>6</v>
       </c>
       <c r="AB24">
         <f t="shared" si="0"/>
@@ -2525,7 +2558,7 @@
       </c>
       <c r="AC24" s="18">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD24" t="str">
         <f t="shared" si="2"/>
@@ -2537,119 +2570,74 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25">
-        <v>3.5</v>
-      </c>
-      <c r="M25">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="L25">
+        <v>5.5</v>
       </c>
       <c r="AB25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="18">
         <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="AD25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26">
+        <v>3.5</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AC26" s="18">
+        <f t="shared" si="1"/>
         <v>4.25</v>
       </c>
-      <c r="AD25">
+      <c r="AD26">
         <f t="shared" si="2"/>
         <v>1.0606601717798212</v>
       </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>4.5</v>
-      </c>
-      <c r="C26">
-        <v>5.5</v>
-      </c>
-      <c r="D26">
-        <v>6.5</v>
-      </c>
-      <c r="E26">
-        <v>5.5</v>
-      </c>
-      <c r="F26">
-        <v>5.5</v>
-      </c>
-      <c r="G26">
-        <v>5.5</v>
-      </c>
-      <c r="H26">
-        <v>6</v>
-      </c>
-      <c r="I26">
-        <v>5.5</v>
-      </c>
-      <c r="J26">
-        <v>6</v>
-      </c>
-      <c r="K26">
-        <v>6</v>
-      </c>
-      <c r="L26">
-        <v>5.5</v>
-      </c>
-      <c r="M26">
-        <v>6.5</v>
-      </c>
-      <c r="N26">
-        <v>6.5</v>
-      </c>
-      <c r="O26">
-        <v>6.5</v>
-      </c>
-      <c r="P26">
-        <v>5</v>
-      </c>
-      <c r="Q26">
-        <v>5.5</v>
-      </c>
-      <c r="R26">
-        <v>5.5</v>
-      </c>
-      <c r="S26">
-        <v>6.5</v>
-      </c>
-      <c r="T26">
-        <v>5.5</v>
-      </c>
-      <c r="U26">
-        <v>6.5</v>
-      </c>
-      <c r="V26">
-        <v>6.5</v>
-      </c>
-      <c r="X26">
-        <v>6</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AC26" s="18">
-        <f t="shared" si="1"/>
-        <v>5.8409090909090908</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" si="2"/>
-        <v>0.56455552758160454</v>
-      </c>
       <c r="AE26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>4.5</v>
+      </c>
+      <c r="C27">
+        <v>5.5</v>
+      </c>
+      <c r="D27">
+        <v>6.5</v>
+      </c>
+      <c r="E27">
+        <v>5.5</v>
+      </c>
+      <c r="F27">
+        <v>5.5</v>
+      </c>
+      <c r="G27">
+        <v>5.5</v>
       </c>
       <c r="H27">
         <v>6</v>
@@ -2658,40 +2646,61 @@
         <v>5.5</v>
       </c>
       <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27">
         <v>5.5</v>
       </c>
-      <c r="K27">
-        <v>4.5</v>
-      </c>
       <c r="M27">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="O27">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="P27">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>5.5</v>
+      </c>
+      <c r="R27">
+        <v>5.5</v>
+      </c>
+      <c r="S27">
+        <v>6.5</v>
+      </c>
+      <c r="T27">
+        <v>5.5</v>
       </c>
       <c r="U27">
-        <v>5.5</v>
+        <v>6.5</v>
+      </c>
+      <c r="V27">
+        <v>6.5</v>
+      </c>
+      <c r="X27">
+        <v>6</v>
+      </c>
+      <c r="Y27">
+        <v>6.5</v>
       </c>
       <c r="AB27">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AC27" s="18">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>5.8695652173913047</v>
       </c>
       <c r="AD27">
         <f t="shared" si="2"/>
-        <v>0.81649658092772603</v>
+        <v>0.56843867711853369</v>
       </c>
       <c r="AE27">
         <v>1</v>
@@ -2699,28 +2708,10 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="D28">
-        <v>7</v>
-      </c>
-      <c r="E28">
-        <v>4.5</v>
-      </c>
-      <c r="F28">
-        <v>6</v>
-      </c>
-      <c r="G28">
-        <v>5.5</v>
+        <v>46</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28">
         <v>5.5</v>
@@ -2728,29 +2719,38 @@
       <c r="J28">
         <v>5.5</v>
       </c>
+      <c r="K28">
+        <v>4.5</v>
+      </c>
+      <c r="M28">
+        <v>4.5</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
       <c r="O28">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P28">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q28">
-        <v>6</v>
-      </c>
-      <c r="R28">
-        <v>6.5</v>
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <v>5.5</v>
       </c>
       <c r="AB28">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AC28" s="18">
         <f t="shared" si="1"/>
-        <v>5.9230769230769234</v>
+        <v>5.5</v>
       </c>
       <c r="AD28">
         <f t="shared" si="2"/>
-        <v>0.73161219936275579</v>
+        <v>0.81649658092772603</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -2758,31 +2758,61 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>4.5</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>5.5</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>5.5</v>
+      </c>
+      <c r="J29">
+        <v>5.5</v>
+      </c>
+      <c r="O29">
+        <v>6.5</v>
+      </c>
+      <c r="P29">
+        <v>6</v>
       </c>
       <c r="Q29">
-        <v>5.5</v>
-      </c>
-      <c r="S29">
-        <v>6.5</v>
-      </c>
-      <c r="V29">
-        <v>6.5</v>
-      </c>
-      <c r="X29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>6.5</v>
+      </c>
+      <c r="Y29">
         <v>6</v>
       </c>
       <c r="AB29">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AC29" s="18">
         <f t="shared" si="1"/>
-        <v>6.125</v>
+        <v>5.9285714285714288</v>
       </c>
       <c r="AD29">
         <f t="shared" si="2"/>
-        <v>0.47871355387816905</v>
+        <v>0.70321084640774401</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -2790,28 +2820,34 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="R30">
-        <v>5</v>
-      </c>
-      <c r="T30">
-        <v>4.5</v>
-      </c>
-      <c r="U30">
-        <v>4.5</v>
+        <v>56</v>
+      </c>
+      <c r="Q30">
+        <v>5.5</v>
+      </c>
+      <c r="S30">
+        <v>6.5</v>
+      </c>
+      <c r="V30">
+        <v>6.5</v>
+      </c>
+      <c r="X30">
+        <v>6</v>
+      </c>
+      <c r="Y30">
+        <v>6.5</v>
       </c>
       <c r="AB30">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC30" s="18">
         <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
+        <v>6.2</v>
       </c>
       <c r="AD30">
         <f t="shared" si="2"/>
-        <v>0.28867513459481287</v>
+        <v>0.44721359549995793</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -2819,61 +2855,28 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31">
-        <v>5.5</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>7</v>
-      </c>
-      <c r="F31">
-        <v>7</v>
-      </c>
-      <c r="G31">
-        <v>5.5</v>
-      </c>
-      <c r="I31">
-        <v>5</v>
-      </c>
-      <c r="J31">
-        <v>6.5</v>
-      </c>
-      <c r="K31">
-        <v>6</v>
-      </c>
-      <c r="N31">
-        <v>6</v>
-      </c>
-      <c r="O31">
-        <v>5.5</v>
-      </c>
-      <c r="P31">
-        <v>6</v>
-      </c>
-      <c r="S31">
+        <v>60</v>
+      </c>
+      <c r="R31">
         <v>5</v>
       </c>
       <c r="T31">
-        <v>6.5</v>
-      </c>
-      <c r="X31">
-        <v>6</v>
+        <v>4.5</v>
+      </c>
+      <c r="U31">
+        <v>4.5</v>
       </c>
       <c r="AB31">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AC31" s="18">
         <f t="shared" si="1"/>
-        <v>6.0357142857142856</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="AD31">
         <f t="shared" si="2"/>
-        <v>0.69238400067852701</v>
+        <v>0.28867513459481287</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -2881,40 +2884,64 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>5.5</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>5.5</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>6.5</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="N32">
+        <v>6</v>
       </c>
       <c r="O32">
-        <v>6</v>
-      </c>
-      <c r="Q32">
+        <v>5.5</v>
+      </c>
+      <c r="P32">
+        <v>6</v>
+      </c>
+      <c r="S32">
         <v>5</v>
       </c>
       <c r="T32">
         <v>6.5</v>
       </c>
-      <c r="U32">
-        <v>6.5</v>
-      </c>
-      <c r="V32">
-        <v>6</v>
-      </c>
-      <c r="W32">
-        <v>6</v>
-      </c>
       <c r="X32">
+        <v>6</v>
+      </c>
+      <c r="Y32">
         <v>6</v>
       </c>
       <c r="AB32">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AC32" s="18">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>6.0333333333333332</v>
       </c>
       <c r="AD32">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.66726163926760862</v>
       </c>
       <c r="AE32">
         <v>0</v>
@@ -2922,25 +2949,43 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="G33">
-        <v>2.5</v>
+        <v>55</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>6.5</v>
+      </c>
+      <c r="U33">
+        <v>6.5</v>
+      </c>
+      <c r="V33">
+        <v>6</v>
+      </c>
+      <c r="W33">
+        <v>6</v>
+      </c>
+      <c r="X33">
+        <v>6</v>
+      </c>
+      <c r="Y33">
+        <v>7</v>
       </c>
       <c r="AB33">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AC33" s="18">
         <f t="shared" si="1"/>
-        <v>3.25</v>
+        <v>6.125</v>
       </c>
       <c r="AD33">
         <f t="shared" si="2"/>
-        <v>1.0606601717798212</v>
+        <v>0.58248237251071755</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -2948,28 +2993,25 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="S34">
-        <v>5</v>
-      </c>
-      <c r="U34">
-        <v>5</v>
-      </c>
-      <c r="W34">
-        <v>5.5</v>
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>2.5</v>
       </c>
       <c r="AB34">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC34" s="18">
         <f t="shared" si="1"/>
-        <v>5.166666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="AD34">
         <f t="shared" si="2"/>
-        <v>0.28867513459481287</v>
+        <v>1.0606601717798212</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -2977,40 +3019,28 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35">
-        <v>6.5</v>
-      </c>
-      <c r="E35">
-        <v>6.5</v>
-      </c>
-      <c r="F35">
+        <v>63</v>
+      </c>
+      <c r="S35">
+        <v>5</v>
+      </c>
+      <c r="U35">
+        <v>5</v>
+      </c>
+      <c r="W35">
         <v>5.5</v>
-      </c>
-      <c r="K35">
-        <v>6.5</v>
-      </c>
-      <c r="L35">
-        <v>6.5</v>
-      </c>
-      <c r="N35">
-        <v>7</v>
-      </c>
-      <c r="S35">
-        <v>6.5</v>
       </c>
       <c r="AB35">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC35" s="18">
         <f t="shared" si="1"/>
-        <v>6.4285714285714288</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="AD35">
         <f t="shared" si="2"/>
-        <v>0.44986770542121862</v>
+        <v>0.28867513459481287</v>
       </c>
       <c r="AE35">
         <v>0</v>
@@ -3018,37 +3048,40 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="D36">
+        <v>6.5</v>
+      </c>
+      <c r="E36">
+        <v>6.5</v>
       </c>
       <c r="F36">
         <v>5.5</v>
       </c>
-      <c r="G36">
-        <v>5</v>
-      </c>
-      <c r="H36">
-        <v>6</v>
-      </c>
-      <c r="Q36">
-        <v>6</v>
+      <c r="K36">
+        <v>6.5</v>
+      </c>
+      <c r="L36">
+        <v>6.5</v>
+      </c>
+      <c r="N36">
+        <v>7</v>
       </c>
       <c r="S36">
-        <v>6</v>
-      </c>
-      <c r="T36">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB36">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC36" s="18">
         <f t="shared" si="1"/>
-        <v>5.75</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="AD36">
         <f t="shared" si="2"/>
-        <v>0.41833001326703778</v>
+        <v>0.44986770542121862</v>
       </c>
       <c r="AE36">
         <v>0</v>
@@ -3056,46 +3089,37 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="D37">
-        <v>4.5</v>
+        <v>44</v>
+      </c>
+      <c r="F37">
+        <v>5.5</v>
       </c>
       <c r="G37">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>4.5</v>
-      </c>
-      <c r="I37">
-        <v>5</v>
-      </c>
-      <c r="J37">
-        <v>6.5</v>
-      </c>
-      <c r="K37">
-        <v>6.5</v>
-      </c>
-      <c r="O37">
-        <v>5.5</v>
-      </c>
-      <c r="U37">
+        <v>6</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="S37">
+        <v>6</v>
+      </c>
+      <c r="T37">
         <v>6</v>
       </c>
       <c r="AB37">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AC37" s="18">
         <f t="shared" si="1"/>
-        <v>5.5555555555555554</v>
+        <v>5.75</v>
       </c>
       <c r="AD37">
         <f t="shared" si="2"/>
-        <v>0.7682953714410744</v>
+        <v>0.41833001326703778</v>
       </c>
       <c r="AE37">
         <v>0</v>
@@ -3103,281 +3127,302 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>4.5</v>
+      </c>
+      <c r="G38">
+        <v>5.5</v>
+      </c>
+      <c r="H38">
+        <v>4.5</v>
       </c>
       <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>6.5</v>
+      </c>
+      <c r="K38">
+        <v>6.5</v>
+      </c>
+      <c r="O38">
         <v>5.5</v>
+      </c>
+      <c r="U38">
+        <v>6</v>
       </c>
       <c r="AB38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AC38" s="18">
         <f t="shared" si="1"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="2"/>
+        <v>0.7682953714410744</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39">
         <v>5.5</v>
       </c>
-      <c r="AD38" t="str">
+      <c r="AB39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC39" s="18">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="AD39" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AE38">
+      <c r="AE39">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
         <v>8.5</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>7.5</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>7.5</v>
       </c>
-      <c r="E39">
-        <v>7</v>
-      </c>
-      <c r="F39">
-        <v>6.5</v>
-      </c>
-      <c r="G39">
-        <v>7</v>
-      </c>
-      <c r="H39">
-        <v>6.5</v>
-      </c>
-      <c r="J39">
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>6.5</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>6.5</v>
+      </c>
+      <c r="J40">
         <v>7.5</v>
       </c>
-      <c r="K39">
-        <v>7</v>
-      </c>
-      <c r="L39">
+      <c r="K40">
+        <v>7</v>
+      </c>
+      <c r="L40">
         <v>7.5</v>
       </c>
-      <c r="M39">
-        <v>6.5</v>
-      </c>
-      <c r="N39">
-        <v>7</v>
-      </c>
-      <c r="O39">
-        <v>7</v>
-      </c>
-      <c r="P39">
-        <v>6.5</v>
-      </c>
-      <c r="Q39">
-        <v>6.5</v>
-      </c>
-      <c r="U39">
-        <v>6.5</v>
-      </c>
-      <c r="V39">
-        <v>6</v>
-      </c>
-      <c r="W39">
-        <v>7</v>
-      </c>
-      <c r="X39">
-        <v>6.5</v>
-      </c>
-      <c r="AB39">
+      <c r="M40">
+        <v>6.5</v>
+      </c>
+      <c r="N40">
+        <v>7</v>
+      </c>
+      <c r="O40">
+        <v>7</v>
+      </c>
+      <c r="P40">
+        <v>6.5</v>
+      </c>
+      <c r="Q40">
+        <v>6.5</v>
+      </c>
+      <c r="U40">
+        <v>6.5</v>
+      </c>
+      <c r="V40">
+        <v>6</v>
+      </c>
+      <c r="W40">
+        <v>7</v>
+      </c>
+      <c r="X40">
+        <v>6.5</v>
+      </c>
+      <c r="Y40">
+        <v>6.5</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AC40" s="18">
+        <f t="shared" si="1"/>
+        <v>6.9249999999999998</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="2"/>
+        <v>0.568354040884266</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>7.5</v>
+      </c>
+      <c r="K41">
+        <v>7.5</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>7</v>
+      </c>
+      <c r="N41">
+        <v>7</v>
+      </c>
+      <c r="O41">
+        <v>8</v>
+      </c>
+      <c r="P41">
+        <v>7.5</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AC41" s="18">
+        <f t="shared" si="1"/>
+        <v>7.2777777777777777</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="2"/>
+        <v>0.36324157862838946</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42">
+        <v>7.5</v>
+      </c>
+      <c r="E42">
+        <v>6.5</v>
+      </c>
+      <c r="F42">
+        <v>6.5</v>
+      </c>
+      <c r="H42">
+        <v>8.5</v>
+      </c>
+      <c r="I42">
+        <v>6.5</v>
+      </c>
+      <c r="K42">
+        <v>6</v>
+      </c>
+      <c r="L42">
+        <v>6.5</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="N42">
+        <v>6</v>
+      </c>
+      <c r="O42">
+        <v>6</v>
+      </c>
+      <c r="P42">
+        <v>6.5</v>
+      </c>
+      <c r="Q42">
+        <v>5.5</v>
+      </c>
+      <c r="R42">
+        <v>7</v>
+      </c>
+      <c r="S42">
+        <v>6.5</v>
+      </c>
+      <c r="T42">
+        <v>6.5</v>
+      </c>
+      <c r="U42">
+        <v>6</v>
+      </c>
+      <c r="V42">
+        <v>6.5</v>
+      </c>
+      <c r="W42">
+        <v>6.5</v>
+      </c>
+      <c r="X42">
+        <v>6.5</v>
+      </c>
+      <c r="AB42">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="AC39" s="18">
+      <c r="AC42" s="18">
         <f t="shared" si="1"/>
-        <v>6.9473684210526319</v>
-      </c>
-      <c r="AD39">
-        <f t="shared" si="2"/>
-        <v>0.57481245352301302</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40">
-        <v>7</v>
-      </c>
-      <c r="H40">
-        <v>7</v>
-      </c>
-      <c r="J40">
-        <v>7.5</v>
-      </c>
-      <c r="K40">
-        <v>7.5</v>
-      </c>
-      <c r="L40">
-        <v>7</v>
-      </c>
-      <c r="M40">
-        <v>7</v>
-      </c>
-      <c r="N40">
-        <v>7</v>
-      </c>
-      <c r="O40">
-        <v>8</v>
-      </c>
-      <c r="P40">
-        <v>7.5</v>
-      </c>
-      <c r="AB40">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AC40" s="18">
-        <f t="shared" si="1"/>
-        <v>7.2777777777777777</v>
-      </c>
-      <c r="AD40">
-        <f t="shared" si="2"/>
-        <v>0.36324157862838946</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41">
-        <v>7.5</v>
-      </c>
-      <c r="E41">
-        <v>6.5</v>
-      </c>
-      <c r="F41">
-        <v>6.5</v>
-      </c>
-      <c r="H41">
-        <v>8.5</v>
-      </c>
-      <c r="I41">
-        <v>6.5</v>
-      </c>
-      <c r="K41">
-        <v>6</v>
-      </c>
-      <c r="L41">
-        <v>6.5</v>
-      </c>
-      <c r="M41">
-        <v>6</v>
-      </c>
-      <c r="N41">
-        <v>6</v>
-      </c>
-      <c r="O41">
-        <v>6</v>
-      </c>
-      <c r="P41">
-        <v>6.5</v>
-      </c>
-      <c r="Q41">
-        <v>5.5</v>
-      </c>
-      <c r="R41">
-        <v>7</v>
-      </c>
-      <c r="S41">
-        <v>6.5</v>
-      </c>
-      <c r="T41">
-        <v>6.5</v>
-      </c>
-      <c r="U41">
-        <v>6</v>
-      </c>
-      <c r="V41">
-        <v>6.5</v>
-      </c>
-      <c r="W41">
-        <v>6.5</v>
-      </c>
-      <c r="X41">
-        <v>6.5</v>
-      </c>
-      <c r="AB41">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AC41" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="AD41">
+        <v>6.5</v>
+      </c>
+      <c r="AD42">
         <f t="shared" si="2"/>
         <v>0.6454972243679028</v>
       </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42">
-        <v>5.5</v>
-      </c>
-      <c r="R42">
-        <v>5</v>
-      </c>
-      <c r="AB42">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AC42" s="18">
-        <f t="shared" si="1"/>
-        <v>5.25</v>
-      </c>
-      <c r="AD42">
-        <f t="shared" si="2"/>
-        <v>0.35355339059327379</v>
-      </c>
       <c r="AE42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43">
-        <v>7</v>
-      </c>
-      <c r="V43">
-        <v>6.5</v>
-      </c>
-      <c r="W43">
-        <v>6.5</v>
-      </c>
-      <c r="X43">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>5.5</v>
+      </c>
+      <c r="R43">
+        <v>5</v>
+      </c>
+      <c r="Y43">
+        <v>5.5</v>
       </c>
       <c r="AB43">
         <f t="shared" ref="AB43:AB44" si="3">COUNT(B43:AA43)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC43" s="18">
         <f t="shared" ref="AC43:AC44" si="4">AVERAGE(B43:AA43)</f>
-        <v>6.5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="AD43">
         <f t="shared" ref="AD43:AD44" si="5">IF(AB43&gt;1,_xlfn.STDEV.S(B43:AA43),"")</f>
-        <v>0.40824829046386302</v>
+        <v>0.28867513459481287</v>
       </c>
       <c r="AE43">
         <v>0</v>
@@ -3385,25 +3430,45 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="V44">
+        <v>6.5</v>
+      </c>
+      <c r="W44">
+        <v>6.5</v>
+      </c>
+      <c r="X44">
+        <v>6</v>
+      </c>
+      <c r="Y44">
+        <v>6.5</v>
       </c>
       <c r="AB44">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC44" s="18">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AD44" t="str">
+        <v>6.5</v>
+      </c>
+      <c r="AD44">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AE44">
         <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45">
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="23:23" x14ac:dyDescent="0.3">
@@ -3423,8 +3488,296 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:X44" xr:uid="{2AD33299-2C67-4297-B1F3-23392AF60815}"/>
-  <conditionalFormatting sqref="Y2:Z38 B2:T38">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="Z2:Z38">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB39">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD39">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB40:AB42">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD40:AD42">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y46:Z47 B46:V47 Z2:Z45">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB42">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC39">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC40:AC42">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC42">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z42">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W74:W90">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W46:W47 W74:W95">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB43">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD43">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB43">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC43">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC43">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB44">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD44">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB44">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC44">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC44">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X46:X47">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:Y38 W2 W7 W11:W12 W15:W21 W31 B2:V38">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3436,330 +3789,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Q39">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB39">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD39">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB40:AB42">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AD42">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Z47 B44:V47 B2:T42 B43:U43">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB42">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC39">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC40:AC42">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC42">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U38">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U42">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Z42 F2:U42">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V38">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V43">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W74:W90 W32 W2 W7 W11:W12 W15:W21">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W44:W47 W32 W74:W95 W2 W7 W11:W12 W15:W21 W41">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB43">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD43">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB43">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC43">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC43">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB44">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD44">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB44">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC44">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC44">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X38">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3771,7 +3800,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X47">
+  <conditionalFormatting sqref="B44:Y45 X2:Y43 W2 W7 W11:W12 W15:W21 W31 W40 B2:V43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3789,10 +3818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66:J68"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7188,6 +7217,156 @@
         <v>6</v>
       </c>
     </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="14">
+        <v>45609</v>
+      </c>
+      <c r="B69" s="3">
+        <v>5</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" s="9">
+        <v>5</v>
+      </c>
+      <c r="J69" s="10">
+        <v>3</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N69" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O69" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P69" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="14">
+        <v>45609</v>
+      </c>
+      <c r="B70" s="3">
+        <v>5</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="11">
+        <v>3</v>
+      </c>
+      <c r="J70" s="2">
+        <v>7</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="14">
+        <v>45609</v>
+      </c>
+      <c r="B71" s="5">
+        <v>6</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I71" s="5">
+        <v>6</v>
+      </c>
+      <c r="J71" s="8">
+        <v>6</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P71" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7195,10 +7374,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40949BC3-8DAE-4185-A4C0-F8573FA5A3A2}">
-  <dimension ref="A1:AI44"/>
+  <dimension ref="A1:AI45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7211,6 +7390,7 @@
     <col min="17" max="21" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
@@ -7287,7 +7467,10 @@
         <v>45595</v>
       </c>
       <c r="Y1" s="1">
-        <v>45454</v>
+        <v>45602</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>45609</v>
       </c>
       <c r="AH1" t="s">
         <v>65</v>
@@ -7326,11 +7509,11 @@
         <v>1</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH42" si="0">SUM(B3:AG3)</f>
+        <f t="shared" ref="AH3:AH45" si="0">SUM(B3:AG3)</f>
         <v>2</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI42" si="1">SUM(V3:AG3)</f>
+        <f t="shared" ref="AI3:AI45" si="1">SUM(V3:AG3)</f>
         <v>0</v>
       </c>
     </row>
@@ -7417,13 +7600,16 @@
       <c r="Y8">
         <v>1</v>
       </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
       <c r="AH8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
@@ -7483,13 +7669,16 @@
       <c r="U11">
         <v>1</v>
       </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
       <c r="AH11">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
@@ -7574,13 +7763,16 @@
       <c r="Y15">
         <v>1</v>
       </c>
+      <c r="Z15">
+        <v>3</v>
+      </c>
       <c r="AH15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
@@ -7611,13 +7803,16 @@
       <c r="Y16">
         <v>1</v>
       </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
       <c r="AH16">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
@@ -7682,13 +7877,16 @@
       <c r="Y18">
         <v>2</v>
       </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
       <c r="AH18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
@@ -7716,20 +7914,23 @@
       <c r="X19">
         <v>1</v>
       </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
       <c r="AH19">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="X20">
+        <v>69</v>
+      </c>
+      <c r="Z20">
         <v>1</v>
       </c>
       <c r="AH20">
@@ -7743,78 +7944,81 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="V21">
-        <v>2</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="X21">
         <v>1</v>
       </c>
       <c r="AH21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI21">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>4</v>
       </c>
       <c r="AH22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y23">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="AH23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
       </c>
       <c r="AH24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="N25">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="AH25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI25">
         <f t="shared" si="1"/>
@@ -7823,195 +8027,204 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>3</v>
-      </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
-      <c r="W26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH26">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AI26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
-      <c r="L27">
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
         <v>1</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="Z27">
+        <v>2</v>
       </c>
       <c r="AH27">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AI27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+      <c r="V28">
         <v>1</v>
       </c>
       <c r="AH28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>3</v>
-      </c>
-      <c r="Y29">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>3</v>
       </c>
       <c r="AH29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI29">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="V30">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
       </c>
       <c r="AH30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AI30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
       </c>
       <c r="AH31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
-      <c r="Y32">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AH32">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI32">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>55</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+      <c r="Z33">
+        <v>3</v>
       </c>
       <c r="AH33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="V34">
-        <v>2</v>
-      </c>
-      <c r="X34">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AH34">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35">
-        <v>2</v>
-      </c>
-      <c r="M35">
+        <v>63</v>
+      </c>
+      <c r="V35">
+        <v>2</v>
+      </c>
+      <c r="X35">
         <v>1</v>
       </c>
       <c r="AH35">
@@ -8020,16 +8233,22 @@
       </c>
       <c r="AI35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
       </c>
       <c r="AH36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI36">
         <f t="shared" si="1"/>
@@ -8038,165 +8257,199 @@
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="AH37">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI37">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="V38">
         <v>1</v>
       </c>
       <c r="AH38">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="K39">
-        <v>2</v>
-      </c>
-      <c r="L39">
-        <v>4</v>
-      </c>
-      <c r="P39">
-        <v>3</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39">
-        <v>2</v>
-      </c>
-      <c r="X39">
-        <v>2</v>
-      </c>
-      <c r="Y39">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
       </c>
       <c r="AH39">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AI39">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>2</v>
+      </c>
+      <c r="X40">
+        <v>2</v>
+      </c>
+      <c r="Y40">
+        <v>3</v>
+      </c>
+      <c r="Z40">
         <v>2</v>
       </c>
       <c r="AH40">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AI40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41">
-        <v>2</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
       </c>
       <c r="AH41">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI41">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>3</v>
       </c>
       <c r="AH42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="W43">
-        <v>4</v>
-      </c>
-      <c r="X43">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="Z43">
+        <v>2</v>
       </c>
       <c r="AH43">
-        <f t="shared" ref="AH43" si="2">SUM(B43:AG43)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="AI43">
-        <f t="shared" ref="AI43" si="3">SUM(V43:AG43)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="W44">
+        <v>4</v>
+      </c>
+      <c r="X44">
+        <v>3</v>
+      </c>
+      <c r="Z44">
+        <v>2</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="J44">
-        <v>1</v>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y44" xr:uid="{9C542B55-4D31-4DF5-B92C-EBF25DAC7053}"/>
+  <autoFilter ref="A1:Z45" xr:uid="{F745EDF0-B9B0-4FBB-A85C-93DDEACA181C}">
+    <sortState ref="A2:Z45">
+      <sortCondition ref="A1:A45"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrohamacher\OneDrive\Documentos antigo\Projetos_jl\Streamlit\Dashboard Pelada\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="113_{0AE4E784-A55A-46D6-B24A-1982B84D5895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{AAC6CF00-9C9A-4BAE-BA30-523DC92E5C6A}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="14_{1D5C4FF0-6538-4C17-97EA-D2C3A459737E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4D7B7664-193D-415E-8676-A4EC479AA2E9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notas" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <sheet name="artilharia" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">artilharia!$A$1:$Z$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$X$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">artilharia!$A$1:$AI$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">notas!$A$1:$AF$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="74">
   <si>
     <t>Jogador</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Georges</t>
-  </si>
-  <si>
-    <t>Joebo</t>
   </si>
   <si>
     <t>Cout</t>
@@ -236,6 +233,21 @@
   </si>
   <si>
     <t>Leo Motta</t>
+  </si>
+  <si>
+    <t>Bernardo</t>
+  </si>
+  <si>
+    <t>João Pedro</t>
+  </si>
+  <si>
+    <t>Pupe</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Spohr</t>
   </si>
 </sst>
 </file>
@@ -1230,11 +1242,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE95"/>
+  <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y21" sqref="Y21"/>
+      <selection pane="topRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1249,12 +1261,13 @@
     <col min="16" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1330,20 +1343,23 @@
       <c r="Y1" s="1">
         <v>45609</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="Z1" s="1">
+        <v>45616</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1410,25 +1426,25 @@
       <c r="Y2">
         <v>5.5</v>
       </c>
-      <c r="AB2">
-        <f t="shared" ref="AB2:AB42" si="0">COUNT(B2:AA2)</f>
+      <c r="AC2">
+        <f>COUNT(B2:AB2)</f>
         <v>21</v>
       </c>
-      <c r="AC2" s="18">
-        <f t="shared" ref="AC2:AC42" si="1">AVERAGE(B2:AA2)</f>
+      <c r="AD2" s="18">
+        <f>AVERAGE(B2:AB2)</f>
         <v>5.7142857142857144</v>
       </c>
-      <c r="AD2">
-        <f t="shared" ref="AD2:AD42" si="2">IF(AB2&gt;1,_xlfn.STDEV.S(B2:AA2),"")</f>
+      <c r="AE2">
+        <f>IF(AC2&gt;1,_xlfn.STDEV.S(B2:AB2),"")</f>
         <v>0.46291004988627588</v>
       </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -1442,2054 +1458,2175 @@
       <c r="N3">
         <v>6.5</v>
       </c>
-      <c r="AB3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AC3" s="18">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AD3">
-        <f t="shared" si="2"/>
+      <c r="AC3">
+        <f>COUNT(B3:AB3)</f>
+        <v>4</v>
+      </c>
+      <c r="AD3" s="18">
+        <f>AVERAGE(B3:AB3)</f>
+        <v>7</v>
+      </c>
+      <c r="AE3">
+        <f>IF(AC3&gt;1,_xlfn.STDEV.S(B3:AB3),"")</f>
         <v>0.40824829046386302</v>
       </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
+        <v>69</v>
+      </c>
+      <c r="Z4">
+        <v>6.5</v>
+      </c>
+      <c r="AC4">
+        <f>COUNT(B4:AB4)</f>
+        <v>1</v>
+      </c>
+      <c r="AD4" s="18">
+        <f>AVERAGE(B4:AB4)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="str">
+        <f>IF(AC4&gt;1,_xlfn.STDEV.S(B4:AB4),"")</f>
+        <v/>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
         <v>4.5</v>
       </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
         <v>5.5</v>
       </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4">
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
         <v>5.5</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>3.5</v>
       </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="0"/>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <f>COUNT(B5:AB5)</f>
         <v>12</v>
       </c>
-      <c r="AC4" s="18">
-        <f t="shared" si="1"/>
+      <c r="AD5" s="18">
+        <f>AVERAGE(B5:AB5)</f>
         <v>4.833333333333333</v>
       </c>
-      <c r="AD4">
-        <f t="shared" si="2"/>
+      <c r="AE5">
+        <f>IF(AC5&gt;1,_xlfn.STDEV.S(B5:AB5),"")</f>
         <v>1.2673044646258482</v>
       </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5">
-        <v>6.5</v>
-      </c>
-      <c r="K5">
-        <v>6.5</v>
-      </c>
-      <c r="L5">
-        <v>7</v>
-      </c>
-      <c r="R5">
-        <v>6.5</v>
-      </c>
-      <c r="U5">
-        <v>6.5</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AC5" s="18">
-        <f t="shared" si="1"/>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6">
+        <v>6.5</v>
+      </c>
+      <c r="K6">
+        <v>6.5</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>6.5</v>
+      </c>
+      <c r="U6">
+        <v>6.5</v>
+      </c>
+      <c r="AC6">
+        <f>COUNT(B6:AB6)</f>
+        <v>5</v>
+      </c>
+      <c r="AD6" s="18">
+        <f>AVERAGE(B6:AB6)</f>
         <v>6.6</v>
       </c>
-      <c r="AD5">
-        <f t="shared" si="2"/>
+      <c r="AE6">
+        <f>IF(AC6&gt;1,_xlfn.STDEV.S(B6:AB6),"")</f>
         <v>0.22360679774997896</v>
       </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="AF6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>4.5</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="AC7">
+        <f>COUNT(B7:AB7)</f>
+        <v>3</v>
+      </c>
+      <c r="AD7" s="18">
+        <f>AVERAGE(B7:AB7)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AE7">
+        <f>IF(AC7&gt;1,_xlfn.STDEV.S(B7:AB7),"")</f>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>4.5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>3.5</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>5.5</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>4.5</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <v>3.5</v>
+      </c>
+      <c r="V8">
+        <v>5.5</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>6</v>
+      </c>
+      <c r="Z8">
+        <v>5.5</v>
+      </c>
+      <c r="AC8">
+        <f>COUNT(B8:AB8)</f>
+        <v>16</v>
+      </c>
+      <c r="AD8" s="18">
+        <f>AVERAGE(B8:AB8)</f>
+        <v>5.15625</v>
+      </c>
+      <c r="AE8">
+        <f>IF(AC8&gt;1,_xlfn.STDEV.S(B8:AB8),"")</f>
+        <v>0.83103850692973313</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>6.5</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>6.5</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5.5</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>5.5</v>
+      </c>
+      <c r="Q9">
+        <v>5.5</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>6.5</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>6.5</v>
+      </c>
+      <c r="Y9">
+        <v>6</v>
+      </c>
+      <c r="AC9">
+        <f>COUNT(B9:AB9)</f>
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>4.5</v>
-      </c>
-      <c r="Q6">
-        <v>6</v>
-      </c>
-      <c r="R6">
-        <v>6</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AC6" s="18">
-        <f t="shared" si="1"/>
+      <c r="AD9" s="18">
+        <f>AVERAGE(B9:AB9)</f>
+        <v>5.9722222222222223</v>
+      </c>
+      <c r="AE9">
+        <f>IF(AC9&gt;1,_xlfn.STDEV.S(B9:AB9),"")</f>
+        <v>0.52782077568226704</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>6.5</v>
+      </c>
+      <c r="W10">
+        <v>7</v>
+      </c>
+      <c r="AC10">
+        <f>COUNT(B10:AB10)</f>
+        <v>3</v>
+      </c>
+      <c r="AD10" s="18">
+        <f>AVERAGE(B10:AB10)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AE10">
+        <f>IF(AC10&gt;1,_xlfn.STDEV.S(B10:AB10),"")</f>
+        <v>0.5</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="Y11">
+        <v>6</v>
+      </c>
+      <c r="AC11">
+        <f>COUNT(B11:AB11)</f>
+        <v>3</v>
+      </c>
+      <c r="AD11" s="18">
+        <f>AVERAGE(B11:AB11)</f>
+        <v>6</v>
+      </c>
+      <c r="AE11">
+        <f>IF(AC11&gt;1,_xlfn.STDEV.S(B11:AB11),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>6.5</v>
+      </c>
+      <c r="C12">
         <v>5.5</v>
       </c>
-      <c r="AD6">
-        <f t="shared" si="2"/>
-        <v>0.8660254037844386</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>4.5</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>3.5</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12">
         <v>5.5</v>
       </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="S7">
-        <v>4.5</v>
-      </c>
-      <c r="T7">
-        <v>6</v>
-      </c>
-      <c r="U7">
-        <v>3.5</v>
-      </c>
-      <c r="V7">
+      <c r="R12">
+        <v>6.5</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>6.5</v>
+      </c>
+      <c r="V12">
         <v>5.5</v>
       </c>
-      <c r="W7">
-        <v>6</v>
-      </c>
-      <c r="X7">
-        <v>6</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="AC7" s="18">
-        <f t="shared" si="1"/>
-        <v>5.1333333333333337</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="2"/>
-        <v>0.8549575316659781</v>
-      </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="W12">
+        <v>6</v>
+      </c>
+      <c r="X12">
+        <v>5.5</v>
+      </c>
+      <c r="Y12">
+        <v>6.5</v>
+      </c>
+      <c r="AC12">
+        <f>COUNT(B12:AB12)</f>
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>6.5</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>6.5</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>5.5</v>
-      </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>6</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="P8">
-        <v>5.5</v>
-      </c>
-      <c r="Q8">
-        <v>5.5</v>
-      </c>
-      <c r="R8">
-        <v>6</v>
-      </c>
-      <c r="S8">
-        <v>5</v>
-      </c>
-      <c r="T8">
-        <v>6.5</v>
-      </c>
-      <c r="V8">
-        <v>6</v>
-      </c>
-      <c r="X8">
-        <v>6.5</v>
-      </c>
-      <c r="Y8">
-        <v>6</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AC8" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9722222222222223</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="2"/>
-        <v>0.52782077568226704</v>
-      </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9">
-        <v>6</v>
-      </c>
-      <c r="V9">
-        <v>6.5</v>
-      </c>
-      <c r="W9">
-        <v>7</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AC9" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="V10">
-        <v>6</v>
-      </c>
-      <c r="W10">
-        <v>6</v>
-      </c>
-      <c r="Y10">
-        <v>6</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AC10" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="2"/>
+      <c r="AD12" s="18">
+        <f>AVERAGE(B12:AB12)</f>
+        <v>5.9285714285714288</v>
+      </c>
+      <c r="AE12">
+        <f>IF(AC12&gt;1,_xlfn.STDEV.S(B12:AB12),"")</f>
+        <v>0.47463114654932342</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>6.5</v>
+      </c>
+      <c r="D13">
+        <v>6.5</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <v>6</v>
+      </c>
+      <c r="O13">
+        <v>6.5</v>
+      </c>
+      <c r="P13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>6.5</v>
+      </c>
+      <c r="U13">
+        <v>6.5</v>
+      </c>
+      <c r="W13">
+        <v>6</v>
+      </c>
+      <c r="X13">
+        <v>6</v>
+      </c>
+      <c r="AC13">
+        <f>COUNT(B13:AB13)</f>
+        <v>16</v>
+      </c>
+      <c r="AD13" s="18">
+        <f>AVERAGE(B13:AB13)</f>
+        <v>6.40625</v>
+      </c>
+      <c r="AE13">
+        <f>IF(AC13&gt;1,_xlfn.STDEV.S(B13:AB13),"")</f>
+        <v>0.41708312520807328</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="AC14">
+        <f>COUNT(B14:AB14)</f>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="18">
+        <f>AVERAGE(B14:AB14)</f>
+        <v>6</v>
+      </c>
+      <c r="AE14" t="str">
+        <f>IF(AC14&gt;1,_xlfn.STDEV.S(B14:AB14),"")</f>
+        <v/>
+      </c>
+      <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>6.5</v>
-      </c>
-      <c r="C11">
-        <v>5.5</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>6</v>
-      </c>
-      <c r="Q11">
-        <v>5.5</v>
-      </c>
-      <c r="R11">
-        <v>6.5</v>
-      </c>
-      <c r="S11">
-        <v>6</v>
-      </c>
-      <c r="T11">
-        <v>6</v>
-      </c>
-      <c r="U11">
-        <v>6.5</v>
-      </c>
-      <c r="V11">
-        <v>5.5</v>
-      </c>
-      <c r="W11">
-        <v>6</v>
-      </c>
-      <c r="X11">
-        <v>5.5</v>
-      </c>
-      <c r="Y11">
-        <v>6.5</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AC11" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9285714285714288</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="2"/>
-        <v>0.47463114654932342</v>
-      </c>
-      <c r="AE11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>6.5</v>
-      </c>
-      <c r="D12">
-        <v>6.5</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <v>7</v>
-      </c>
-      <c r="K12">
-        <v>7</v>
-      </c>
-      <c r="N12">
-        <v>6</v>
-      </c>
-      <c r="O12">
-        <v>6.5</v>
-      </c>
-      <c r="P12">
-        <v>6</v>
-      </c>
-      <c r="S12">
-        <v>6</v>
-      </c>
-      <c r="T12">
-        <v>6.5</v>
-      </c>
-      <c r="U12">
-        <v>6.5</v>
-      </c>
-      <c r="W12">
-        <v>6</v>
-      </c>
-      <c r="X12">
-        <v>6</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AC12" s="18">
-        <f t="shared" si="1"/>
-        <v>6.40625</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="2"/>
-        <v>0.41708312520807328</v>
-      </c>
-      <c r="AE12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13">
-        <v>6</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC13" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD13" t="str">
-        <f t="shared" si="2"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15">
+        <v>5</v>
+      </c>
+      <c r="AC15">
+        <f>COUNT(B15:AB15)</f>
+        <v>1</v>
+      </c>
+      <c r="AD15" s="18">
+        <f>AVERAGE(B15:AB15)</f>
+        <v>5</v>
+      </c>
+      <c r="AE15" t="str">
+        <f>IF(AC15&gt;1,_xlfn.STDEV.S(B15:AB15),"")</f>
         <v/>
       </c>
-      <c r="AE13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="AF15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>12</v>
-      </c>
-      <c r="B14">
-        <v>7.5</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="I14">
-        <v>7</v>
-      </c>
-      <c r="K14">
-        <v>6</v>
-      </c>
-      <c r="L14">
-        <v>7</v>
-      </c>
-      <c r="M14">
-        <v>6.5</v>
-      </c>
-      <c r="N14">
-        <v>6</v>
-      </c>
-      <c r="R14">
-        <v>8</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AC14" s="18">
-        <f t="shared" si="1"/>
-        <v>6.8</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" si="2"/>
-        <v>0.67494855771055284</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>5.5</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>6.5</v>
-      </c>
-      <c r="I15">
-        <v>5.5</v>
-      </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>5.5</v>
-      </c>
-      <c r="L15">
-        <v>6.5</v>
-      </c>
-      <c r="M15">
-        <v>6</v>
-      </c>
-      <c r="N15">
-        <v>6.5</v>
-      </c>
-      <c r="O15">
-        <v>5.5</v>
-      </c>
-      <c r="P15">
-        <v>5.5</v>
-      </c>
-      <c r="Q15">
-        <v>6.5</v>
-      </c>
-      <c r="R15">
-        <v>6</v>
-      </c>
-      <c r="S15">
-        <v>6</v>
-      </c>
-      <c r="T15">
-        <v>6.5</v>
-      </c>
-      <c r="U15">
-        <v>6</v>
-      </c>
-      <c r="V15">
-        <v>5.5</v>
-      </c>
-      <c r="W15">
-        <v>5.5</v>
-      </c>
-      <c r="X15">
-        <v>6</v>
-      </c>
-      <c r="Y15">
-        <v>5.5</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AC15" s="18">
-        <f t="shared" si="1"/>
-        <v>5.8863636363636367</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="2"/>
-        <v>0.43457198926393509</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1</v>
       </c>
       <c r="B16">
         <v>7.5</v>
       </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16">
-        <v>6</v>
-      </c>
-      <c r="F16">
-        <v>6.5</v>
-      </c>
-      <c r="G16">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>6.5</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+      <c r="R16">
+        <v>8</v>
+      </c>
+      <c r="AC16">
+        <f>COUNT(B16:AB16)</f>
+        <v>10</v>
+      </c>
+      <c r="AD16" s="18">
+        <f>AVERAGE(B16:AB16)</f>
+        <v>6.8</v>
+      </c>
+      <c r="AE16">
+        <f>IF(AC16&gt;1,_xlfn.STDEV.S(B16:AB16),"")</f>
+        <v>0.67494855771055284</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
         <v>5.5</v>
       </c>
-      <c r="I16">
-        <v>7</v>
-      </c>
-      <c r="J16">
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>6.5</v>
+      </c>
+      <c r="I17">
         <v>5.5</v>
       </c>
-      <c r="K16">
-        <v>6.5</v>
-      </c>
-      <c r="L16">
-        <v>7</v>
-      </c>
-      <c r="M16">
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
         <v>5.5</v>
       </c>
-      <c r="N16">
-        <v>6</v>
-      </c>
-      <c r="O16">
+      <c r="L17">
+        <v>6.5</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>6.5</v>
+      </c>
+      <c r="O17">
         <v>5.5</v>
       </c>
-      <c r="P16">
-        <v>6.5</v>
-      </c>
-      <c r="Q16">
-        <v>6.5</v>
-      </c>
-      <c r="R16">
-        <v>6.5</v>
-      </c>
-      <c r="S16">
-        <v>7</v>
-      </c>
-      <c r="T16">
-        <v>6</v>
-      </c>
-      <c r="U16">
+      <c r="P17">
         <v>5.5</v>
       </c>
-      <c r="V16">
-        <v>6</v>
-      </c>
-      <c r="W16">
-        <v>6</v>
-      </c>
-      <c r="X16">
-        <v>6</v>
-      </c>
-      <c r="Y16">
-        <v>6.5</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="0"/>
+      <c r="Q17">
+        <v>6.5</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>6.5</v>
+      </c>
+      <c r="U17">
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <v>5.5</v>
+      </c>
+      <c r="W17">
+        <v>5.5</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>5.5</v>
+      </c>
+      <c r="AC17">
+        <f>COUNT(B17:AB17)</f>
+        <v>22</v>
+      </c>
+      <c r="AD17" s="18">
+        <f>AVERAGE(B17:AB17)</f>
+        <v>5.8863636363636367</v>
+      </c>
+      <c r="AE17">
+        <f>IF(AC17&gt;1,_xlfn.STDEV.S(B17:AB17),"")</f>
+        <v>0.43457198926393509</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>7.5</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>6.5</v>
+      </c>
+      <c r="G18">
+        <v>6.5</v>
+      </c>
+      <c r="H18">
+        <v>5.5</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>5.5</v>
+      </c>
+      <c r="K18">
+        <v>6.5</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <v>5.5</v>
+      </c>
+      <c r="N18">
+        <v>6</v>
+      </c>
+      <c r="O18">
+        <v>5.5</v>
+      </c>
+      <c r="P18">
+        <v>6.5</v>
+      </c>
+      <c r="Q18">
+        <v>6.5</v>
+      </c>
+      <c r="R18">
+        <v>6.5</v>
+      </c>
+      <c r="S18">
+        <v>7</v>
+      </c>
+      <c r="T18">
+        <v>6</v>
+      </c>
+      <c r="U18">
+        <v>5.5</v>
+      </c>
+      <c r="V18">
+        <v>6</v>
+      </c>
+      <c r="W18">
+        <v>6</v>
+      </c>
+      <c r="X18">
+        <v>6</v>
+      </c>
+      <c r="Y18">
+        <v>6.5</v>
+      </c>
+      <c r="AC18">
+        <f>COUNT(B18:AB18)</f>
         <v>24</v>
       </c>
-      <c r="AC16" s="18">
-        <f t="shared" si="1"/>
+      <c r="AD18" s="18">
+        <f>AVERAGE(B18:AB18)</f>
         <v>6.1875</v>
       </c>
-      <c r="AD16">
-        <f t="shared" si="2"/>
+      <c r="AE18">
+        <f>IF(AC18&gt;1,_xlfn.STDEV.S(B18:AB18),"")</f>
         <v>0.73444004106056437</v>
       </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="AF18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z19">
+        <v>6.5</v>
+      </c>
+      <c r="AC19">
+        <f>COUNT(B19:AB19)</f>
+        <v>1</v>
+      </c>
+      <c r="AD19" s="18">
+        <f>AVERAGE(B19:AB19)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="str">
+        <f>IF(AC19&gt;1,_xlfn.STDEV.S(B19:AB19),"")</f>
+        <v/>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B17">
-        <v>6.5</v>
-      </c>
-      <c r="D17">
-        <v>6.5</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-      <c r="F17">
-        <v>7</v>
-      </c>
-      <c r="G17">
-        <v>6.5</v>
-      </c>
-      <c r="H17">
-        <v>6.5</v>
-      </c>
-      <c r="J17">
-        <v>6</v>
-      </c>
-      <c r="L17">
-        <v>6.5</v>
-      </c>
-      <c r="M17">
-        <v>6.5</v>
-      </c>
-      <c r="N17">
-        <v>7</v>
-      </c>
-      <c r="O17">
-        <v>6</v>
-      </c>
-      <c r="P17">
-        <v>6</v>
-      </c>
-      <c r="Q17">
-        <v>6.5</v>
-      </c>
-      <c r="S17">
-        <v>6</v>
-      </c>
-      <c r="T17">
-        <v>7</v>
-      </c>
-      <c r="V17">
-        <v>6</v>
-      </c>
-      <c r="W17">
-        <v>6.5</v>
-      </c>
-      <c r="X17">
-        <v>6.5</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="0"/>
+      <c r="B20">
+        <v>6.5</v>
+      </c>
+      <c r="D20">
+        <v>6.5</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>6.5</v>
+      </c>
+      <c r="H20">
+        <v>6.5</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <v>6.5</v>
+      </c>
+      <c r="M20">
+        <v>6.5</v>
+      </c>
+      <c r="N20">
+        <v>7</v>
+      </c>
+      <c r="O20">
+        <v>6</v>
+      </c>
+      <c r="P20">
+        <v>6</v>
+      </c>
+      <c r="Q20">
+        <v>6.5</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>7</v>
+      </c>
+      <c r="V20">
+        <v>6</v>
+      </c>
+      <c r="W20">
+        <v>6.5</v>
+      </c>
+      <c r="X20">
+        <v>6.5</v>
+      </c>
+      <c r="Z20">
+        <v>7</v>
+      </c>
+      <c r="AC20">
+        <f>COUNT(B20:AB20)</f>
+        <v>19</v>
+      </c>
+      <c r="AD20" s="18">
+        <f>AVERAGE(B20:AB20)</f>
+        <v>6.4473684210526319</v>
+      </c>
+      <c r="AE20">
+        <f>IF(AC20&gt;1,_xlfn.STDEV.S(B20:AB20),"")</f>
+        <v>0.36873420275410002</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>6.5</v>
+      </c>
+      <c r="E21">
+        <v>6.5</v>
+      </c>
+      <c r="F21">
+        <v>6.5</v>
+      </c>
+      <c r="G21">
+        <v>6.5</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>6.5</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>6.5</v>
+      </c>
+      <c r="L21">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>5.5</v>
+      </c>
+      <c r="N21">
+        <v>5.5</v>
+      </c>
+      <c r="P21">
+        <v>6.5</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <v>6.5</v>
+      </c>
+      <c r="T21">
+        <v>6</v>
+      </c>
+      <c r="U21">
+        <v>6.5</v>
+      </c>
+      <c r="V21">
+        <v>6</v>
+      </c>
+      <c r="W21">
+        <v>6</v>
+      </c>
+      <c r="X21">
+        <v>5.5</v>
+      </c>
+      <c r="Y21">
+        <v>6</v>
+      </c>
+      <c r="Z21">
+        <v>6</v>
+      </c>
+      <c r="AC21">
+        <f>COUNT(B21:AB21)</f>
+        <v>22</v>
+      </c>
+      <c r="AD21" s="18">
+        <f>AVERAGE(B21:AB21)</f>
+        <v>6.1818181818181817</v>
+      </c>
+      <c r="AE21">
+        <f>IF(AC21&gt;1,_xlfn.STDEV.S(B21:AB21),"")</f>
+        <v>0.50108108234321824</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y22">
+        <v>6.5</v>
+      </c>
+      <c r="AD22" s="18"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="R23">
+        <v>6.5</v>
+      </c>
+      <c r="S23">
+        <v>5.5</v>
+      </c>
+      <c r="T23">
+        <v>5.5</v>
+      </c>
+      <c r="W23">
+        <v>6</v>
+      </c>
+      <c r="AC23">
+        <f>COUNT(B23:AB23)</f>
+        <v>4</v>
+      </c>
+      <c r="AD23" s="18">
+        <f>AVERAGE(B23:AB23)</f>
+        <v>5.875</v>
+      </c>
+      <c r="AE23">
+        <f>IF(AC23&gt;1,_xlfn.STDEV.S(B23:AB23),"")</f>
+        <v>0.47871355387816905</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="AC17" s="18">
-        <f t="shared" si="1"/>
-        <v>6.416666666666667</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="2"/>
+      <c r="B24">
+        <v>8.5</v>
+      </c>
+      <c r="D24">
+        <v>6.5</v>
+      </c>
+      <c r="E24">
+        <v>6.5</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
+      </c>
+      <c r="O24">
+        <v>6</v>
+      </c>
+      <c r="P24">
+        <v>6</v>
+      </c>
+      <c r="Q24">
+        <v>6.5</v>
+      </c>
+      <c r="T24">
+        <v>6</v>
+      </c>
+      <c r="U24">
+        <v>6</v>
+      </c>
+      <c r="V24">
+        <v>6.5</v>
+      </c>
+      <c r="W24">
+        <v>6</v>
+      </c>
+      <c r="Y24">
+        <v>7.5</v>
+      </c>
+      <c r="Z24">
+        <v>6</v>
+      </c>
+      <c r="AC24">
+        <f>COUNT(B24:AB24)</f>
+        <v>15</v>
+      </c>
+      <c r="AD24" s="18">
+        <f>AVERAGE(B24:AB24)</f>
+        <v>6.4</v>
+      </c>
+      <c r="AE24">
+        <f>IF(AC24&gt;1,_xlfn.STDEV.S(B24:AB24),"")</f>
+        <v>0.71213963317797357</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>3.5</v>
+      </c>
+      <c r="AC25">
+        <f>COUNT(B25:AB25)</f>
+        <v>2</v>
+      </c>
+      <c r="AD25" s="18">
+        <f>AVERAGE(B25:AB25)</f>
+        <v>3.25</v>
+      </c>
+      <c r="AE25">
+        <f>IF(AC25&gt;1,_xlfn.STDEV.S(B25:AB25),"")</f>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AE17">
+      <c r="AF25">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>6.5</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-      <c r="G18">
-        <v>6.5</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18">
-        <v>6.5</v>
-      </c>
-      <c r="J18">
-        <v>6.5</v>
-      </c>
-      <c r="K18">
-        <v>6.5</v>
-      </c>
-      <c r="L18">
-        <v>6</v>
-      </c>
-      <c r="M18">
-        <v>6</v>
-      </c>
-      <c r="N18">
-        <v>6.5</v>
-      </c>
-      <c r="O18">
-        <v>6.5</v>
-      </c>
-      <c r="P18">
-        <v>6.5</v>
-      </c>
-      <c r="Q18">
-        <v>6.5</v>
-      </c>
-      <c r="R18">
-        <v>7</v>
-      </c>
-      <c r="S18">
-        <v>6.5</v>
-      </c>
-      <c r="T18">
-        <v>7</v>
-      </c>
-      <c r="U18">
-        <v>6.5</v>
-      </c>
-      <c r="V18">
-        <v>6.5</v>
-      </c>
-      <c r="W18">
-        <v>6.5</v>
-      </c>
-      <c r="X18">
-        <v>6</v>
-      </c>
-      <c r="Y18">
-        <v>6</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AC18" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="2"/>
-        <v>0.45226701686664544</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>6.5</v>
-      </c>
-      <c r="E19">
-        <v>6.5</v>
-      </c>
-      <c r="F19">
-        <v>6.5</v>
-      </c>
-      <c r="G19">
-        <v>6.5</v>
-      </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="I19">
-        <v>6.5</v>
-      </c>
-      <c r="J19">
-        <v>7</v>
-      </c>
-      <c r="K19">
-        <v>6.5</v>
-      </c>
-      <c r="L19">
-        <v>6</v>
-      </c>
-      <c r="M19">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="X26">
+        <v>6</v>
+      </c>
+      <c r="Z26">
         <v>5.5</v>
       </c>
-      <c r="N19">
-        <v>5.5</v>
-      </c>
-      <c r="P19">
-        <v>6.5</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-      <c r="R19">
-        <v>6</v>
-      </c>
-      <c r="S19">
-        <v>6.5</v>
-      </c>
-      <c r="T19">
-        <v>6</v>
-      </c>
-      <c r="U19">
-        <v>6.5</v>
-      </c>
-      <c r="V19">
-        <v>6</v>
-      </c>
-      <c r="W19">
-        <v>6</v>
-      </c>
-      <c r="X19">
-        <v>5.5</v>
-      </c>
-      <c r="Y19">
-        <v>6</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="AC19" s="18">
-        <f t="shared" si="1"/>
-        <v>6.1904761904761907</v>
-      </c>
-      <c r="AD19">
-        <f t="shared" si="2"/>
-        <v>0.51176631571915887</v>
-      </c>
-      <c r="AE19">
+      <c r="AC26">
+        <f>COUNT(B26:AB26)</f>
+        <v>2</v>
+      </c>
+      <c r="AD26" s="18">
+        <f>AVERAGE(B26:AB26)</f>
+        <v>5.75</v>
+      </c>
+      <c r="AE26">
+        <f>IF(AC26&gt;1,_xlfn.STDEV.S(B26:AB26),"")</f>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="AF26">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y20">
-        <v>6.5</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC20" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="AD20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="R21">
-        <v>6.5</v>
-      </c>
-      <c r="S21">
-        <v>5.5</v>
-      </c>
-      <c r="T21">
-        <v>5.5</v>
-      </c>
-      <c r="W21">
-        <v>6</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AC21" s="18">
-        <f t="shared" si="1"/>
-        <v>5.875</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" si="2"/>
-        <v>0.47871355387816905</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>8.5</v>
-      </c>
-      <c r="D22">
-        <v>6.5</v>
-      </c>
-      <c r="E22">
-        <v>6.5</v>
-      </c>
-      <c r="F22">
-        <v>6</v>
-      </c>
-      <c r="M22">
-        <v>6</v>
-      </c>
-      <c r="N22">
-        <v>6</v>
-      </c>
-      <c r="O22">
-        <v>6</v>
-      </c>
-      <c r="P22">
-        <v>6</v>
-      </c>
-      <c r="Q22">
-        <v>6.5</v>
-      </c>
-      <c r="T22">
-        <v>6</v>
-      </c>
-      <c r="U22">
-        <v>6</v>
-      </c>
-      <c r="V22">
-        <v>6.5</v>
-      </c>
-      <c r="W22">
-        <v>6</v>
-      </c>
-      <c r="Y22">
-        <v>7.5</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AC22" s="18">
-        <f t="shared" si="1"/>
-        <v>6.4285714285714288</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" si="2"/>
-        <v>0.73004591154737264</v>
-      </c>
-      <c r="AE22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="R23">
-        <v>3.5</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AC23" s="18">
-        <f t="shared" si="1"/>
-        <v>3.25</v>
-      </c>
-      <c r="AD23">
-        <f t="shared" si="2"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="X24">
-        <v>6</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC24" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="L25">
-        <v>5.5</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC25" s="18">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="AD25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26">
-        <v>3.5</v>
-      </c>
-      <c r="M26">
-        <v>5</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AC26" s="18">
-        <f t="shared" si="1"/>
-        <v>4.25</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" si="2"/>
-        <v>1.0606601717798212</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>4.5</v>
-      </c>
-      <c r="C27">
-        <v>5.5</v>
-      </c>
-      <c r="D27">
-        <v>6.5</v>
-      </c>
-      <c r="E27">
-        <v>5.5</v>
-      </c>
-      <c r="F27">
-        <v>5.5</v>
-      </c>
-      <c r="G27">
-        <v>5.5</v>
-      </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
-      <c r="I27">
-        <v>5.5</v>
-      </c>
-      <c r="J27">
-        <v>6</v>
-      </c>
-      <c r="K27">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="L27">
         <v>5.5</v>
       </c>
-      <c r="M27">
-        <v>6.5</v>
-      </c>
-      <c r="N27">
-        <v>6.5</v>
-      </c>
-      <c r="O27">
-        <v>6.5</v>
-      </c>
-      <c r="P27">
-        <v>5</v>
-      </c>
-      <c r="Q27">
+      <c r="AC27">
+        <f>COUNT(B27:AB27)</f>
+        <v>1</v>
+      </c>
+      <c r="AD27" s="18">
+        <f>AVERAGE(B27:AB27)</f>
         <v>5.5</v>
       </c>
-      <c r="R27">
+      <c r="AE27" t="str">
+        <f>IF(AC27&gt;1,_xlfn.STDEV.S(B27:AB27),"")</f>
+        <v/>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28">
+        <v>3.5</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="AC28">
+        <f>COUNT(B28:AB28)</f>
+        <v>2</v>
+      </c>
+      <c r="AD28" s="18">
+        <f>AVERAGE(B28:AB28)</f>
+        <v>4.25</v>
+      </c>
+      <c r="AE28">
+        <f>IF(AC28&gt;1,_xlfn.STDEV.S(B28:AB28),"")</f>
+        <v>1.0606601717798212</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>4.5</v>
+      </c>
+      <c r="C29">
         <v>5.5</v>
       </c>
-      <c r="S27">
-        <v>6.5</v>
-      </c>
-      <c r="T27">
+      <c r="D29">
+        <v>6.5</v>
+      </c>
+      <c r="E29">
         <v>5.5</v>
       </c>
-      <c r="U27">
-        <v>6.5</v>
-      </c>
-      <c r="V27">
-        <v>6.5</v>
-      </c>
-      <c r="X27">
-        <v>6</v>
-      </c>
-      <c r="Y27">
-        <v>6.5</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AC27" s="18">
-        <f t="shared" si="1"/>
-        <v>5.8695652173913047</v>
-      </c>
-      <c r="AD27">
-        <f t="shared" si="2"/>
-        <v>0.56843867711853369</v>
-      </c>
-      <c r="AE27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28">
-        <v>6</v>
-      </c>
-      <c r="I28">
+      <c r="F29">
         <v>5.5</v>
-      </c>
-      <c r="J28">
-        <v>5.5</v>
-      </c>
-      <c r="K28">
-        <v>4.5</v>
-      </c>
-      <c r="M28">
-        <v>4.5</v>
-      </c>
-      <c r="N28">
-        <v>5</v>
-      </c>
-      <c r="O28">
-        <v>7</v>
-      </c>
-      <c r="P28">
-        <v>6.5</v>
-      </c>
-      <c r="Q28">
-        <v>5</v>
-      </c>
-      <c r="U28">
-        <v>5.5</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AC28" s="18">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="AD28">
-        <f t="shared" si="2"/>
-        <v>0.81649658092772603</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="E29">
-        <v>4.5</v>
-      </c>
-      <c r="F29">
-        <v>6</v>
       </c>
       <c r="G29">
         <v>5.5</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29">
         <v>5.5</v>
       </c>
       <c r="J29">
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <v>6</v>
+      </c>
+      <c r="L29">
         <v>5.5</v>
       </c>
+      <c r="M29">
+        <v>6.5</v>
+      </c>
+      <c r="N29">
+        <v>6.5</v>
+      </c>
       <c r="O29">
         <v>6.5</v>
       </c>
       <c r="P29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="R29">
-        <v>6.5</v>
+        <v>5.5</v>
+      </c>
+      <c r="S29">
+        <v>6.5</v>
+      </c>
+      <c r="T29">
+        <v>5.5</v>
+      </c>
+      <c r="U29">
+        <v>6.5</v>
+      </c>
+      <c r="V29">
+        <v>6.5</v>
+      </c>
+      <c r="X29">
+        <v>6</v>
       </c>
       <c r="Y29">
-        <v>6</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="AC29">
+        <f>COUNT(B29:AB29)</f>
+        <v>23</v>
+      </c>
+      <c r="AD29" s="18">
+        <f>AVERAGE(B29:AB29)</f>
+        <v>5.8695652173913047</v>
+      </c>
+      <c r="AE29">
+        <f>IF(AC29&gt;1,_xlfn.STDEV.S(B29:AB29),"")</f>
+        <v>0.56843867711853369</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>5.5</v>
+      </c>
+      <c r="J30">
+        <v>5.5</v>
+      </c>
+      <c r="K30">
+        <v>4.5</v>
+      </c>
+      <c r="M30">
+        <v>4.5</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <v>7</v>
+      </c>
+      <c r="P30">
+        <v>6.5</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>5.5</v>
+      </c>
+      <c r="AC30">
+        <f>COUNT(B30:AB30)</f>
+        <v>10</v>
+      </c>
+      <c r="AD30" s="18">
+        <f>AVERAGE(B30:AB30)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AE30">
+        <f>IF(AC30&gt;1,_xlfn.STDEV.S(B30:AB30),"")</f>
+        <v>0.81649658092772603</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>4.5</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>5.5</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>5.5</v>
+      </c>
+      <c r="J31">
+        <v>5.5</v>
+      </c>
+      <c r="O31">
+        <v>6.5</v>
+      </c>
+      <c r="P31">
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31">
+        <v>6.5</v>
+      </c>
+      <c r="Y31">
+        <v>6</v>
+      </c>
+      <c r="AC31">
+        <f>COUNT(B31:AB31)</f>
         <v>14</v>
       </c>
-      <c r="AC29" s="18">
-        <f t="shared" si="1"/>
+      <c r="AD31" s="18">
+        <f>AVERAGE(B31:AB31)</f>
         <v>5.9285714285714288</v>
       </c>
-      <c r="AD29">
-        <f t="shared" si="2"/>
+      <c r="AE31">
+        <f>IF(AC31&gt;1,_xlfn.STDEV.S(B31:AB31),"")</f>
         <v>0.70321084640774401</v>
       </c>
-      <c r="AE29">
+      <c r="AF31">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q30">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q32">
         <v>5.5</v>
       </c>
-      <c r="S30">
-        <v>6.5</v>
-      </c>
-      <c r="V30">
-        <v>6.5</v>
-      </c>
-      <c r="X30">
-        <v>6</v>
-      </c>
-      <c r="Y30">
-        <v>6.5</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AC30" s="18">
-        <f t="shared" si="1"/>
-        <v>6.2</v>
-      </c>
-      <c r="AD30">
-        <f t="shared" si="2"/>
-        <v>0.44721359549995793</v>
-      </c>
-      <c r="AE30">
+      <c r="S32">
+        <v>6.5</v>
+      </c>
+      <c r="V32">
+        <v>6.5</v>
+      </c>
+      <c r="X32">
+        <v>6</v>
+      </c>
+      <c r="Y32">
+        <v>6.5</v>
+      </c>
+      <c r="Z32">
+        <v>6.5</v>
+      </c>
+      <c r="AC32">
+        <f>COUNT(B32:AB32)</f>
+        <v>6</v>
+      </c>
+      <c r="AD32" s="18">
+        <f>AVERAGE(B32:AB32)</f>
+        <v>6.25</v>
+      </c>
+      <c r="AE32">
+        <f>IF(AC32&gt;1,_xlfn.STDEV.S(B32:AB32),"")</f>
+        <v>0.41833001326703778</v>
+      </c>
+      <c r="AF32">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="R31">
-        <v>5</v>
-      </c>
-      <c r="T31">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="T33">
         <v>4.5</v>
       </c>
-      <c r="U31">
+      <c r="U33">
         <v>4.5</v>
       </c>
-      <c r="AB31">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AC31" s="18">
-        <f t="shared" si="1"/>
+      <c r="AC33">
+        <f>COUNT(B33:AB33)</f>
+        <v>3</v>
+      </c>
+      <c r="AD33" s="18">
+        <f>AVERAGE(B33:AB33)</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="AD31">
-        <f t="shared" si="2"/>
+      <c r="AE33">
+        <f>IF(AC33&gt;1,_xlfn.STDEV.S(B33:AB33),"")</f>
         <v>0.28867513459481287</v>
       </c>
-      <c r="AE31">
+      <c r="AF33">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>11</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>5.5</v>
       </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="E32">
-        <v>7</v>
-      </c>
-      <c r="F32">
-        <v>7</v>
-      </c>
-      <c r="G32">
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34">
         <v>5.5</v>
       </c>
-      <c r="I32">
-        <v>5</v>
-      </c>
-      <c r="J32">
-        <v>6.5</v>
-      </c>
-      <c r="K32">
-        <v>6</v>
-      </c>
-      <c r="N32">
-        <v>6</v>
-      </c>
-      <c r="O32">
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>6.5</v>
+      </c>
+      <c r="K34">
+        <v>6</v>
+      </c>
+      <c r="N34">
+        <v>6</v>
+      </c>
+      <c r="O34">
         <v>5.5</v>
       </c>
-      <c r="P32">
-        <v>6</v>
-      </c>
-      <c r="S32">
-        <v>5</v>
-      </c>
-      <c r="T32">
-        <v>6.5</v>
-      </c>
-      <c r="X32">
-        <v>6</v>
-      </c>
-      <c r="Y32">
-        <v>6</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="0"/>
+      <c r="P34">
+        <v>6</v>
+      </c>
+      <c r="S34">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>6.5</v>
+      </c>
+      <c r="X34">
+        <v>6</v>
+      </c>
+      <c r="Y34">
+        <v>6</v>
+      </c>
+      <c r="AC34">
+        <f>COUNT(B34:AB34)</f>
         <v>15</v>
       </c>
-      <c r="AC32" s="18">
-        <f t="shared" si="1"/>
+      <c r="AD34" s="18">
+        <f>AVERAGE(B34:AB34)</f>
         <v>6.0333333333333332</v>
       </c>
-      <c r="AD32">
-        <f t="shared" si="2"/>
+      <c r="AE34">
+        <f>IF(AC34&gt;1,_xlfn.STDEV.S(B34:AB34),"")</f>
         <v>0.66726163926760862</v>
       </c>
-      <c r="AE32">
+      <c r="AF34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="O35">
+        <v>6</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="T35">
+        <v>6.5</v>
+      </c>
+      <c r="U35">
+        <v>6.5</v>
+      </c>
+      <c r="V35">
+        <v>6</v>
+      </c>
+      <c r="W35">
+        <v>6</v>
+      </c>
+      <c r="X35">
+        <v>6</v>
+      </c>
+      <c r="Y35">
+        <v>7</v>
+      </c>
+      <c r="Z35">
+        <v>6</v>
+      </c>
+      <c r="AC35">
+        <f>COUNT(B35:AB35)</f>
+        <v>9</v>
+      </c>
+      <c r="AD35" s="18">
+        <f>AVERAGE(B35:AB35)</f>
+        <v>6.1111111111111107</v>
+      </c>
+      <c r="AE35">
+        <f>IF(AC35&gt;1,_xlfn.STDEV.S(B35:AB35),"")</f>
+        <v>0.54645321035850003</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>2.5</v>
+      </c>
+      <c r="AC36">
+        <f>COUNT(B36:AB36)</f>
+        <v>2</v>
+      </c>
+      <c r="AD36" s="18">
+        <f>AVERAGE(B36:AB36)</f>
+        <v>3.25</v>
+      </c>
+      <c r="AE36">
+        <f>IF(AC36&gt;1,_xlfn.STDEV.S(B36:AB36),"")</f>
+        <v>1.0606601717798212</v>
+      </c>
+      <c r="AF36">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="O33">
-        <v>6</v>
-      </c>
-      <c r="Q33">
-        <v>5</v>
-      </c>
-      <c r="T33">
-        <v>6.5</v>
-      </c>
-      <c r="U33">
-        <v>6.5</v>
-      </c>
-      <c r="V33">
-        <v>6</v>
-      </c>
-      <c r="W33">
-        <v>6</v>
-      </c>
-      <c r="X33">
-        <v>6</v>
-      </c>
-      <c r="Y33">
-        <v>7</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="0"/>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z37">
+        <v>6.5</v>
+      </c>
+      <c r="AC37">
+        <f>COUNT(B37:AB37)</f>
+        <v>1</v>
+      </c>
+      <c r="AD37" s="18">
+        <f>AVERAGE(B37:AB37)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AE37" t="str">
+        <f>IF(AC37&gt;1,_xlfn.STDEV.S(B37:AB37),"")</f>
+        <v/>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="S38">
+        <v>5</v>
+      </c>
+      <c r="U38">
+        <v>5</v>
+      </c>
+      <c r="W38">
+        <v>5.5</v>
+      </c>
+      <c r="AC38">
+        <f>COUNT(B38:AB38)</f>
+        <v>3</v>
+      </c>
+      <c r="AD38" s="18">
+        <f>AVERAGE(B38:AB38)</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="AE38">
+        <f>IF(AC38&gt;1,_xlfn.STDEV.S(B38:AB38),"")</f>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>6.5</v>
+      </c>
+      <c r="E39">
+        <v>6.5</v>
+      </c>
+      <c r="F39">
+        <v>5.5</v>
+      </c>
+      <c r="K39">
+        <v>6.5</v>
+      </c>
+      <c r="L39">
+        <v>6.5</v>
+      </c>
+      <c r="N39">
+        <v>7</v>
+      </c>
+      <c r="S39">
+        <v>6.5</v>
+      </c>
+      <c r="AC39">
+        <f>COUNT(B39:AB39)</f>
+        <v>7</v>
+      </c>
+      <c r="AD39" s="18">
+        <f>AVERAGE(B39:AB39)</f>
+        <v>6.4285714285714288</v>
+      </c>
+      <c r="AE39">
+        <f>IF(AC39&gt;1,_xlfn.STDEV.S(B39:AB39),"")</f>
+        <v>0.44986770542121862</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40">
+        <v>5.5</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="Q40">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>6</v>
+      </c>
+      <c r="T40">
+        <v>6</v>
+      </c>
+      <c r="AC40">
+        <f>COUNT(B40:AB40)</f>
+        <v>6</v>
+      </c>
+      <c r="AD40" s="18">
+        <f>AVERAGE(B40:AB40)</f>
+        <v>5.75</v>
+      </c>
+      <c r="AE40">
+        <f>IF(AC40&gt;1,_xlfn.STDEV.S(B40:AB40),"")</f>
+        <v>0.41833001326703778</v>
+      </c>
+      <c r="AF40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>8</v>
       </c>
-      <c r="AC33" s="18">
-        <f t="shared" si="1"/>
-        <v>6.125</v>
-      </c>
-      <c r="AD33">
-        <f t="shared" si="2"/>
-        <v>0.58248237251071755</v>
-      </c>
-      <c r="AE33">
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>4.5</v>
+      </c>
+      <c r="G41">
+        <v>5.5</v>
+      </c>
+      <c r="H41">
+        <v>4.5</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>6.5</v>
+      </c>
+      <c r="K41">
+        <v>6.5</v>
+      </c>
+      <c r="O41">
+        <v>5.5</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+      <c r="AC41">
+        <f>COUNT(B41:AB41)</f>
+        <v>9</v>
+      </c>
+      <c r="AD41" s="18">
+        <f>AVERAGE(B41:AB41)</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="AE41">
+        <f>IF(AC41&gt;1,_xlfn.STDEV.S(B41:AB41),"")</f>
+        <v>0.7682953714410744</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>6.5</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>6.5</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>6.5</v>
+      </c>
+      <c r="J42">
+        <v>6.5</v>
+      </c>
+      <c r="K42">
+        <v>6.5</v>
+      </c>
+      <c r="L42">
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="N42">
+        <v>6.5</v>
+      </c>
+      <c r="O42">
+        <v>6.5</v>
+      </c>
+      <c r="P42">
+        <v>6.5</v>
+      </c>
+      <c r="Q42">
+        <v>6.5</v>
+      </c>
+      <c r="R42">
+        <v>7</v>
+      </c>
+      <c r="S42">
+        <v>6.5</v>
+      </c>
+      <c r="T42">
+        <v>7</v>
+      </c>
+      <c r="U42">
+        <v>6.5</v>
+      </c>
+      <c r="V42">
+        <v>6.5</v>
+      </c>
+      <c r="W42">
+        <v>6.5</v>
+      </c>
+      <c r="X42">
+        <v>6</v>
+      </c>
+      <c r="Y42">
+        <v>6</v>
+      </c>
+      <c r="Z42">
+        <v>6</v>
+      </c>
+      <c r="AC42">
+        <f>COUNT(B42:AB42)</f>
+        <v>24</v>
+      </c>
+      <c r="AD42" s="18">
+        <f>AVERAGE(B42:AB42)</f>
+        <v>6.479166666666667</v>
+      </c>
+      <c r="AE42">
+        <f>IF(AC42&gt;1,_xlfn.STDEV.S(B42:AB42),"")</f>
+        <v>0.45394805934127536</v>
+      </c>
+      <c r="AF42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43">
+        <v>5.5</v>
+      </c>
+      <c r="Z43">
+        <v>5.5</v>
+      </c>
+      <c r="AC43">
+        <f>COUNT(B43:AB43)</f>
+        <v>2</v>
+      </c>
+      <c r="AD43" s="18">
+        <f>AVERAGE(B43:AB43)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AE43">
+        <f>IF(AC43&gt;1,_xlfn.STDEV.S(B43:AB43),"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="AF43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>8.5</v>
+      </c>
+      <c r="C44">
+        <v>7.5</v>
+      </c>
+      <c r="D44">
+        <v>7.5</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>6.5</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <v>6.5</v>
+      </c>
+      <c r="J44">
+        <v>7.5</v>
+      </c>
+      <c r="K44">
+        <v>7</v>
+      </c>
+      <c r="L44">
+        <v>7.5</v>
+      </c>
+      <c r="M44">
+        <v>6.5</v>
+      </c>
+      <c r="N44">
+        <v>7</v>
+      </c>
+      <c r="O44">
+        <v>7</v>
+      </c>
+      <c r="P44">
+        <v>6.5</v>
+      </c>
+      <c r="Q44">
+        <v>6.5</v>
+      </c>
+      <c r="U44">
+        <v>6.5</v>
+      </c>
+      <c r="V44">
+        <v>6</v>
+      </c>
+      <c r="W44">
+        <v>7</v>
+      </c>
+      <c r="X44">
+        <v>6.5</v>
+      </c>
+      <c r="Y44">
+        <v>6.5</v>
+      </c>
+      <c r="Z44">
+        <v>6.5</v>
+      </c>
+      <c r="AC44">
+        <f>COUNT(B44:AB44)</f>
         <v>21</v>
       </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="G34">
-        <v>2.5</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AC34" s="18">
-        <f t="shared" si="1"/>
-        <v>3.25</v>
-      </c>
-      <c r="AD34">
-        <f t="shared" si="2"/>
-        <v>1.0606601717798212</v>
-      </c>
-      <c r="AE34">
+      <c r="AD44" s="18">
+        <f>AVERAGE(B44:AB44)</f>
+        <v>6.9047619047619051</v>
+      </c>
+      <c r="AE44">
+        <f>IF(AC44&gt;1,_xlfn.STDEV.S(B44:AB44),"")</f>
+        <v>0.56167267200406878</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="J45">
+        <v>7.5</v>
+      </c>
+      <c r="K45">
+        <v>7.5</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+      <c r="M45">
+        <v>7</v>
+      </c>
+      <c r="N45">
+        <v>7</v>
+      </c>
+      <c r="O45">
+        <v>8</v>
+      </c>
+      <c r="P45">
+        <v>7.5</v>
+      </c>
+      <c r="AC45">
+        <f>COUNT(B45:AB45)</f>
+        <v>9</v>
+      </c>
+      <c r="AD45" s="18">
+        <f>AVERAGE(B45:AB45)</f>
+        <v>7.2777777777777777</v>
+      </c>
+      <c r="AE45">
+        <f>IF(AC45&gt;1,_xlfn.STDEV.S(B45:AB45),"")</f>
+        <v>0.36324157862838946</v>
+      </c>
+      <c r="AF45">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="S35">
-        <v>5</v>
-      </c>
-      <c r="U35">
-        <v>5</v>
-      </c>
-      <c r="W35">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>7.5</v>
+      </c>
+      <c r="E46">
+        <v>6.5</v>
+      </c>
+      <c r="F46">
+        <v>6.5</v>
+      </c>
+      <c r="H46">
+        <v>8.5</v>
+      </c>
+      <c r="I46">
+        <v>6.5</v>
+      </c>
+      <c r="K46">
+        <v>6</v>
+      </c>
+      <c r="L46">
+        <v>6.5</v>
+      </c>
+      <c r="M46">
+        <v>6</v>
+      </c>
+      <c r="N46">
+        <v>6</v>
+      </c>
+      <c r="O46">
+        <v>6</v>
+      </c>
+      <c r="P46">
+        <v>6.5</v>
+      </c>
+      <c r="Q46">
         <v>5.5</v>
       </c>
-      <c r="AB35">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AC35" s="18">
-        <f t="shared" si="1"/>
-        <v>5.166666666666667</v>
-      </c>
-      <c r="AD35">
-        <f t="shared" si="2"/>
-        <v>0.28867513459481287</v>
-      </c>
-      <c r="AE35">
+      <c r="R46">
+        <v>7</v>
+      </c>
+      <c r="S46">
+        <v>6.5</v>
+      </c>
+      <c r="T46">
+        <v>6.5</v>
+      </c>
+      <c r="U46">
+        <v>6</v>
+      </c>
+      <c r="V46">
+        <v>6.5</v>
+      </c>
+      <c r="W46">
+        <v>6.5</v>
+      </c>
+      <c r="X46">
+        <v>6.5</v>
+      </c>
+      <c r="Z46">
+        <v>6</v>
+      </c>
+      <c r="AC46">
+        <f>COUNT(B46:AB46)</f>
+        <v>20</v>
+      </c>
+      <c r="AD46" s="18">
+        <f>AVERAGE(B46:AB46)</f>
+        <v>6.4749999999999996</v>
+      </c>
+      <c r="AE46">
+        <f>IF(AC46&gt;1,_xlfn.STDEV.S(B46:AB46),"")</f>
+        <v>0.63815111228083232</v>
+      </c>
+      <c r="AF46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>5.5</v>
+      </c>
+      <c r="R47">
+        <v>5</v>
+      </c>
+      <c r="Y47">
+        <v>5.5</v>
+      </c>
+      <c r="Z47">
+        <v>5.5</v>
+      </c>
+      <c r="AC47">
+        <f>COUNT(B47:AB47)</f>
+        <v>4</v>
+      </c>
+      <c r="AD47" s="18">
+        <f>AVERAGE(B47:AB47)</f>
+        <v>5.375</v>
+      </c>
+      <c r="AE47">
+        <f>IF(AC47&gt;1,_xlfn.STDEV.S(B47:AB47),"")</f>
+        <v>0.25</v>
+      </c>
+      <c r="AF47">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36">
-        <v>6.5</v>
-      </c>
-      <c r="E36">
-        <v>6.5</v>
-      </c>
-      <c r="F36">
-        <v>5.5</v>
-      </c>
-      <c r="K36">
-        <v>6.5</v>
-      </c>
-      <c r="L36">
-        <v>6.5</v>
-      </c>
-      <c r="N36">
-        <v>7</v>
-      </c>
-      <c r="S36">
-        <v>6.5</v>
-      </c>
-      <c r="AB36">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AC36" s="18">
-        <f t="shared" si="1"/>
-        <v>6.4285714285714288</v>
-      </c>
-      <c r="AD36">
-        <f t="shared" si="2"/>
-        <v>0.44986770542121862</v>
-      </c>
-      <c r="AE36">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="V48">
+        <v>6.5</v>
+      </c>
+      <c r="W48">
+        <v>6.5</v>
+      </c>
+      <c r="X48">
+        <v>6</v>
+      </c>
+      <c r="Y48">
+        <v>6.5</v>
+      </c>
+      <c r="Z48">
+        <v>7</v>
+      </c>
+      <c r="AC48">
+        <f>COUNT(B48:AB48)</f>
+        <v>6</v>
+      </c>
+      <c r="AD48" s="18">
+        <f>AVERAGE(B48:AB48)</f>
+        <v>6.583333333333333</v>
+      </c>
+      <c r="AE48">
+        <f>IF(AC48&gt;1,_xlfn.STDEV.S(B48:AB48),"")</f>
+        <v>0.3763863263545405</v>
+      </c>
+      <c r="AF48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="AC49">
+        <f>COUNT(B49:AB49)</f>
+        <v>1</v>
+      </c>
+      <c r="AD49" s="18">
+        <f>AVERAGE(B49:AB49)</f>
+        <v>5</v>
+      </c>
+      <c r="AE49" t="str">
+        <f>IF(AC49&gt;1,_xlfn.STDEV.S(B49:AB49),"")</f>
+        <v/>
+      </c>
+      <c r="AF49">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37">
-        <v>5.5</v>
-      </c>
-      <c r="G37">
-        <v>5</v>
-      </c>
-      <c r="H37">
-        <v>6</v>
-      </c>
-      <c r="Q37">
-        <v>6</v>
-      </c>
-      <c r="S37">
-        <v>6</v>
-      </c>
-      <c r="T37">
-        <v>6</v>
-      </c>
-      <c r="AB37">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AC37" s="18">
-        <f t="shared" si="1"/>
-        <v>5.75</v>
-      </c>
-      <c r="AD37">
-        <f t="shared" si="2"/>
-        <v>0.41833001326703778</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="D38">
-        <v>4.5</v>
-      </c>
-      <c r="G38">
-        <v>5.5</v>
-      </c>
-      <c r="H38">
-        <v>4.5</v>
-      </c>
-      <c r="I38">
-        <v>5</v>
-      </c>
-      <c r="J38">
-        <v>6.5</v>
-      </c>
-      <c r="K38">
-        <v>6.5</v>
-      </c>
-      <c r="O38">
-        <v>5.5</v>
-      </c>
-      <c r="U38">
-        <v>6</v>
-      </c>
-      <c r="AB38">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AC38" s="18">
-        <f t="shared" si="1"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="AD38">
-        <f t="shared" si="2"/>
-        <v>0.7682953714410744</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I39">
-        <v>5.5</v>
-      </c>
-      <c r="AB39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC39" s="18">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="AD39" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40">
-        <v>8.5</v>
-      </c>
-      <c r="C40">
-        <v>7.5</v>
-      </c>
-      <c r="D40">
-        <v>7.5</v>
-      </c>
-      <c r="E40">
-        <v>7</v>
-      </c>
-      <c r="F40">
-        <v>6.5</v>
-      </c>
-      <c r="G40">
-        <v>7</v>
-      </c>
-      <c r="H40">
-        <v>6.5</v>
-      </c>
-      <c r="J40">
-        <v>7.5</v>
-      </c>
-      <c r="K40">
-        <v>7</v>
-      </c>
-      <c r="L40">
-        <v>7.5</v>
-      </c>
-      <c r="M40">
-        <v>6.5</v>
-      </c>
-      <c r="N40">
-        <v>7</v>
-      </c>
-      <c r="O40">
-        <v>7</v>
-      </c>
-      <c r="P40">
-        <v>6.5</v>
-      </c>
-      <c r="Q40">
-        <v>6.5</v>
-      </c>
-      <c r="U40">
-        <v>6.5</v>
-      </c>
-      <c r="V40">
-        <v>6</v>
-      </c>
-      <c r="W40">
-        <v>7</v>
-      </c>
-      <c r="X40">
-        <v>6.5</v>
-      </c>
-      <c r="Y40">
-        <v>6.5</v>
-      </c>
-      <c r="AB40">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="AC40" s="18">
-        <f t="shared" si="1"/>
-        <v>6.9249999999999998</v>
-      </c>
-      <c r="AD40">
-        <f t="shared" si="2"/>
-        <v>0.568354040884266</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41">
-        <v>7</v>
-      </c>
-      <c r="H41">
-        <v>7</v>
-      </c>
-      <c r="J41">
-        <v>7.5</v>
-      </c>
-      <c r="K41">
-        <v>7.5</v>
-      </c>
-      <c r="L41">
-        <v>7</v>
-      </c>
-      <c r="M41">
-        <v>7</v>
-      </c>
-      <c r="N41">
-        <v>7</v>
-      </c>
-      <c r="O41">
-        <v>8</v>
-      </c>
-      <c r="P41">
-        <v>7.5</v>
-      </c>
-      <c r="AB41">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AC41" s="18">
-        <f t="shared" si="1"/>
-        <v>7.2777777777777777</v>
-      </c>
-      <c r="AD41">
-        <f t="shared" si="2"/>
-        <v>0.36324157862838946</v>
-      </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42">
-        <v>7.5</v>
-      </c>
-      <c r="E42">
-        <v>6.5</v>
-      </c>
-      <c r="F42">
-        <v>6.5</v>
-      </c>
-      <c r="H42">
-        <v>8.5</v>
-      </c>
-      <c r="I42">
-        <v>6.5</v>
-      </c>
-      <c r="K42">
-        <v>6</v>
-      </c>
-      <c r="L42">
-        <v>6.5</v>
-      </c>
-      <c r="M42">
-        <v>6</v>
-      </c>
-      <c r="N42">
-        <v>6</v>
-      </c>
-      <c r="O42">
-        <v>6</v>
-      </c>
-      <c r="P42">
-        <v>6.5</v>
-      </c>
-      <c r="Q42">
-        <v>5.5</v>
-      </c>
-      <c r="R42">
-        <v>7</v>
-      </c>
-      <c r="S42">
-        <v>6.5</v>
-      </c>
-      <c r="T42">
-        <v>6.5</v>
-      </c>
-      <c r="U42">
-        <v>6</v>
-      </c>
-      <c r="V42">
-        <v>6.5</v>
-      </c>
-      <c r="W42">
-        <v>6.5</v>
-      </c>
-      <c r="X42">
-        <v>6.5</v>
-      </c>
-      <c r="AB42">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AC42" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-      <c r="AD42">
-        <f t="shared" si="2"/>
-        <v>0.6454972243679028</v>
-      </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43">
-        <v>5.5</v>
-      </c>
-      <c r="R43">
-        <v>5</v>
-      </c>
-      <c r="Y43">
-        <v>5.5</v>
-      </c>
-      <c r="AB43">
-        <f t="shared" ref="AB43:AB44" si="3">COUNT(B43:AA43)</f>
-        <v>3</v>
-      </c>
-      <c r="AC43" s="18">
-        <f t="shared" ref="AC43:AC44" si="4">AVERAGE(B43:AA43)</f>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="AD43">
-        <f t="shared" ref="AD43:AD44" si="5">IF(AB43&gt;1,_xlfn.STDEV.S(B43:AA43),"")</f>
-        <v>0.28867513459481287</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44">
-        <v>7</v>
-      </c>
-      <c r="V44">
-        <v>6.5</v>
-      </c>
-      <c r="W44">
-        <v>6.5</v>
-      </c>
-      <c r="X44">
-        <v>6</v>
-      </c>
-      <c r="Y44">
-        <v>6.5</v>
-      </c>
-      <c r="AB44">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="AC44" s="18">
-        <f t="shared" si="4"/>
-        <v>6.5</v>
-      </c>
-      <c r="AD44">
-        <f t="shared" si="5"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W82">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W91">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="23:23" x14ac:dyDescent="0.3">
-      <c r="W95">
-        <v>5.5</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:X44" xr:uid="{2AD33299-2C67-4297-B1F3-23392AF60815}"/>
-  <conditionalFormatting sqref="Z2:Z38">
-    <cfRule type="colorScale" priority="39">
+  <autoFilter ref="A1:AF1" xr:uid="{BE87B430-2801-4609-9DBE-7959E365F7EE}">
+    <sortState ref="A2:AF49">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="B2:Q39">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3500,8 +3637,104 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB39">
-    <cfRule type="colorScale" priority="35">
+  <conditionalFormatting sqref="AC2:AC39">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE2:AE39">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC40:AC43">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE40:AE43">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC43">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC44">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE44">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC44">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC2:AC49">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3513,19 +3746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD39">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB40:AB42">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3536,20 +3757,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD40:AD42">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y46:Z47 B46:V47 Z2:Z45">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="AD40:AD43">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3560,152 +3769,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB42">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC39">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC40:AC42">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC42">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z42">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W74:W90">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W46:W47 W74:W95">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB43">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD43">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB43">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC43">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC43">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB44">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="AD2:AD43">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3717,66 +3782,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD44">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB44">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC44">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC44">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X46:X47">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Y38 W2 W7 W11:W12 W15:W21 W31 B2:V38">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3788,7 +3793,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:Q39">
+  <conditionalFormatting sqref="AD44">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3800,8 +3805,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:Y45 X2:Y43 W2 W7 W11:W12 W15:W21 W31 W40 B2:V43">
+  <conditionalFormatting sqref="AD2:AD49">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:AA38 W2 W7 W11:W12 W15:W21 W31 B2:V38">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:AA47 X2:AA43 W2 W7 W11:W12 W15:W21 W31 W40 B2:V43 Z49">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3818,10 +3847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3831,52 +3860,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -3914,19 +3943,19 @@
         <v>12</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -3940,19 +3969,19 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="I3" s="3">
         <v>7</v>
@@ -3970,7 +3999,7 @@
         <v>9</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>10</v>
@@ -3996,7 +4025,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>10</v>
@@ -4043,16 +4072,16 @@
         <v>7</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
         <v>10</v>
@@ -4061,7 +4090,7 @@
         <v>13</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>5</v>
@@ -4070,13 +4099,13 @@
         <v>3</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -4093,7 +4122,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>12</v>
@@ -4111,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>5</v>
@@ -4123,10 +4152,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -4137,7 +4166,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>5</v>
@@ -4149,10 +4178,10 @@
         <v>2</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="11">
         <v>3</v>
@@ -4161,10 +4190,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>9</v>
@@ -4187,10 +4216,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>9</v>
@@ -4217,7 +4246,7 @@
         <v>7</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>12</v>
@@ -4243,10 +4272,10 @@
         <v>5</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>10</v>
@@ -4267,16 +4296,16 @@
         <v>7</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="N9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -4293,17 +4322,17 @@
         <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="I10" s="10">
         <v>2</v>
       </c>
@@ -4317,7 +4346,7 @@
         <v>3</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>4</v>
@@ -4343,7 +4372,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>4</v>
@@ -4367,10 +4396,10 @@
         <v>5</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O11" s="12" t="s">
         <v>10</v>
@@ -4396,13 +4425,13 @@
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="9">
         <v>6</v>
@@ -4411,13 +4440,13 @@
         <v>5</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>5</v>
@@ -4426,7 +4455,7 @@
         <v>11</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -4437,13 +4466,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>5</v>
@@ -4452,7 +4481,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="11">
         <v>6</v>
@@ -4467,10 +4496,10 @@
         <v>10</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>2</v>
@@ -4493,10 +4522,10 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>2</v>
@@ -4520,13 +4549,13 @@
         <v>6</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -4540,10 +4569,10 @@
         <v>9</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>2</v>
@@ -4552,7 +4581,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="9">
         <v>5</v>
@@ -4570,13 +4599,13 @@
         <v>5</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -4596,13 +4625,13 @@
         <v>5</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="11">
         <v>9</v>
@@ -4617,16 +4646,16 @@
         <v>10</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -4643,16 +4672,16 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" s="5">
         <v>6</v>
@@ -4664,10 +4693,10 @@
         <v>9</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N17" s="8" t="s">
         <v>2</v>
@@ -4676,7 +4705,7 @@
         <v>11</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -4687,7 +4716,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>4</v>
@@ -4696,10 +4725,10 @@
         <v>5</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>3</v>
@@ -4723,10 +4752,10 @@
         <v>9</v>
       </c>
       <c r="O18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -4749,10 +4778,10 @@
         <v>9</v>
       </c>
       <c r="G19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="I19" s="11">
         <v>9</v>
@@ -4761,13 +4790,13 @@
         <v>3</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="M19" s="2" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>12</v>
@@ -4787,13 +4816,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>12</v>
@@ -4811,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>4</v>
@@ -4820,10 +4849,10 @@
         <v>5</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P20" s="8" t="s">
         <v>3</v>
@@ -4837,16 +4866,16 @@
         <v>4</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>11</v>
@@ -4861,13 +4890,13 @@
         <v>4</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>6</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>4</v>
@@ -4876,7 +4905,7 @@
         <v>8</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -4887,13 +4916,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>4</v>
@@ -4902,7 +4931,7 @@
         <v>8</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I22" s="11">
         <v>6</v>
@@ -4911,13 +4940,13 @@
         <v>4</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>7</v>
@@ -4926,7 +4955,7 @@
         <v>12</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -4937,13 +4966,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>7</v>
@@ -4952,7 +4981,7 @@
         <v>12</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I23" s="5">
         <v>6</v>
@@ -4961,16 +4990,16 @@
         <v>5</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>11</v>
@@ -4987,16 +5016,16 @@
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>11</v>
@@ -5017,7 +5046,7 @@
         <v>9</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>7</v>
@@ -5043,7 +5072,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>7</v>
@@ -5061,10 +5090,10 @@
         <v>9</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>8</v>
@@ -5073,10 +5102,10 @@
         <v>4</v>
       </c>
       <c r="O25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -5087,10 +5116,10 @@
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>8</v>
@@ -5099,11 +5128,11 @@
         <v>4</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="I26" s="5">
         <v>7</v>
       </c>
@@ -5111,16 +5140,16 @@
         <v>3</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O26" s="8" t="s">
         <v>11</v>
@@ -5137,22 +5166,22 @@
         <v>4</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9">
         <v>5</v>
@@ -5167,13 +5196,13 @@
         <v>11</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N27" s="10" t="s">
         <v>6</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P27" s="10" t="s">
         <v>12</v>
@@ -5193,13 +5222,13 @@
         <v>11</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>12</v>
@@ -5214,10 +5243,10 @@
         <v>1</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>2</v>
@@ -5240,10 +5269,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>2</v>
@@ -5261,22 +5290,22 @@
         <v>4</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>4</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O29" s="8" t="s">
         <v>5</v>
       </c>
       <c r="P29" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -5287,34 +5316,34 @@
         <v>4</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="9">
+        <v>2</v>
+      </c>
+      <c r="J30" s="10">
+        <v>7</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="9">
-        <v>2</v>
-      </c>
-      <c r="J30" s="10">
-        <v>7</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="M30" s="10" t="s">
         <v>12</v>
@@ -5340,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>12</v>
@@ -5361,22 +5390,22 @@
         <v>6</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -5387,43 +5416,43 @@
         <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="5">
+        <v>4</v>
+      </c>
+      <c r="J32" s="12">
+        <v>3</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O32" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="5">
-        <v>4</v>
-      </c>
-      <c r="J32" s="12">
-        <v>3</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="P32" s="8" t="s">
         <v>2</v>
@@ -5437,10 +5466,10 @@
         <v>5</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>9</v>
@@ -5449,10 +5478,10 @@
         <v>12</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I33" s="9">
         <v>7</v>
@@ -5467,16 +5496,16 @@
         <v>2</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N33" s="10" t="s">
         <v>4</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -5493,37 +5522,37 @@
         <v>2</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="11">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="11">
-        <v>5</v>
-      </c>
-      <c r="J34" s="2">
-        <v>2</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>7</v>
@@ -5540,16 +5569,16 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>7</v>
@@ -5561,10 +5590,10 @@
         <v>1</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>9</v>
@@ -5573,10 +5602,10 @@
         <v>12</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -5587,22 +5616,22 @@
         <v>4</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="G36" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I36" s="9">
         <v>4</v>
@@ -5611,13 +5640,13 @@
         <v>7</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>9</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N36" s="10" t="s">
         <v>11</v>
@@ -5626,7 +5655,7 @@
         <v>10</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -5637,13 +5666,13 @@
         <v>5</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>11</v>
@@ -5652,7 +5681,7 @@
         <v>10</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I37" s="11">
         <v>6</v>
@@ -5670,13 +5699,13 @@
         <v>12</v>
       </c>
       <c r="N37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -5696,14 +5725,14 @@
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="I38" s="5">
         <v>1</v>
       </c>
@@ -5711,22 +5740,22 @@
         <v>4</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>6</v>
       </c>
       <c r="M38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="N38" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="O38" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -5740,40 +5769,40 @@
         <v>10</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="9">
+        <v>5</v>
+      </c>
+      <c r="J39" s="10">
+        <v>5</v>
+      </c>
+      <c r="K39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39" s="9">
-        <v>5</v>
-      </c>
-      <c r="J39" s="10">
-        <v>5</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="L39" s="10" t="s">
         <v>5</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N39" s="10" t="s">
         <v>8</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P39" s="10" t="s">
         <v>6</v>
@@ -5787,19 +5816,19 @@
         <v>5</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>6</v>
@@ -5817,10 +5846,10 @@
         <v>9</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>11</v>
@@ -5843,10 +5872,10 @@
         <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>11</v>
@@ -5864,10 +5893,10 @@
         <v>10</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>3</v>
@@ -5876,7 +5905,7 @@
         <v>4</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -5890,7 +5919,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>11</v>
@@ -5914,19 +5943,19 @@
         <v>1</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>3</v>
       </c>
       <c r="O42" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P42" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="P42" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -5940,19 +5969,19 @@
         <v>1</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="I43" s="11">
         <v>5</v>
@@ -5964,19 +5993,19 @@
         <v>10</v>
       </c>
       <c r="L43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="O43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -5990,19 +6019,19 @@
         <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I44" s="5">
         <v>4</v>
@@ -6014,7 +6043,7 @@
         <v>9</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M44" s="8" t="s">
         <v>11</v>
@@ -6043,16 +6072,16 @@
         <v>4</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>3</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I45" s="9">
         <v>3</v>
@@ -6061,19 +6090,19 @@
         <v>0</v>
       </c>
       <c r="K45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L45" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M45" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="N45" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P45" s="10" t="s">
         <v>2</v>
@@ -6087,19 +6116,19 @@
         <v>3</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="F46" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>2</v>
@@ -6111,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>9</v>
@@ -6120,10 +6149,10 @@
         <v>10</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>5</v>
@@ -6137,7 +6166,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>9</v>
@@ -6146,10 +6175,10 @@
         <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
@@ -6167,16 +6196,16 @@
         <v>4</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O47" s="8" t="s">
         <v>3</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -6187,19 +6216,19 @@
         <v>6</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="9">
@@ -6209,16 +6238,16 @@
         <v>3</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10" t="s">
         <v>10</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>4</v>
@@ -6233,16 +6262,16 @@
         <v>4</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>4</v>
@@ -6261,10 +6290,10 @@
         <v>3</v>
       </c>
       <c r="M49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>2</v>
@@ -6285,10 +6314,10 @@
         <v>3</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>2</v>
@@ -6301,19 +6330,19 @@
         <v>11</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L50" s="8" t="s">
         <v>12</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P50" s="8"/>
     </row>
@@ -6325,19 +6354,19 @@
         <v>6</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="F51" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>4</v>
@@ -6352,16 +6381,16 @@
         <v>1</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M51" s="10" t="s">
         <v>10</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P51" s="10" t="s">
         <v>2</v>
@@ -6378,16 +6407,16 @@
         <v>1</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>2</v>
@@ -6402,10 +6431,10 @@
         <v>9</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>6</v>
@@ -6414,7 +6443,7 @@
         <v>11</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -6428,10 +6457,10 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>6</v>
@@ -6440,7 +6469,7 @@
         <v>11</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I53" s="5">
         <v>2</v>
@@ -6449,19 +6478,19 @@
         <v>8</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L53" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M53" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M53" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="N53" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P53" s="8" t="s">
         <v>4</v>
@@ -6478,19 +6507,19 @@
         <v>10</v>
       </c>
       <c r="D54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="G54" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="I54" s="9">
         <v>4</v>
@@ -6502,19 +6531,19 @@
         <v>9</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P54" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -6528,19 +6557,19 @@
         <v>9</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I55" s="11">
         <v>7</v>
@@ -6552,7 +6581,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>11</v>
@@ -6561,10 +6590,10 @@
         <v>4</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -6578,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>11</v>
@@ -6587,10 +6616,10 @@
         <v>4</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I56" s="5">
         <v>2</v>
@@ -6602,19 +6631,19 @@
         <v>10</v>
       </c>
       <c r="L56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M56" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="O56" s="8" t="s">
         <v>6</v>
       </c>
       <c r="P56" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -6628,16 +6657,16 @@
         <v>1</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>2</v>
@@ -6649,19 +6678,19 @@
         <v>7</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N57" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O57" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P57" s="10" t="s">
         <v>6</v>
@@ -6675,19 +6704,19 @@
         <v>5</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H58" s="10" t="s">
         <v>6</v>
@@ -6702,16 +6731,16 @@
         <v>4</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -6728,16 +6757,16 @@
         <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
@@ -6752,16 +6781,16 @@
         <v>1</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M59" s="8" t="s">
         <v>5</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P59" s="8" t="s">
         <v>2</v>
@@ -6778,43 +6807,43 @@
         <v>1</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I60" s="9">
+        <v>3</v>
+      </c>
+      <c r="J60" s="10">
+        <v>2</v>
+      </c>
+      <c r="K60" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G60" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I60" s="9">
-        <v>3</v>
-      </c>
-      <c r="J60" s="10">
-        <v>2</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="L60" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M60" s="10" t="s">
         <v>9</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O60" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P60" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -6825,22 +6854,22 @@
         <v>5</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I61" s="11">
         <v>6</v>
@@ -6849,22 +6878,22 @@
         <v>3</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -6875,22 +6904,22 @@
         <v>4</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I62" s="5">
         <v>5</v>
@@ -6902,13 +6931,13 @@
         <v>1</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>4</v>
@@ -6928,19 +6957,19 @@
         <v>1</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I63" s="9">
         <v>0</v>
@@ -6949,22 +6978,22 @@
         <v>5</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N63" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O63" s="10" t="s">
         <v>2</v>
       </c>
       <c r="P63" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -6975,43 +7004,43 @@
         <v>4</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F64" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I64" s="11">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2">
+        <v>4</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I64" s="11">
-        <v>1</v>
-      </c>
-      <c r="J64" s="2">
-        <v>4</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="N64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>9</v>
@@ -7025,19 +7054,19 @@
         <v>4</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>9</v>
@@ -7052,19 +7081,19 @@
         <v>1</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>4</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P65" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -7078,16 +7107,16 @@
         <v>1</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>6</v>
@@ -7105,16 +7134,16 @@
         <v>10</v>
       </c>
       <c r="M66" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O66" s="10" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="P66" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -7131,34 +7160,34 @@
         <v>10</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G67" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I67" s="11">
+        <v>3</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N67" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="H67" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I67" s="11">
-        <v>3</v>
-      </c>
-      <c r="J67" s="2">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>2</v>
@@ -7175,16 +7204,16 @@
         <v>5</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>2</v>
@@ -7202,16 +7231,16 @@
         <v>1</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M68" s="8" t="s">
         <v>9</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P68" s="8" t="s">
         <v>6</v>
@@ -7231,13 +7260,13 @@
         <v>10</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>5</v>
@@ -7249,7 +7278,7 @@
         <v>3</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L69" s="10" t="s">
         <v>4</v>
@@ -7258,13 +7287,13 @@
         <v>2</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O69" s="10" t="s">
         <v>11</v>
       </c>
       <c r="P69" s="10" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -7275,7 +7304,7 @@
         <v>5</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>4</v>
@@ -7284,13 +7313,13 @@
         <v>2</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="I70" s="11">
         <v>3</v>
@@ -7299,22 +7328,22 @@
         <v>7</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P70" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -7325,22 +7354,22 @@
         <v>6</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="I71" s="5">
         <v>6</v>
@@ -7355,16 +7384,166 @@
         <v>10</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O71" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P71" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="14">
+        <v>45617</v>
+      </c>
+      <c r="B72" s="3">
+        <v>4</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P71" s="8" t="s">
-        <v>5</v>
+      <c r="G72" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="9">
+        <v>5</v>
+      </c>
+      <c r="J72" s="10">
+        <v>4</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M72" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N72" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O72" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P72" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73" s="14">
+        <v>45617</v>
+      </c>
+      <c r="B73" s="3">
+        <v>5</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I73" s="11">
+        <v>5</v>
+      </c>
+      <c r="J73" s="2">
+        <v>7</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" s="14">
+        <v>45617</v>
+      </c>
+      <c r="B74" s="5">
+        <v>5</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I74" s="5">
+        <v>6</v>
+      </c>
+      <c r="J74" s="8">
+        <v>4</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N74" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O74" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P74" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -7374,10 +7553,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40949BC3-8DAE-4185-A4C0-F8573FA5A3A2}">
-  <dimension ref="A1:AI45"/>
+  <dimension ref="A1:AI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI20" sqref="AI20"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7391,6 +7570,7 @@
     <col min="22" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
@@ -7398,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1">
         <v>45448</v>
@@ -7472,11 +7652,14 @@
       <c r="Z1" s="1">
         <v>45609</v>
       </c>
+      <c r="AA1" s="1">
+        <v>45616</v>
+      </c>
       <c r="AH1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AI1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
@@ -7490,17 +7673,17 @@
         <v>2</v>
       </c>
       <c r="AH2">
-        <f>SUM(B2:AG2)</f>
+        <f t="shared" ref="AH2:AH49" si="0">SUM(B2:AG2)</f>
         <v>5</v>
       </c>
       <c r="AI2">
-        <f>SUM(V2:AG2)</f>
+        <f t="shared" ref="AI2:AI49" si="1">SUM(V2:AG2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -7509,40 +7692,43 @@
         <v>1</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH45" si="0">SUM(B3:AG3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI45" si="1">SUM(V3:AG3)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="AA4">
+        <v>3</v>
       </c>
       <c r="AH4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
       </c>
       <c r="AH5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI5">
         <f t="shared" si="1"/>
@@ -7551,7 +7737,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
@@ -7564,183 +7750,177 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AH7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="J8">
+        <v>24</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="W8">
         <v>1</v>
       </c>
       <c r="Y8">
         <v>1</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>1</v>
       </c>
       <c r="AH8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="W9">
-        <v>2</v>
-      </c>
-      <c r="X9">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
       </c>
       <c r="AH9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI9">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI10">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
       </c>
       <c r="AH11">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AI11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="P12">
-        <v>3</v>
-      </c>
-      <c r="V12">
-        <v>3</v>
-      </c>
-      <c r="Y12">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
       </c>
       <c r="AH12">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AI12">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
       </c>
       <c r="AH13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AI13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
+        <v>51</v>
+      </c>
+      <c r="K14">
         <v>1</v>
       </c>
       <c r="AH14">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI14">
         <f t="shared" si="1"/>
@@ -7749,272 +7929,260 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="Z15">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="AH15">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J16">
         <v>3</v>
       </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16">
-        <v>2</v>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
       </c>
       <c r="AH16">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AI16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M17">
         <v>2</v>
       </c>
-      <c r="N17">
-        <v>2</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
       <c r="P17">
-        <v>2</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>3</v>
       </c>
       <c r="AH17">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI17">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
         <v>1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X18">
         <v>1</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH18">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AI18">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Z19">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
       </c>
       <c r="AH19">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AI19">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z20">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
       </c>
       <c r="AH20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AI20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
       </c>
       <c r="X21">
         <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
       </c>
       <c r="AH21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AI21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="V22">
-        <v>2</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="Z22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH22">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AI22">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>60</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
       </c>
       <c r="AH23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>4</v>
+      </c>
+      <c r="AA24">
+        <v>3</v>
       </c>
       <c r="AH24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AI24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH25">
         <f t="shared" si="0"/>
@@ -8027,115 +8195,100 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="N26">
-        <v>2</v>
+        <v>67</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
       </c>
       <c r="AH26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>3</v>
-      </c>
-      <c r="V27">
-        <v>2</v>
-      </c>
-      <c r="W27">
-        <v>3</v>
-      </c>
-      <c r="Z27">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="AH27">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AI27">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>4</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
       </c>
       <c r="AH28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
       <c r="Z29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH29">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AI29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>3</v>
-      </c>
-      <c r="Y30">
-        <v>2</v>
-      </c>
-      <c r="Z30">
+        <v>45</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>4</v>
+      </c>
+      <c r="V30">
         <v>1</v>
       </c>
       <c r="AH30">
@@ -8144,69 +8297,75 @@
       </c>
       <c r="AI30">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="V31">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <v>3</v>
       </c>
       <c r="AH31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI31">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>55</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>3</v>
+      </c>
+      <c r="Y32">
+        <v>2</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>2</v>
       </c>
       <c r="AH32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V33">
         <v>2</v>
-      </c>
-      <c r="W33">
-        <v>1</v>
-      </c>
-      <c r="X33">
-        <v>1</v>
-      </c>
-      <c r="Y33">
-        <v>1</v>
-      </c>
-      <c r="Z33">
-        <v>3</v>
       </c>
       <c r="AH33">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AI33">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AH34">
         <f t="shared" si="0"/>
@@ -8219,36 +8378,42 @@
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="V35">
         <v>2</v>
       </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
       <c r="X35">
         <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>3</v>
+      </c>
+      <c r="AA35">
+        <v>2</v>
       </c>
       <c r="AH35">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AI35">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36">
-        <v>2</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AH36">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI36">
         <f t="shared" si="1"/>
@@ -8257,46 +8422,52 @@
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>71</v>
+      </c>
+      <c r="AA37">
+        <v>3</v>
       </c>
       <c r="AH37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="X38">
         <v>1</v>
       </c>
       <c r="AH38">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI38">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="J39">
+        <v>21</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
         <v>1</v>
       </c>
       <c r="AH39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI39">
         <f t="shared" si="1"/>
@@ -8305,101 +8476,95 @@
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="K40">
-        <v>2</v>
-      </c>
-      <c r="L40">
-        <v>4</v>
-      </c>
-      <c r="P40">
-        <v>3</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40">
-        <v>2</v>
-      </c>
-      <c r="X40">
-        <v>2</v>
-      </c>
-      <c r="Y40">
-        <v>3</v>
-      </c>
-      <c r="Z40">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="AH40">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI40">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="P41">
-        <v>2</v>
+      <c r="V41">
+        <v>1</v>
       </c>
       <c r="AH41">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="W42">
+        <v>2</v>
       </c>
       <c r="X42">
         <v>1</v>
       </c>
       <c r="Y42">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>2</v>
       </c>
       <c r="AH42">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="AI42">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z43">
+        <v>48</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
         <v>2</v>
       </c>
       <c r="AH43">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI43">
         <f t="shared" si="1"/>
@@ -8408,46 +8573,155 @@
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
       </c>
       <c r="W44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X44">
+        <v>2</v>
+      </c>
+      <c r="Y44">
         <v>3</v>
       </c>
       <c r="Z44">
         <v>2</v>
+      </c>
+      <c r="AA44">
+        <v>3</v>
       </c>
       <c r="AH44">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AI44">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
       </c>
       <c r="AH45">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>3</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AI46">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z47">
+        <v>2</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="W48">
+        <v>4</v>
+      </c>
+      <c r="X48">
+        <v>3</v>
+      </c>
+      <c r="Z48">
+        <v>2</v>
+      </c>
+      <c r="AA48">
+        <v>5</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AI48">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Z45" xr:uid="{F745EDF0-B9B0-4FBB-A85C-93DDEACA181C}">
-    <sortState ref="A2:Z45">
-      <sortCondition ref="A1:A45"/>
+  <autoFilter ref="A1:AI49" xr:uid="{61E79A78-4F80-407D-A2F2-F8547AFACF43}">
+    <sortState ref="A2:AI49">
+      <sortCondition ref="A1:A49"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
